--- a/mastodon-radio-1001-nights/1001-nights-in-amateur-radio.xlsx
+++ b/mastodon-radio-1001-nights/1001-nights-in-amateur-radio.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Readme</t>
   </si>
@@ -258,6 +258,115 @@
   </si>
   <si>
     <t>Upgrade existing antenna</t>
+  </si>
+  <si>
+    <t>Receiver build - Homebrew</t>
+  </si>
+  <si>
+    <t>Receiver build - Kit</t>
+  </si>
+  <si>
+    <t>Receiver build - Pre-built</t>
+  </si>
+  <si>
+    <t>Like the WSPR receiver or Belka</t>
+  </si>
+  <si>
+    <t>Transmitter build - Homebrew</t>
+  </si>
+  <si>
+    <t>Transmitter build - Kit</t>
+  </si>
+  <si>
+    <t>Like the OXO transmitter</t>
+  </si>
+  <si>
+    <t>Transmitter build - Pre-built</t>
+  </si>
+  <si>
+    <t>Transceiver build - Homebrew</t>
+  </si>
+  <si>
+    <t>Transceiver build - Kit</t>
+  </si>
+  <si>
+    <t>Transceiver build - Pre-built</t>
+  </si>
+  <si>
+    <t>Fine tune existing receiver</t>
+  </si>
+  <si>
+    <t>Upgrade existing receiver</t>
+  </si>
+  <si>
+    <t>Fine tune existing transmitter</t>
+  </si>
+  <si>
+    <t>Upgrade existing transmitter</t>
+  </si>
+  <si>
+    <t>Fine tune existing transceiver</t>
+  </si>
+  <si>
+    <t>Upgrade existing transceiver</t>
+  </si>
+  <si>
+    <t>HF contact on SSB (Local)</t>
+  </si>
+  <si>
+    <t>Local net</t>
+  </si>
+  <si>
+    <t>HF contact on SSB (DX)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Rockall - </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.rockallexped.com</t>
+    </r>
+  </si>
+  <si>
+    <t>VHF contact on SSB (Local)</t>
+  </si>
+  <si>
+    <t>VHF contact on SSB (DX)</t>
+  </si>
+  <si>
+    <t>VHF contact on FM (Local)</t>
+  </si>
+  <si>
+    <t>VHF contact on FM (DX)</t>
+  </si>
+  <si>
+    <t>Satellite contact (Local)</t>
+  </si>
+  <si>
+    <t>Is there a difference between Local &amp; DX for Stallite?</t>
+  </si>
+  <si>
+    <t>Satellite contact (DX)</t>
+  </si>
+  <si>
+    <t>EME contact (Local)</t>
+  </si>
+  <si>
+    <t>Is there a difference between Local &amp; DX for EME?</t>
+  </si>
+  <si>
+    <t>EME contact (DX)</t>
   </si>
 </sst>
 </file>
@@ -502,10 +611,10 @@
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2042,7 +2151,9 @@
         <f>A25+1</f>
         <v>45068</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" t="s" s="15">
+        <v>39</v>
+      </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -2050,7 +2161,9 @@
         <f>A26+1</f>
         <v>45069</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" t="s" s="16">
+        <v>40</v>
+      </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -2058,15 +2171,21 @@
         <f>A27+1</f>
         <v>45070</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="4"/>
+      <c r="B28" t="s" s="15">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s" s="17">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" s="14">
         <f>A28+1</f>
         <v>45071</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" t="s" s="16">
+        <v>43</v>
+      </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -2074,15 +2193,21 @@
         <f>A29+1</f>
         <v>45072</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="4"/>
+      <c r="B30" t="s" s="15">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s" s="17">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" s="14">
         <f>A30+1</f>
         <v>45073</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" t="s" s="16">
+        <v>46</v>
+      </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -2090,7 +2215,9 @@
         <f>A31+1</f>
         <v>45074</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" t="s" s="15">
+        <v>47</v>
+      </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -2098,7 +2225,9 @@
         <f>A32+1</f>
         <v>45075</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" t="s" s="16">
+        <v>48</v>
+      </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -2106,7 +2235,9 @@
         <f>A33+1</f>
         <v>45076</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" t="s" s="15">
+        <v>49</v>
+      </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -2114,7 +2245,9 @@
         <f>A34+1</f>
         <v>45077</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" t="s" s="16">
+        <v>50</v>
+      </c>
       <c r="C35" s="3"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -2122,7 +2255,9 @@
         <f>A35+1</f>
         <v>45078</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" t="s" s="15">
+        <v>51</v>
+      </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -2130,7 +2265,9 @@
         <f>A36+1</f>
         <v>45079</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" t="s" s="16">
+        <v>52</v>
+      </c>
       <c r="C37" s="3"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -2138,7 +2275,9 @@
         <f>A37+1</f>
         <v>45080</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" t="s" s="15">
+        <v>53</v>
+      </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -2146,7 +2285,9 @@
         <f>A38+1</f>
         <v>45081</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" t="s" s="16">
+        <v>54</v>
+      </c>
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -2154,7 +2295,9 @@
         <f>A39+1</f>
         <v>45082</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" t="s" s="15">
+        <v>55</v>
+      </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -2162,31 +2305,45 @@
         <f>A40+1</f>
         <v>45083</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="3"/>
+      <c r="B41" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s" s="18">
+        <v>57</v>
+      </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" s="14">
         <f>A41+1</f>
         <v>45084</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="4"/>
+      <c r="B42" t="s" s="15">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s" s="17">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" s="14">
         <f>A42+1</f>
         <v>45085</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="3"/>
+      <c r="B43" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s" s="18">
+        <v>57</v>
+      </c>
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" s="14">
         <f>A43+1</f>
         <v>45086</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" t="s" s="15">
+        <v>61</v>
+      </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -2194,55 +2351,77 @@
         <f>A44+1</f>
         <v>45087</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="3"/>
+      <c r="B45" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s" s="18">
+        <v>57</v>
+      </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" s="14">
         <f>A45+1</f>
         <v>45088</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" t="s" s="15">
+        <v>63</v>
+      </c>
       <c r="C46" s="4"/>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
+    <row r="47" ht="32.05" customHeight="1">
       <c r="A47" s="14">
         <f>A46+1</f>
         <v>45089</v>
       </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
+      <c r="B47" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s" s="18">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" ht="32.05" customHeight="1">
       <c r="A48" s="14">
         <f>A47+1</f>
         <v>45090</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
+      <c r="B48" t="s" s="15">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s" s="17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" ht="32.05" customHeight="1">
       <c r="A49" s="14">
         <f>A48+1</f>
         <v>45091</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
+      <c r="B49" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="C49" t="s" s="18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" ht="32.05" customHeight="1">
       <c r="A50" s="14">
         <f>A49+1</f>
         <v>45092</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="4"/>
+      <c r="B50" t="s" s="15">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s" s="17">
+        <v>68</v>
+      </c>
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" s="14">
         <f>A50+1</f>
         <v>45093</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -2250,7 +2429,7 @@
         <f>A51+1</f>
         <v>45094</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -2258,7 +2437,7 @@
         <f>A52+1</f>
         <v>45095</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -2266,7 +2445,7 @@
         <f>A53+1</f>
         <v>45096</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -2274,7 +2453,7 @@
         <f>A54+1</f>
         <v>45097</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
@@ -2282,7 +2461,7 @@
         <f>A55+1</f>
         <v>45098</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -2290,7 +2469,7 @@
         <f>A56+1</f>
         <v>45099</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -2298,7 +2477,7 @@
         <f>A57+1</f>
         <v>45100</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
@@ -2306,7 +2485,7 @@
         <f>A58+1</f>
         <v>45101</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -2314,7 +2493,7 @@
         <f>A59+1</f>
         <v>45102</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
@@ -2322,7 +2501,7 @@
         <f>A60+1</f>
         <v>45103</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -2330,7 +2509,7 @@
         <f>A61+1</f>
         <v>45104</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -2338,7 +2517,7 @@
         <f>A62+1</f>
         <v>45105</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -2346,7 +2525,7 @@
         <f>A63+1</f>
         <v>45106</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -2354,7 +2533,7 @@
         <f>A64+1</f>
         <v>45107</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -2362,7 +2541,7 @@
         <f>A65+1</f>
         <v>45108</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -2370,7 +2549,7 @@
         <f>A66+1</f>
         <v>45109</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -2378,7 +2557,7 @@
         <f>A67+1</f>
         <v>45110</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -2386,7 +2565,7 @@
         <f>A68+1</f>
         <v>45111</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -2394,7 +2573,7 @@
         <f>A69+1</f>
         <v>45112</v>
       </c>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -2402,7 +2581,7 @@
         <f>A70+1</f>
         <v>45113</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -2410,7 +2589,7 @@
         <f>A71+1</f>
         <v>45114</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -2418,7 +2597,7 @@
         <f>A72+1</f>
         <v>45115</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -2426,7 +2605,7 @@
         <f>A73+1</f>
         <v>45116</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -2434,7 +2613,7 @@
         <f>A74+1</f>
         <v>45117</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -2442,7 +2621,7 @@
         <f>A75+1</f>
         <v>45118</v>
       </c>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -2450,7 +2629,7 @@
         <f>A76+1</f>
         <v>45119</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -2458,7 +2637,7 @@
         <f>A77+1</f>
         <v>45120</v>
       </c>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -2466,7 +2645,7 @@
         <f>A78+1</f>
         <v>45121</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -2474,7 +2653,7 @@
         <f>A79+1</f>
         <v>45122</v>
       </c>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -2482,7 +2661,7 @@
         <f>A80+1</f>
         <v>45123</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -2490,7 +2669,7 @@
         <f>A81+1</f>
         <v>45124</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -2498,7 +2677,7 @@
         <f>A82+1</f>
         <v>45125</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -2506,7 +2685,7 @@
         <f>A83+1</f>
         <v>45126</v>
       </c>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -2514,7 +2693,7 @@
         <f>A84+1</f>
         <v>45127</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -2522,7 +2701,7 @@
         <f>A85+1</f>
         <v>45128</v>
       </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -2530,7 +2709,7 @@
         <f>A86+1</f>
         <v>45129</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -2538,7 +2717,7 @@
         <f>A87+1</f>
         <v>45130</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -2546,7 +2725,7 @@
         <f>A88+1</f>
         <v>45131</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -2554,7 +2733,7 @@
         <f>A89+1</f>
         <v>45132</v>
       </c>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -2562,7 +2741,7 @@
         <f>A90+1</f>
         <v>45133</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -2570,7 +2749,7 @@
         <f>A91+1</f>
         <v>45134</v>
       </c>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -2578,7 +2757,7 @@
         <f>A92+1</f>
         <v>45135</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -2586,7 +2765,7 @@
         <f>A93+1</f>
         <v>45136</v>
       </c>
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -2594,7 +2773,7 @@
         <f>A94+1</f>
         <v>45137</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -2602,7 +2781,7 @@
         <f>A95+1</f>
         <v>45138</v>
       </c>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -2610,7 +2789,7 @@
         <f>A96+1</f>
         <v>45139</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -2618,7 +2797,7 @@
         <f>A97+1</f>
         <v>45140</v>
       </c>
-      <c r="B98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -2626,7 +2805,7 @@
         <f>A98+1</f>
         <v>45141</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -2634,7 +2813,7 @@
         <f>A99+1</f>
         <v>45142</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -2642,7 +2821,7 @@
         <f>A100+1</f>
         <v>45143</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -2650,7 +2829,7 @@
         <f>A101+1</f>
         <v>45144</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -2658,7 +2837,7 @@
         <f>A102+1</f>
         <v>45145</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -2666,7 +2845,7 @@
         <f>A103+1</f>
         <v>45146</v>
       </c>
-      <c r="B104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -2674,7 +2853,7 @@
         <f>A104+1</f>
         <v>45147</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -2682,7 +2861,7 @@
         <f>A105+1</f>
         <v>45148</v>
       </c>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -2690,7 +2869,7 @@
         <f>A106+1</f>
         <v>45149</v>
       </c>
-      <c r="B107" s="20"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -2698,7 +2877,7 @@
         <f>A107+1</f>
         <v>45150</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -2706,7 +2885,7 @@
         <f>A108+1</f>
         <v>45151</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -2714,7 +2893,7 @@
         <f>A109+1</f>
         <v>45152</v>
       </c>
-      <c r="B110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -2722,7 +2901,7 @@
         <f>A110+1</f>
         <v>45153</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -2730,7 +2909,7 @@
         <f>A111+1</f>
         <v>45154</v>
       </c>
-      <c r="B112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -2738,7 +2917,7 @@
         <f>A112+1</f>
         <v>45155</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -2746,7 +2925,7 @@
         <f>A113+1</f>
         <v>45156</v>
       </c>
-      <c r="B114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -2754,7 +2933,7 @@
         <f>A114+1</f>
         <v>45157</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -2762,7 +2941,7 @@
         <f>A115+1</f>
         <v>45158</v>
       </c>
-      <c r="B116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -2770,7 +2949,7 @@
         <f>A116+1</f>
         <v>45159</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -2778,7 +2957,7 @@
         <f>A117+1</f>
         <v>45160</v>
       </c>
-      <c r="B118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -2786,7 +2965,7 @@
         <f>A118+1</f>
         <v>45161</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -2794,7 +2973,7 @@
         <f>A119+1</f>
         <v>45162</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -2802,7 +2981,7 @@
         <f>A120+1</f>
         <v>45163</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -2810,7 +2989,7 @@
         <f>A121+1</f>
         <v>45164</v>
       </c>
-      <c r="B122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -2818,7 +2997,7 @@
         <f>A122+1</f>
         <v>45165</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -2826,7 +3005,7 @@
         <f>A123+1</f>
         <v>45166</v>
       </c>
-      <c r="B124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -2834,7 +3013,7 @@
         <f>A124+1</f>
         <v>45167</v>
       </c>
-      <c r="B125" s="20"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -2842,7 +3021,7 @@
         <f>A125+1</f>
         <v>45168</v>
       </c>
-      <c r="B126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -2850,7 +3029,7 @@
         <f>A126+1</f>
         <v>45169</v>
       </c>
-      <c r="B127" s="20"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -2858,7 +3037,7 @@
         <f>A127+1</f>
         <v>45170</v>
       </c>
-      <c r="B128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -2866,7 +3045,7 @@
         <f>A128+1</f>
         <v>45171</v>
       </c>
-      <c r="B129" s="20"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -2874,7 +3053,7 @@
         <f>A129+1</f>
         <v>45172</v>
       </c>
-      <c r="B130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -2882,7 +3061,7 @@
         <f>A130+1</f>
         <v>45173</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -2890,7 +3069,7 @@
         <f>A131+1</f>
         <v>45174</v>
       </c>
-      <c r="B132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -2898,7 +3077,7 @@
         <f>A132+1</f>
         <v>45175</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -2906,7 +3085,7 @@
         <f>A133+1</f>
         <v>45176</v>
       </c>
-      <c r="B134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -2914,7 +3093,7 @@
         <f>A134+1</f>
         <v>45177</v>
       </c>
-      <c r="B135" s="20"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -2922,7 +3101,7 @@
         <f>A135+1</f>
         <v>45178</v>
       </c>
-      <c r="B136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -2930,7 +3109,7 @@
         <f>A136+1</f>
         <v>45179</v>
       </c>
-      <c r="B137" s="20"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -2938,7 +3117,7 @@
         <f>A137+1</f>
         <v>45180</v>
       </c>
-      <c r="B138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -2946,7 +3125,7 @@
         <f>A138+1</f>
         <v>45181</v>
       </c>
-      <c r="B139" s="20"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -2954,7 +3133,7 @@
         <f>A139+1</f>
         <v>45182</v>
       </c>
-      <c r="B140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -2962,7 +3141,7 @@
         <f>A140+1</f>
         <v>45183</v>
       </c>
-      <c r="B141" s="20"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -2970,7 +3149,7 @@
         <f>A141+1</f>
         <v>45184</v>
       </c>
-      <c r="B142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -2978,7 +3157,7 @@
         <f>A142+1</f>
         <v>45185</v>
       </c>
-      <c r="B143" s="20"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -2986,7 +3165,7 @@
         <f>A143+1</f>
         <v>45186</v>
       </c>
-      <c r="B144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -2994,7 +3173,7 @@
         <f>A144+1</f>
         <v>45187</v>
       </c>
-      <c r="B145" s="20"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -3002,7 +3181,7 @@
         <f>A145+1</f>
         <v>45188</v>
       </c>
-      <c r="B146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -3010,7 +3189,7 @@
         <f>A146+1</f>
         <v>45189</v>
       </c>
-      <c r="B147" s="20"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -3018,7 +3197,7 @@
         <f>A147+1</f>
         <v>45190</v>
       </c>
-      <c r="B148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -3026,7 +3205,7 @@
         <f>A148+1</f>
         <v>45191</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -3034,7 +3213,7 @@
         <f>A149+1</f>
         <v>45192</v>
       </c>
-      <c r="B150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -3042,7 +3221,7 @@
         <f>A150+1</f>
         <v>45193</v>
       </c>
-      <c r="B151" s="20"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -3050,7 +3229,7 @@
         <f>A151+1</f>
         <v>45194</v>
       </c>
-      <c r="B152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -3058,7 +3237,7 @@
         <f>A152+1</f>
         <v>45195</v>
       </c>
-      <c r="B153" s="20"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -3066,7 +3245,7 @@
         <f>A153+1</f>
         <v>45196</v>
       </c>
-      <c r="B154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -3074,7 +3253,7 @@
         <f>A154+1</f>
         <v>45197</v>
       </c>
-      <c r="B155" s="20"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -3082,7 +3261,7 @@
         <f>A155+1</f>
         <v>45198</v>
       </c>
-      <c r="B156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -3090,7 +3269,7 @@
         <f>A156+1</f>
         <v>45199</v>
       </c>
-      <c r="B157" s="20"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -3098,7 +3277,7 @@
         <f>A157+1</f>
         <v>45200</v>
       </c>
-      <c r="B158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -3106,7 +3285,7 @@
         <f>A158+1</f>
         <v>45201</v>
       </c>
-      <c r="B159" s="20"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -3114,7 +3293,7 @@
         <f>A159+1</f>
         <v>45202</v>
       </c>
-      <c r="B160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -3122,7 +3301,7 @@
         <f>A160+1</f>
         <v>45203</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -3130,7 +3309,7 @@
         <f>A161+1</f>
         <v>45204</v>
       </c>
-      <c r="B162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -3138,7 +3317,7 @@
         <f>A162+1</f>
         <v>45205</v>
       </c>
-      <c r="B163" s="20"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -3146,7 +3325,7 @@
         <f>A163+1</f>
         <v>45206</v>
       </c>
-      <c r="B164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -3154,7 +3333,7 @@
         <f>A164+1</f>
         <v>45207</v>
       </c>
-      <c r="B165" s="20"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -3162,7 +3341,7 @@
         <f>A165+1</f>
         <v>45208</v>
       </c>
-      <c r="B166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -3170,7 +3349,7 @@
         <f>A166+1</f>
         <v>45209</v>
       </c>
-      <c r="B167" s="20"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -3178,7 +3357,7 @@
         <f>A167+1</f>
         <v>45210</v>
       </c>
-      <c r="B168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -3186,7 +3365,7 @@
         <f>A168+1</f>
         <v>45211</v>
       </c>
-      <c r="B169" s="20"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -3194,7 +3373,7 @@
         <f>A169+1</f>
         <v>45212</v>
       </c>
-      <c r="B170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -3202,7 +3381,7 @@
         <f>A170+1</f>
         <v>45213</v>
       </c>
-      <c r="B171" s="20"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -3210,7 +3389,7 @@
         <f>A171+1</f>
         <v>45214</v>
       </c>
-      <c r="B172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -3218,7 +3397,7 @@
         <f>A172+1</f>
         <v>45215</v>
       </c>
-      <c r="B173" s="20"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -3226,7 +3405,7 @@
         <f>A173+1</f>
         <v>45216</v>
       </c>
-      <c r="B174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -3234,7 +3413,7 @@
         <f>A174+1</f>
         <v>45217</v>
       </c>
-      <c r="B175" s="20"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -3242,7 +3421,7 @@
         <f>A175+1</f>
         <v>45218</v>
       </c>
-      <c r="B176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -3250,7 +3429,7 @@
         <f>A176+1</f>
         <v>45219</v>
       </c>
-      <c r="B177" s="20"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -3258,7 +3437,7 @@
         <f>A177+1</f>
         <v>45220</v>
       </c>
-      <c r="B178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -3266,7 +3445,7 @@
         <f>A178+1</f>
         <v>45221</v>
       </c>
-      <c r="B179" s="20"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -3274,7 +3453,7 @@
         <f>A179+1</f>
         <v>45222</v>
       </c>
-      <c r="B180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -3282,7 +3461,7 @@
         <f>A180+1</f>
         <v>45223</v>
       </c>
-      <c r="B181" s="20"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -3290,7 +3469,7 @@
         <f>A181+1</f>
         <v>45224</v>
       </c>
-      <c r="B182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -3298,7 +3477,7 @@
         <f>A182+1</f>
         <v>45225</v>
       </c>
-      <c r="B183" s="20"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -3306,7 +3485,7 @@
         <f>A183+1</f>
         <v>45226</v>
       </c>
-      <c r="B184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -3314,7 +3493,7 @@
         <f>A184+1</f>
         <v>45227</v>
       </c>
-      <c r="B185" s="20"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -3322,7 +3501,7 @@
         <f>A185+1</f>
         <v>45228</v>
       </c>
-      <c r="B186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -3330,7 +3509,7 @@
         <f>A186+1</f>
         <v>45229</v>
       </c>
-      <c r="B187" s="20"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -3338,7 +3517,7 @@
         <f>A187+1</f>
         <v>45230</v>
       </c>
-      <c r="B188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -3346,7 +3525,7 @@
         <f>A188+1</f>
         <v>45231</v>
       </c>
-      <c r="B189" s="20"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -3354,7 +3533,7 @@
         <f>A189+1</f>
         <v>45232</v>
       </c>
-      <c r="B190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -3362,7 +3541,7 @@
         <f>A190+1</f>
         <v>45233</v>
       </c>
-      <c r="B191" s="20"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -3370,7 +3549,7 @@
         <f>A191+1</f>
         <v>45234</v>
       </c>
-      <c r="B192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -3378,7 +3557,7 @@
         <f>A192+1</f>
         <v>45235</v>
       </c>
-      <c r="B193" s="20"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -3386,7 +3565,7 @@
         <f>A193+1</f>
         <v>45236</v>
       </c>
-      <c r="B194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -3394,7 +3573,7 @@
         <f>A194+1</f>
         <v>45237</v>
       </c>
-      <c r="B195" s="20"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -3402,7 +3581,7 @@
         <f>A195+1</f>
         <v>45238</v>
       </c>
-      <c r="B196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -3410,7 +3589,7 @@
         <f>A196+1</f>
         <v>45239</v>
       </c>
-      <c r="B197" s="20"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -3418,7 +3597,7 @@
         <f>A197+1</f>
         <v>45240</v>
       </c>
-      <c r="B198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -3426,7 +3605,7 @@
         <f>A198+1</f>
         <v>45241</v>
       </c>
-      <c r="B199" s="20"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -3434,7 +3613,7 @@
         <f>A199+1</f>
         <v>45242</v>
       </c>
-      <c r="B200" s="19"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -3442,7 +3621,7 @@
         <f>A200+1</f>
         <v>45243</v>
       </c>
-      <c r="B201" s="20"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -3450,7 +3629,7 @@
         <f>A201+1</f>
         <v>45244</v>
       </c>
-      <c r="B202" s="19"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -3458,7 +3637,7 @@
         <f>A202+1</f>
         <v>45245</v>
       </c>
-      <c r="B203" s="20"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -3466,7 +3645,7 @@
         <f>A203+1</f>
         <v>45246</v>
       </c>
-      <c r="B204" s="19"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -3474,7 +3653,7 @@
         <f>A204+1</f>
         <v>45247</v>
       </c>
-      <c r="B205" s="20"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -3482,7 +3661,7 @@
         <f>A205+1</f>
         <v>45248</v>
       </c>
-      <c r="B206" s="19"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -3490,7 +3669,7 @@
         <f>A206+1</f>
         <v>45249</v>
       </c>
-      <c r="B207" s="20"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -3498,7 +3677,7 @@
         <f>A207+1</f>
         <v>45250</v>
       </c>
-      <c r="B208" s="19"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -3506,7 +3685,7 @@
         <f>A208+1</f>
         <v>45251</v>
       </c>
-      <c r="B209" s="20"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -3514,7 +3693,7 @@
         <f>A209+1</f>
         <v>45252</v>
       </c>
-      <c r="B210" s="19"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -3522,7 +3701,7 @@
         <f>A210+1</f>
         <v>45253</v>
       </c>
-      <c r="B211" s="20"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -3530,7 +3709,7 @@
         <f>A211+1</f>
         <v>45254</v>
       </c>
-      <c r="B212" s="19"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -3538,7 +3717,7 @@
         <f>A212+1</f>
         <v>45255</v>
       </c>
-      <c r="B213" s="20"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -3546,7 +3725,7 @@
         <f>A213+1</f>
         <v>45256</v>
       </c>
-      <c r="B214" s="19"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -3554,7 +3733,7 @@
         <f>A214+1</f>
         <v>45257</v>
       </c>
-      <c r="B215" s="20"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -3562,7 +3741,7 @@
         <f>A215+1</f>
         <v>45258</v>
       </c>
-      <c r="B216" s="19"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -3570,7 +3749,7 @@
         <f>A216+1</f>
         <v>45259</v>
       </c>
-      <c r="B217" s="20"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -3578,7 +3757,7 @@
         <f>A217+1</f>
         <v>45260</v>
       </c>
-      <c r="B218" s="19"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -3586,7 +3765,7 @@
         <f>A218+1</f>
         <v>45261</v>
       </c>
-      <c r="B219" s="20"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -3594,7 +3773,7 @@
         <f>A219+1</f>
         <v>45262</v>
       </c>
-      <c r="B220" s="19"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -3602,7 +3781,7 @@
         <f>A220+1</f>
         <v>45263</v>
       </c>
-      <c r="B221" s="20"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -3610,7 +3789,7 @@
         <f>A221+1</f>
         <v>45264</v>
       </c>
-      <c r="B222" s="19"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -3618,7 +3797,7 @@
         <f>A222+1</f>
         <v>45265</v>
       </c>
-      <c r="B223" s="20"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -3626,7 +3805,7 @@
         <f>A223+1</f>
         <v>45266</v>
       </c>
-      <c r="B224" s="19"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -3634,7 +3813,7 @@
         <f>A224+1</f>
         <v>45267</v>
       </c>
-      <c r="B225" s="20"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -3642,7 +3821,7 @@
         <f>A225+1</f>
         <v>45268</v>
       </c>
-      <c r="B226" s="19"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -3650,7 +3829,7 @@
         <f>A226+1</f>
         <v>45269</v>
       </c>
-      <c r="B227" s="20"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -3658,7 +3837,7 @@
         <f>A227+1</f>
         <v>45270</v>
       </c>
-      <c r="B228" s="19"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -3666,7 +3845,7 @@
         <f>A228+1</f>
         <v>45271</v>
       </c>
-      <c r="B229" s="20"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -3674,7 +3853,7 @@
         <f>A229+1</f>
         <v>45272</v>
       </c>
-      <c r="B230" s="19"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -3682,7 +3861,7 @@
         <f>A230+1</f>
         <v>45273</v>
       </c>
-      <c r="B231" s="20"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -3690,7 +3869,7 @@
         <f>A231+1</f>
         <v>45274</v>
       </c>
-      <c r="B232" s="19"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -3698,7 +3877,7 @@
         <f>A232+1</f>
         <v>45275</v>
       </c>
-      <c r="B233" s="20"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -3706,7 +3885,7 @@
         <f>A233+1</f>
         <v>45276</v>
       </c>
-      <c r="B234" s="19"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -3714,7 +3893,7 @@
         <f>A234+1</f>
         <v>45277</v>
       </c>
-      <c r="B235" s="20"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -3722,7 +3901,7 @@
         <f>A235+1</f>
         <v>45278</v>
       </c>
-      <c r="B236" s="19"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -3730,7 +3909,7 @@
         <f>A236+1</f>
         <v>45279</v>
       </c>
-      <c r="B237" s="20"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -3738,7 +3917,7 @@
         <f>A237+1</f>
         <v>45280</v>
       </c>
-      <c r="B238" s="19"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -3746,7 +3925,7 @@
         <f>A238+1</f>
         <v>45281</v>
       </c>
-      <c r="B239" s="20"/>
+      <c r="B239" s="19"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -3754,7 +3933,7 @@
         <f>A239+1</f>
         <v>45282</v>
       </c>
-      <c r="B240" s="19"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -3762,7 +3941,7 @@
         <f>A240+1</f>
         <v>45283</v>
       </c>
-      <c r="B241" s="20"/>
+      <c r="B241" s="19"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -3770,7 +3949,7 @@
         <f>A241+1</f>
         <v>45284</v>
       </c>
-      <c r="B242" s="19"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -3778,7 +3957,7 @@
         <f>A242+1</f>
         <v>45285</v>
       </c>
-      <c r="B243" s="20"/>
+      <c r="B243" s="19"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -3786,7 +3965,7 @@
         <f>A243+1</f>
         <v>45286</v>
       </c>
-      <c r="B244" s="19"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -3794,7 +3973,7 @@
         <f>A244+1</f>
         <v>45287</v>
       </c>
-      <c r="B245" s="20"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -3802,7 +3981,7 @@
         <f>A245+1</f>
         <v>45288</v>
       </c>
-      <c r="B246" s="19"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -3810,7 +3989,7 @@
         <f>A246+1</f>
         <v>45289</v>
       </c>
-      <c r="B247" s="20"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -3818,7 +3997,7 @@
         <f>A247+1</f>
         <v>45290</v>
       </c>
-      <c r="B248" s="19"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -3826,7 +4005,7 @@
         <f>A248+1</f>
         <v>45291</v>
       </c>
-      <c r="B249" s="20"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="3"/>
     </row>
   </sheetData>
@@ -3837,6 +4016,7 @@
     <hyperlink ref="C12" r:id="rId1" location="" tooltip="" display="https://www.tog.ie/2022/02/building-a-tinygs-station/"/>
     <hyperlink ref="C15" r:id="rId2" location="" tooltip="" display="https://youtu.be/lnIJsnvceTM"/>
     <hyperlink ref="C21" r:id="rId3" location="" tooltip="" display="https://www.youtube.com/watch?v=P1K0RNleD8w"/>
+    <hyperlink ref="C42" r:id="rId4" location="" tooltip="" display="https://www.rockallexped.com"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -3895,7 +4075,7 @@
         <f>A3+1</f>
         <v>45293</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -3903,7 +4083,7 @@
         <f>A4+1</f>
         <v>45294</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -3911,7 +4091,7 @@
         <f>A5+1</f>
         <v>45295</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -3919,7 +4099,7 @@
         <f>A6+1</f>
         <v>45296</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -3927,7 +4107,7 @@
         <f>A7+1</f>
         <v>45297</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -3935,7 +4115,7 @@
         <f>A8+1</f>
         <v>45298</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -3943,7 +4123,7 @@
         <f>A9+1</f>
         <v>45299</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -3951,7 +4131,7 @@
         <f>A10+1</f>
         <v>45300</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -3959,7 +4139,7 @@
         <f>A11+1</f>
         <v>45301</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -3967,7 +4147,7 @@
         <f>A12+1</f>
         <v>45302</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -3975,7 +4155,7 @@
         <f>A13+1</f>
         <v>45303</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -3983,7 +4163,7 @@
         <f>A14+1</f>
         <v>45304</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -3991,7 +4171,7 @@
         <f>A15+1</f>
         <v>45305</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -3999,7 +4179,7 @@
         <f>A16+1</f>
         <v>45306</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -4007,7 +4187,7 @@
         <f>A17+1</f>
         <v>45307</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -4015,7 +4195,7 @@
         <f>A18+1</f>
         <v>45308</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -4023,7 +4203,7 @@
         <f>A19+1</f>
         <v>45309</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -4031,7 +4211,7 @@
         <f>A20+1</f>
         <v>45310</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -4039,7 +4219,7 @@
         <f>A21+1</f>
         <v>45311</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -4047,7 +4227,7 @@
         <f>A22+1</f>
         <v>45312</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -4055,7 +4235,7 @@
         <f>A23+1</f>
         <v>45313</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -4063,7 +4243,7 @@
         <f>A24+1</f>
         <v>45314</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -4071,7 +4251,7 @@
         <f>A25+1</f>
         <v>45315</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -4079,7 +4259,7 @@
         <f>A26+1</f>
         <v>45316</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -4087,7 +4267,7 @@
         <f>A27+1</f>
         <v>45317</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -4095,7 +4275,7 @@
         <f>A28+1</f>
         <v>45318</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -4103,7 +4283,7 @@
         <f>A29+1</f>
         <v>45319</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -4111,7 +4291,7 @@
         <f>A30+1</f>
         <v>45320</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -4119,7 +4299,7 @@
         <f>A31+1</f>
         <v>45321</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -4127,7 +4307,7 @@
         <f>A32+1</f>
         <v>45322</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -4135,7 +4315,7 @@
         <f>A33+1</f>
         <v>45323</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -4143,7 +4323,7 @@
         <f>A34+1</f>
         <v>45324</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -4151,7 +4331,7 @@
         <f>A35+1</f>
         <v>45325</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -4159,7 +4339,7 @@
         <f>A36+1</f>
         <v>45326</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -4167,7 +4347,7 @@
         <f>A37+1</f>
         <v>45327</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -4175,7 +4355,7 @@
         <f>A38+1</f>
         <v>45328</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -4183,7 +4363,7 @@
         <f>A39+1</f>
         <v>45329</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -4191,7 +4371,7 @@
         <f>A40+1</f>
         <v>45330</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -4199,7 +4379,7 @@
         <f>A41+1</f>
         <v>45331</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -4207,7 +4387,7 @@
         <f>A42+1</f>
         <v>45332</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -4215,7 +4395,7 @@
         <f>A43+1</f>
         <v>45333</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -4223,7 +4403,7 @@
         <f>A44+1</f>
         <v>45334</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -4231,7 +4411,7 @@
         <f>A45+1</f>
         <v>45335</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -4239,7 +4419,7 @@
         <f>A46+1</f>
         <v>45336</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -4247,7 +4427,7 @@
         <f>A47+1</f>
         <v>45337</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -4255,7 +4435,7 @@
         <f>A48+1</f>
         <v>45338</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -4263,7 +4443,7 @@
         <f>A49+1</f>
         <v>45339</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="4"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -4271,7 +4451,7 @@
         <f>A50+1</f>
         <v>45340</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -4279,7 +4459,7 @@
         <f>A51+1</f>
         <v>45341</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -4287,7 +4467,7 @@
         <f>A52+1</f>
         <v>45342</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -4295,7 +4475,7 @@
         <f>A53+1</f>
         <v>45343</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -4303,7 +4483,7 @@
         <f>A54+1</f>
         <v>45344</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
@@ -4311,7 +4491,7 @@
         <f>A55+1</f>
         <v>45345</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -4319,7 +4499,7 @@
         <f>A56+1</f>
         <v>45346</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -4327,7 +4507,7 @@
         <f>A57+1</f>
         <v>45347</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
@@ -4335,7 +4515,7 @@
         <f>A58+1</f>
         <v>45348</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -4343,7 +4523,7 @@
         <f>A59+1</f>
         <v>45349</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
@@ -4351,7 +4531,7 @@
         <f>A60+1</f>
         <v>45350</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -4359,7 +4539,7 @@
         <f>A61+1</f>
         <v>45351</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -4367,7 +4547,7 @@
         <f>A62+1</f>
         <v>45352</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -4375,7 +4555,7 @@
         <f>A63+1</f>
         <v>45353</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -4383,7 +4563,7 @@
         <f>A64+1</f>
         <v>45354</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -4391,7 +4571,7 @@
         <f>A65+1</f>
         <v>45355</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -4399,7 +4579,7 @@
         <f>A66+1</f>
         <v>45356</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -4407,7 +4587,7 @@
         <f>A67+1</f>
         <v>45357</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -4415,7 +4595,7 @@
         <f>A68+1</f>
         <v>45358</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -4423,7 +4603,7 @@
         <f>A69+1</f>
         <v>45359</v>
       </c>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -4431,7 +4611,7 @@
         <f>A70+1</f>
         <v>45360</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -4439,7 +4619,7 @@
         <f>A71+1</f>
         <v>45361</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -4447,7 +4627,7 @@
         <f>A72+1</f>
         <v>45362</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -4455,7 +4635,7 @@
         <f>A73+1</f>
         <v>45363</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -4463,7 +4643,7 @@
         <f>A74+1</f>
         <v>45364</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -4471,7 +4651,7 @@
         <f>A75+1</f>
         <v>45365</v>
       </c>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -4479,7 +4659,7 @@
         <f>A76+1</f>
         <v>45366</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -4487,7 +4667,7 @@
         <f>A77+1</f>
         <v>45367</v>
       </c>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -4495,7 +4675,7 @@
         <f>A78+1</f>
         <v>45368</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -4503,7 +4683,7 @@
         <f>A79+1</f>
         <v>45369</v>
       </c>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -4511,7 +4691,7 @@
         <f>A80+1</f>
         <v>45370</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -4519,7 +4699,7 @@
         <f>A81+1</f>
         <v>45371</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -4527,7 +4707,7 @@
         <f>A82+1</f>
         <v>45372</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -4535,7 +4715,7 @@
         <f>A83+1</f>
         <v>45373</v>
       </c>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -4543,7 +4723,7 @@
         <f>A84+1</f>
         <v>45374</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -4551,7 +4731,7 @@
         <f>A85+1</f>
         <v>45375</v>
       </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -4559,7 +4739,7 @@
         <f>A86+1</f>
         <v>45376</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -4567,7 +4747,7 @@
         <f>A87+1</f>
         <v>45377</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -4575,7 +4755,7 @@
         <f>A88+1</f>
         <v>45378</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -4583,7 +4763,7 @@
         <f>A89+1</f>
         <v>45379</v>
       </c>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -4591,7 +4771,7 @@
         <f>A90+1</f>
         <v>45380</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -4599,7 +4779,7 @@
         <f>A91+1</f>
         <v>45381</v>
       </c>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -4607,7 +4787,7 @@
         <f>A92+1</f>
         <v>45382</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -4615,7 +4795,7 @@
         <f>A93+1</f>
         <v>45383</v>
       </c>
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -4623,7 +4803,7 @@
         <f>A94+1</f>
         <v>45384</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -4631,7 +4811,7 @@
         <f>A95+1</f>
         <v>45385</v>
       </c>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -4639,7 +4819,7 @@
         <f>A96+1</f>
         <v>45386</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -4647,7 +4827,7 @@
         <f>A97+1</f>
         <v>45387</v>
       </c>
-      <c r="B98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -4655,7 +4835,7 @@
         <f>A98+1</f>
         <v>45388</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -4663,7 +4843,7 @@
         <f>A99+1</f>
         <v>45389</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -4671,7 +4851,7 @@
         <f>A100+1</f>
         <v>45390</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -4679,7 +4859,7 @@
         <f>A101+1</f>
         <v>45391</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -4687,7 +4867,7 @@
         <f>A102+1</f>
         <v>45392</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -4695,7 +4875,7 @@
         <f>A103+1</f>
         <v>45393</v>
       </c>
-      <c r="B104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -4703,7 +4883,7 @@
         <f>A104+1</f>
         <v>45394</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -4711,7 +4891,7 @@
         <f>A105+1</f>
         <v>45395</v>
       </c>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -4719,7 +4899,7 @@
         <f>A106+1</f>
         <v>45396</v>
       </c>
-      <c r="B107" s="20"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -4727,7 +4907,7 @@
         <f>A107+1</f>
         <v>45397</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -4735,7 +4915,7 @@
         <f>A108+1</f>
         <v>45398</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -4743,7 +4923,7 @@
         <f>A109+1</f>
         <v>45399</v>
       </c>
-      <c r="B110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -4751,7 +4931,7 @@
         <f>A110+1</f>
         <v>45400</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -4759,7 +4939,7 @@
         <f>A111+1</f>
         <v>45401</v>
       </c>
-      <c r="B112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -4767,7 +4947,7 @@
         <f>A112+1</f>
         <v>45402</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -4775,7 +4955,7 @@
         <f>A113+1</f>
         <v>45403</v>
       </c>
-      <c r="B114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -4783,7 +4963,7 @@
         <f>A114+1</f>
         <v>45404</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -4791,7 +4971,7 @@
         <f>A115+1</f>
         <v>45405</v>
       </c>
-      <c r="B116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -4799,7 +4979,7 @@
         <f>A116+1</f>
         <v>45406</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -4807,7 +4987,7 @@
         <f>A117+1</f>
         <v>45407</v>
       </c>
-      <c r="B118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -4815,7 +4995,7 @@
         <f>A118+1</f>
         <v>45408</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -4823,7 +5003,7 @@
         <f>A119+1</f>
         <v>45409</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -4831,7 +5011,7 @@
         <f>A120+1</f>
         <v>45410</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -4839,7 +5019,7 @@
         <f>A121+1</f>
         <v>45411</v>
       </c>
-      <c r="B122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -4847,7 +5027,7 @@
         <f>A122+1</f>
         <v>45412</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -4855,7 +5035,7 @@
         <f>A123+1</f>
         <v>45413</v>
       </c>
-      <c r="B124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -4863,7 +5043,7 @@
         <f>A124+1</f>
         <v>45414</v>
       </c>
-      <c r="B125" s="20"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -4871,7 +5051,7 @@
         <f>A125+1</f>
         <v>45415</v>
       </c>
-      <c r="B126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -4879,7 +5059,7 @@
         <f>A126+1</f>
         <v>45416</v>
       </c>
-      <c r="B127" s="20"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -4887,7 +5067,7 @@
         <f>A127+1</f>
         <v>45417</v>
       </c>
-      <c r="B128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -4895,7 +5075,7 @@
         <f>A128+1</f>
         <v>45418</v>
       </c>
-      <c r="B129" s="20"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -4903,7 +5083,7 @@
         <f>A129+1</f>
         <v>45419</v>
       </c>
-      <c r="B130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -4911,7 +5091,7 @@
         <f>A130+1</f>
         <v>45420</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -4919,7 +5099,7 @@
         <f>A131+1</f>
         <v>45421</v>
       </c>
-      <c r="B132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -4927,7 +5107,7 @@
         <f>A132+1</f>
         <v>45422</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -4935,7 +5115,7 @@
         <f>A133+1</f>
         <v>45423</v>
       </c>
-      <c r="B134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -4943,7 +5123,7 @@
         <f>A134+1</f>
         <v>45424</v>
       </c>
-      <c r="B135" s="20"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -4951,7 +5131,7 @@
         <f>A135+1</f>
         <v>45425</v>
       </c>
-      <c r="B136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -4959,7 +5139,7 @@
         <f>A136+1</f>
         <v>45426</v>
       </c>
-      <c r="B137" s="20"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -4967,7 +5147,7 @@
         <f>A137+1</f>
         <v>45427</v>
       </c>
-      <c r="B138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -4975,7 +5155,7 @@
         <f>A138+1</f>
         <v>45428</v>
       </c>
-      <c r="B139" s="20"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -4983,7 +5163,7 @@
         <f>A139+1</f>
         <v>45429</v>
       </c>
-      <c r="B140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -4991,7 +5171,7 @@
         <f>A140+1</f>
         <v>45430</v>
       </c>
-      <c r="B141" s="20"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -4999,7 +5179,7 @@
         <f>A141+1</f>
         <v>45431</v>
       </c>
-      <c r="B142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -5007,7 +5187,7 @@
         <f>A142+1</f>
         <v>45432</v>
       </c>
-      <c r="B143" s="20"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -5015,7 +5195,7 @@
         <f>A143+1</f>
         <v>45433</v>
       </c>
-      <c r="B144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -5023,7 +5203,7 @@
         <f>A144+1</f>
         <v>45434</v>
       </c>
-      <c r="B145" s="20"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -5031,7 +5211,7 @@
         <f>A145+1</f>
         <v>45435</v>
       </c>
-      <c r="B146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -5039,7 +5219,7 @@
         <f>A146+1</f>
         <v>45436</v>
       </c>
-      <c r="B147" s="20"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -5047,7 +5227,7 @@
         <f>A147+1</f>
         <v>45437</v>
       </c>
-      <c r="B148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -5055,7 +5235,7 @@
         <f>A148+1</f>
         <v>45438</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -5063,7 +5243,7 @@
         <f>A149+1</f>
         <v>45439</v>
       </c>
-      <c r="B150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -5071,7 +5251,7 @@
         <f>A150+1</f>
         <v>45440</v>
       </c>
-      <c r="B151" s="20"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -5079,7 +5259,7 @@
         <f>A151+1</f>
         <v>45441</v>
       </c>
-      <c r="B152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -5087,7 +5267,7 @@
         <f>A152+1</f>
         <v>45442</v>
       </c>
-      <c r="B153" s="20"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -5095,7 +5275,7 @@
         <f>A153+1</f>
         <v>45443</v>
       </c>
-      <c r="B154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -5103,7 +5283,7 @@
         <f>A154+1</f>
         <v>45444</v>
       </c>
-      <c r="B155" s="20"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -5111,7 +5291,7 @@
         <f>A155+1</f>
         <v>45445</v>
       </c>
-      <c r="B156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -5119,7 +5299,7 @@
         <f>A156+1</f>
         <v>45446</v>
       </c>
-      <c r="B157" s="20"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -5127,7 +5307,7 @@
         <f>A157+1</f>
         <v>45447</v>
       </c>
-      <c r="B158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -5135,7 +5315,7 @@
         <f>A158+1</f>
         <v>45448</v>
       </c>
-      <c r="B159" s="20"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -5143,7 +5323,7 @@
         <f>A159+1</f>
         <v>45449</v>
       </c>
-      <c r="B160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -5151,7 +5331,7 @@
         <f>A160+1</f>
         <v>45450</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -5159,7 +5339,7 @@
         <f>A161+1</f>
         <v>45451</v>
       </c>
-      <c r="B162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -5167,7 +5347,7 @@
         <f>A162+1</f>
         <v>45452</v>
       </c>
-      <c r="B163" s="20"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -5175,7 +5355,7 @@
         <f>A163+1</f>
         <v>45453</v>
       </c>
-      <c r="B164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -5183,7 +5363,7 @@
         <f>A164+1</f>
         <v>45454</v>
       </c>
-      <c r="B165" s="20"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -5191,7 +5371,7 @@
         <f>A165+1</f>
         <v>45455</v>
       </c>
-      <c r="B166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -5199,7 +5379,7 @@
         <f>A166+1</f>
         <v>45456</v>
       </c>
-      <c r="B167" s="20"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -5207,7 +5387,7 @@
         <f>A167+1</f>
         <v>45457</v>
       </c>
-      <c r="B168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -5215,7 +5395,7 @@
         <f>A168+1</f>
         <v>45458</v>
       </c>
-      <c r="B169" s="20"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -5223,7 +5403,7 @@
         <f>A169+1</f>
         <v>45459</v>
       </c>
-      <c r="B170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -5231,7 +5411,7 @@
         <f>A170+1</f>
         <v>45460</v>
       </c>
-      <c r="B171" s="20"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -5239,7 +5419,7 @@
         <f>A171+1</f>
         <v>45461</v>
       </c>
-      <c r="B172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -5247,7 +5427,7 @@
         <f>A172+1</f>
         <v>45462</v>
       </c>
-      <c r="B173" s="20"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -5255,7 +5435,7 @@
         <f>A173+1</f>
         <v>45463</v>
       </c>
-      <c r="B174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -5263,7 +5443,7 @@
         <f>A174+1</f>
         <v>45464</v>
       </c>
-      <c r="B175" s="20"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -5271,7 +5451,7 @@
         <f>A175+1</f>
         <v>45465</v>
       </c>
-      <c r="B176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -5279,7 +5459,7 @@
         <f>A176+1</f>
         <v>45466</v>
       </c>
-      <c r="B177" s="20"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -5287,7 +5467,7 @@
         <f>A177+1</f>
         <v>45467</v>
       </c>
-      <c r="B178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -5295,7 +5475,7 @@
         <f>A178+1</f>
         <v>45468</v>
       </c>
-      <c r="B179" s="20"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -5303,7 +5483,7 @@
         <f>A179+1</f>
         <v>45469</v>
       </c>
-      <c r="B180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -5311,7 +5491,7 @@
         <f>A180+1</f>
         <v>45470</v>
       </c>
-      <c r="B181" s="20"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -5319,7 +5499,7 @@
         <f>A181+1</f>
         <v>45471</v>
       </c>
-      <c r="B182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -5327,7 +5507,7 @@
         <f>A182+1</f>
         <v>45472</v>
       </c>
-      <c r="B183" s="20"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -5335,7 +5515,7 @@
         <f>A183+1</f>
         <v>45473</v>
       </c>
-      <c r="B184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -5343,7 +5523,7 @@
         <f>A184+1</f>
         <v>45474</v>
       </c>
-      <c r="B185" s="20"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -5351,7 +5531,7 @@
         <f>A185+1</f>
         <v>45475</v>
       </c>
-      <c r="B186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -5359,7 +5539,7 @@
         <f>A186+1</f>
         <v>45476</v>
       </c>
-      <c r="B187" s="20"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -5367,7 +5547,7 @@
         <f>A187+1</f>
         <v>45477</v>
       </c>
-      <c r="B188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -5375,7 +5555,7 @@
         <f>A188+1</f>
         <v>45478</v>
       </c>
-      <c r="B189" s="20"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -5383,7 +5563,7 @@
         <f>A189+1</f>
         <v>45479</v>
       </c>
-      <c r="B190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -5391,7 +5571,7 @@
         <f>A190+1</f>
         <v>45480</v>
       </c>
-      <c r="B191" s="20"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -5399,7 +5579,7 @@
         <f>A191+1</f>
         <v>45481</v>
       </c>
-      <c r="B192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -5407,7 +5587,7 @@
         <f>A192+1</f>
         <v>45482</v>
       </c>
-      <c r="B193" s="20"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -5415,7 +5595,7 @@
         <f>A193+1</f>
         <v>45483</v>
       </c>
-      <c r="B194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -5423,7 +5603,7 @@
         <f>A194+1</f>
         <v>45484</v>
       </c>
-      <c r="B195" s="20"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -5431,7 +5611,7 @@
         <f>A195+1</f>
         <v>45485</v>
       </c>
-      <c r="B196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -5439,7 +5619,7 @@
         <f>A196+1</f>
         <v>45486</v>
       </c>
-      <c r="B197" s="20"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -5447,7 +5627,7 @@
         <f>A197+1</f>
         <v>45487</v>
       </c>
-      <c r="B198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -5455,7 +5635,7 @@
         <f>A198+1</f>
         <v>45488</v>
       </c>
-      <c r="B199" s="20"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -5463,7 +5643,7 @@
         <f>A199+1</f>
         <v>45489</v>
       </c>
-      <c r="B200" s="19"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -5471,7 +5651,7 @@
         <f>A200+1</f>
         <v>45490</v>
       </c>
-      <c r="B201" s="20"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -5479,7 +5659,7 @@
         <f>A201+1</f>
         <v>45491</v>
       </c>
-      <c r="B202" s="19"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -5487,7 +5667,7 @@
         <f>A202+1</f>
         <v>45492</v>
       </c>
-      <c r="B203" s="20"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -5495,7 +5675,7 @@
         <f>A203+1</f>
         <v>45493</v>
       </c>
-      <c r="B204" s="19"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -5503,7 +5683,7 @@
         <f>A204+1</f>
         <v>45494</v>
       </c>
-      <c r="B205" s="20"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -5511,7 +5691,7 @@
         <f>A205+1</f>
         <v>45495</v>
       </c>
-      <c r="B206" s="19"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -5519,7 +5699,7 @@
         <f>A206+1</f>
         <v>45496</v>
       </c>
-      <c r="B207" s="20"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -5527,7 +5707,7 @@
         <f>A207+1</f>
         <v>45497</v>
       </c>
-      <c r="B208" s="19"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -5535,7 +5715,7 @@
         <f>A208+1</f>
         <v>45498</v>
       </c>
-      <c r="B209" s="20"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -5543,7 +5723,7 @@
         <f>A209+1</f>
         <v>45499</v>
       </c>
-      <c r="B210" s="19"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -5551,7 +5731,7 @@
         <f>A210+1</f>
         <v>45500</v>
       </c>
-      <c r="B211" s="20"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -5559,7 +5739,7 @@
         <f>A211+1</f>
         <v>45501</v>
       </c>
-      <c r="B212" s="19"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -5567,7 +5747,7 @@
         <f>A212+1</f>
         <v>45502</v>
       </c>
-      <c r="B213" s="20"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -5575,7 +5755,7 @@
         <f>A213+1</f>
         <v>45503</v>
       </c>
-      <c r="B214" s="19"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -5583,7 +5763,7 @@
         <f>A214+1</f>
         <v>45504</v>
       </c>
-      <c r="B215" s="20"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -5591,7 +5771,7 @@
         <f>A215+1</f>
         <v>45505</v>
       </c>
-      <c r="B216" s="19"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -5599,7 +5779,7 @@
         <f>A216+1</f>
         <v>45506</v>
       </c>
-      <c r="B217" s="20"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -5607,7 +5787,7 @@
         <f>A217+1</f>
         <v>45507</v>
       </c>
-      <c r="B218" s="19"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -5615,7 +5795,7 @@
         <f>A218+1</f>
         <v>45508</v>
       </c>
-      <c r="B219" s="20"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -5623,7 +5803,7 @@
         <f>A219+1</f>
         <v>45509</v>
       </c>
-      <c r="B220" s="19"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -5631,7 +5811,7 @@
         <f>A220+1</f>
         <v>45510</v>
       </c>
-      <c r="B221" s="20"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -5639,7 +5819,7 @@
         <f>A221+1</f>
         <v>45511</v>
       </c>
-      <c r="B222" s="19"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -5647,7 +5827,7 @@
         <f>A222+1</f>
         <v>45512</v>
       </c>
-      <c r="B223" s="20"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -5655,7 +5835,7 @@
         <f>A223+1</f>
         <v>45513</v>
       </c>
-      <c r="B224" s="19"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -5663,7 +5843,7 @@
         <f>A224+1</f>
         <v>45514</v>
       </c>
-      <c r="B225" s="20"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -5671,7 +5851,7 @@
         <f>A225+1</f>
         <v>45515</v>
       </c>
-      <c r="B226" s="19"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -5679,7 +5859,7 @@
         <f>A226+1</f>
         <v>45516</v>
       </c>
-      <c r="B227" s="20"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -5687,7 +5867,7 @@
         <f>A227+1</f>
         <v>45517</v>
       </c>
-      <c r="B228" s="19"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -5695,7 +5875,7 @@
         <f>A228+1</f>
         <v>45518</v>
       </c>
-      <c r="B229" s="20"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -5703,7 +5883,7 @@
         <f>A229+1</f>
         <v>45519</v>
       </c>
-      <c r="B230" s="19"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -5711,7 +5891,7 @@
         <f>A230+1</f>
         <v>45520</v>
       </c>
-      <c r="B231" s="20"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -5719,7 +5899,7 @@
         <f>A231+1</f>
         <v>45521</v>
       </c>
-      <c r="B232" s="19"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -5727,7 +5907,7 @@
         <f>A232+1</f>
         <v>45522</v>
       </c>
-      <c r="B233" s="20"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -5735,7 +5915,7 @@
         <f>A233+1</f>
         <v>45523</v>
       </c>
-      <c r="B234" s="19"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -5743,7 +5923,7 @@
         <f>A234+1</f>
         <v>45524</v>
       </c>
-      <c r="B235" s="20"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -5751,7 +5931,7 @@
         <f>A235+1</f>
         <v>45525</v>
       </c>
-      <c r="B236" s="19"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -5759,7 +5939,7 @@
         <f>A236+1</f>
         <v>45526</v>
       </c>
-      <c r="B237" s="20"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -5767,7 +5947,7 @@
         <f>A237+1</f>
         <v>45527</v>
       </c>
-      <c r="B238" s="19"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -5775,7 +5955,7 @@
         <f>A238+1</f>
         <v>45528</v>
       </c>
-      <c r="B239" s="20"/>
+      <c r="B239" s="19"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -5783,7 +5963,7 @@
         <f>A239+1</f>
         <v>45529</v>
       </c>
-      <c r="B240" s="19"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -5791,7 +5971,7 @@
         <f>A240+1</f>
         <v>45530</v>
       </c>
-      <c r="B241" s="20"/>
+      <c r="B241" s="19"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -5799,7 +5979,7 @@
         <f>A241+1</f>
         <v>45531</v>
       </c>
-      <c r="B242" s="19"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -5807,7 +5987,7 @@
         <f>A242+1</f>
         <v>45532</v>
       </c>
-      <c r="B243" s="20"/>
+      <c r="B243" s="19"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -5815,7 +5995,7 @@
         <f>A243+1</f>
         <v>45533</v>
       </c>
-      <c r="B244" s="19"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -5823,7 +6003,7 @@
         <f>A244+1</f>
         <v>45534</v>
       </c>
-      <c r="B245" s="20"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -5831,7 +6011,7 @@
         <f>A245+1</f>
         <v>45535</v>
       </c>
-      <c r="B246" s="19"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -5839,7 +6019,7 @@
         <f>A246+1</f>
         <v>45536</v>
       </c>
-      <c r="B247" s="20"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -5847,7 +6027,7 @@
         <f>A247+1</f>
         <v>45537</v>
       </c>
-      <c r="B248" s="19"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -5855,7 +6035,7 @@
         <f>A248+1</f>
         <v>45538</v>
       </c>
-      <c r="B249" s="20"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="3"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
@@ -5863,7 +6043,7 @@
         <f>A249+1</f>
         <v>45539</v>
       </c>
-      <c r="B250" s="19"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="4"/>
     </row>
     <row r="251" ht="20.05" customHeight="1">
@@ -5871,7 +6051,7 @@
         <f>A250+1</f>
         <v>45540</v>
       </c>
-      <c r="B251" s="20"/>
+      <c r="B251" s="19"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
@@ -5879,7 +6059,7 @@
         <f>A251+1</f>
         <v>45541</v>
       </c>
-      <c r="B252" s="19"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
@@ -5887,7 +6067,7 @@
         <f>A252+1</f>
         <v>45542</v>
       </c>
-      <c r="B253" s="20"/>
+      <c r="B253" s="19"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
@@ -5895,7 +6075,7 @@
         <f>A253+1</f>
         <v>45543</v>
       </c>
-      <c r="B254" s="19"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="4"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
@@ -5903,7 +6083,7 @@
         <f>A254+1</f>
         <v>45544</v>
       </c>
-      <c r="B255" s="20"/>
+      <c r="B255" s="19"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
@@ -5911,7 +6091,7 @@
         <f>A255+1</f>
         <v>45545</v>
       </c>
-      <c r="B256" s="19"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="4"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
@@ -5919,7 +6099,7 @@
         <f>A256+1</f>
         <v>45546</v>
       </c>
-      <c r="B257" s="20"/>
+      <c r="B257" s="19"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
@@ -5927,7 +6107,7 @@
         <f>A257+1</f>
         <v>45547</v>
       </c>
-      <c r="B258" s="19"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="4"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
@@ -5935,7 +6115,7 @@
         <f>A258+1</f>
         <v>45548</v>
       </c>
-      <c r="B259" s="20"/>
+      <c r="B259" s="19"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" ht="20.05" customHeight="1">
@@ -5943,7 +6123,7 @@
         <f>A259+1</f>
         <v>45549</v>
       </c>
-      <c r="B260" s="19"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="4"/>
     </row>
     <row r="261" ht="20.05" customHeight="1">
@@ -5951,7 +6131,7 @@
         <f>A260+1</f>
         <v>45550</v>
       </c>
-      <c r="B261" s="20"/>
+      <c r="B261" s="19"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -5959,7 +6139,7 @@
         <f>A261+1</f>
         <v>45551</v>
       </c>
-      <c r="B262" s="19"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="4"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -5967,7 +6147,7 @@
         <f>A262+1</f>
         <v>45552</v>
       </c>
-      <c r="B263" s="20"/>
+      <c r="B263" s="19"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" ht="20.05" customHeight="1">
@@ -5975,7 +6155,7 @@
         <f>A263+1</f>
         <v>45553</v>
       </c>
-      <c r="B264" s="19"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="4"/>
     </row>
     <row r="265" ht="20.05" customHeight="1">
@@ -5983,7 +6163,7 @@
         <f>A264+1</f>
         <v>45554</v>
       </c>
-      <c r="B265" s="20"/>
+      <c r="B265" s="19"/>
       <c r="C265" s="3"/>
     </row>
     <row r="266" ht="20.05" customHeight="1">
@@ -5991,7 +6171,7 @@
         <f>A265+1</f>
         <v>45555</v>
       </c>
-      <c r="B266" s="19"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="4"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
@@ -5999,7 +6179,7 @@
         <f>A266+1</f>
         <v>45556</v>
       </c>
-      <c r="B267" s="20"/>
+      <c r="B267" s="19"/>
       <c r="C267" s="3"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
@@ -6007,7 +6187,7 @@
         <f>A267+1</f>
         <v>45557</v>
       </c>
-      <c r="B268" s="19"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="4"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -6015,7 +6195,7 @@
         <f>A268+1</f>
         <v>45558</v>
       </c>
-      <c r="B269" s="20"/>
+      <c r="B269" s="19"/>
       <c r="C269" s="3"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -6023,7 +6203,7 @@
         <f>A269+1</f>
         <v>45559</v>
       </c>
-      <c r="B270" s="19"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="4"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
@@ -6031,7 +6211,7 @@
         <f>A270+1</f>
         <v>45560</v>
       </c>
-      <c r="B271" s="20"/>
+      <c r="B271" s="19"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
@@ -6039,7 +6219,7 @@
         <f>A271+1</f>
         <v>45561</v>
       </c>
-      <c r="B272" s="19"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="4"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
@@ -6047,7 +6227,7 @@
         <f>A272+1</f>
         <v>45562</v>
       </c>
-      <c r="B273" s="20"/>
+      <c r="B273" s="19"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
@@ -6055,7 +6235,7 @@
         <f>A273+1</f>
         <v>45563</v>
       </c>
-      <c r="B274" s="19"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
@@ -6063,7 +6243,7 @@
         <f>A274+1</f>
         <v>45564</v>
       </c>
-      <c r="B275" s="20"/>
+      <c r="B275" s="19"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" ht="20.05" customHeight="1">
@@ -6071,7 +6251,7 @@
         <f>A275+1</f>
         <v>45565</v>
       </c>
-      <c r="B276" s="19"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="4"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
@@ -6079,7 +6259,7 @@
         <f>A276+1</f>
         <v>45566</v>
       </c>
-      <c r="B277" s="20"/>
+      <c r="B277" s="19"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
@@ -6087,7 +6267,7 @@
         <f>A277+1</f>
         <v>45567</v>
       </c>
-      <c r="B278" s="19"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="4"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
@@ -6095,7 +6275,7 @@
         <f>A278+1</f>
         <v>45568</v>
       </c>
-      <c r="B279" s="20"/>
+      <c r="B279" s="19"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
@@ -6103,7 +6283,7 @@
         <f>A279+1</f>
         <v>45569</v>
       </c>
-      <c r="B280" s="19"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="4"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
@@ -6111,7 +6291,7 @@
         <f>A280+1</f>
         <v>45570</v>
       </c>
-      <c r="B281" s="20"/>
+      <c r="B281" s="19"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
@@ -6119,7 +6299,7 @@
         <f>A281+1</f>
         <v>45571</v>
       </c>
-      <c r="B282" s="19"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="4"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
@@ -6127,7 +6307,7 @@
         <f>A282+1</f>
         <v>45572</v>
       </c>
-      <c r="B283" s="20"/>
+      <c r="B283" s="19"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
@@ -6135,7 +6315,7 @@
         <f>A283+1</f>
         <v>45573</v>
       </c>
-      <c r="B284" s="19"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="4"/>
     </row>
     <row r="285" ht="20.05" customHeight="1">
@@ -6143,7 +6323,7 @@
         <f>A284+1</f>
         <v>45574</v>
       </c>
-      <c r="B285" s="20"/>
+      <c r="B285" s="19"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
@@ -6151,7 +6331,7 @@
         <f>A285+1</f>
         <v>45575</v>
       </c>
-      <c r="B286" s="19"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="4"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
@@ -6159,7 +6339,7 @@
         <f>A286+1</f>
         <v>45576</v>
       </c>
-      <c r="B287" s="20"/>
+      <c r="B287" s="19"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
@@ -6167,7 +6347,7 @@
         <f>A287+1</f>
         <v>45577</v>
       </c>
-      <c r="B288" s="19"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="4"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
@@ -6175,7 +6355,7 @@
         <f>A288+1</f>
         <v>45578</v>
       </c>
-      <c r="B289" s="20"/>
+      <c r="B289" s="19"/>
       <c r="C289" s="3"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
@@ -6183,7 +6363,7 @@
         <f>A289+1</f>
         <v>45579</v>
       </c>
-      <c r="B290" s="19"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="4"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
@@ -6191,7 +6371,7 @@
         <f>A290+1</f>
         <v>45580</v>
       </c>
-      <c r="B291" s="20"/>
+      <c r="B291" s="19"/>
       <c r="C291" s="3"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
@@ -6199,7 +6379,7 @@
         <f>A291+1</f>
         <v>45581</v>
       </c>
-      <c r="B292" s="19"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="4"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
@@ -6207,7 +6387,7 @@
         <f>A292+1</f>
         <v>45582</v>
       </c>
-      <c r="B293" s="20"/>
+      <c r="B293" s="19"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -6215,7 +6395,7 @@
         <f>A293+1</f>
         <v>45583</v>
       </c>
-      <c r="B294" s="19"/>
+      <c r="B294" s="20"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -6223,7 +6403,7 @@
         <f>A294+1</f>
         <v>45584</v>
       </c>
-      <c r="B295" s="20"/>
+      <c r="B295" s="19"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
@@ -6231,7 +6411,7 @@
         <f>A295+1</f>
         <v>45585</v>
       </c>
-      <c r="B296" s="19"/>
+      <c r="B296" s="20"/>
       <c r="C296" s="4"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
@@ -6239,7 +6419,7 @@
         <f>A296+1</f>
         <v>45586</v>
       </c>
-      <c r="B297" s="20"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
@@ -6247,7 +6427,7 @@
         <f>A297+1</f>
         <v>45587</v>
       </c>
-      <c r="B298" s="19"/>
+      <c r="B298" s="20"/>
       <c r="C298" s="4"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
@@ -6255,7 +6435,7 @@
         <f>A298+1</f>
         <v>45588</v>
       </c>
-      <c r="B299" s="20"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
@@ -6263,7 +6443,7 @@
         <f>A299+1</f>
         <v>45589</v>
       </c>
-      <c r="B300" s="19"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="4"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
@@ -6271,7 +6451,7 @@
         <f>A300+1</f>
         <v>45590</v>
       </c>
-      <c r="B301" s="20"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
@@ -6279,7 +6459,7 @@
         <f>A301+1</f>
         <v>45591</v>
       </c>
-      <c r="B302" s="19"/>
+      <c r="B302" s="20"/>
       <c r="C302" s="4"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
@@ -6287,7 +6467,7 @@
         <f>A302+1</f>
         <v>45592</v>
       </c>
-      <c r="B303" s="20"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
@@ -6295,7 +6475,7 @@
         <f>A303+1</f>
         <v>45593</v>
       </c>
-      <c r="B304" s="19"/>
+      <c r="B304" s="20"/>
       <c r="C304" s="4"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
@@ -6303,7 +6483,7 @@
         <f>A304+1</f>
         <v>45594</v>
       </c>
-      <c r="B305" s="20"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="3"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
@@ -6311,7 +6491,7 @@
         <f>A305+1</f>
         <v>45595</v>
       </c>
-      <c r="B306" s="19"/>
+      <c r="B306" s="20"/>
       <c r="C306" s="4"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
@@ -6319,7 +6499,7 @@
         <f>A306+1</f>
         <v>45596</v>
       </c>
-      <c r="B307" s="20"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="3"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
@@ -6327,7 +6507,7 @@
         <f>A307+1</f>
         <v>45597</v>
       </c>
-      <c r="B308" s="19"/>
+      <c r="B308" s="20"/>
       <c r="C308" s="4"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
@@ -6335,7 +6515,7 @@
         <f>A308+1</f>
         <v>45598</v>
       </c>
-      <c r="B309" s="20"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="3"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
@@ -6343,7 +6523,7 @@
         <f>A309+1</f>
         <v>45599</v>
       </c>
-      <c r="B310" s="19"/>
+      <c r="B310" s="20"/>
       <c r="C310" s="4"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
@@ -6351,7 +6531,7 @@
         <f>A310+1</f>
         <v>45600</v>
       </c>
-      <c r="B311" s="20"/>
+      <c r="B311" s="19"/>
       <c r="C311" s="3"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
@@ -6359,7 +6539,7 @@
         <f>A311+1</f>
         <v>45601</v>
       </c>
-      <c r="B312" s="19"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="4"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
@@ -6367,7 +6547,7 @@
         <f>A312+1</f>
         <v>45602</v>
       </c>
-      <c r="B313" s="20"/>
+      <c r="B313" s="19"/>
       <c r="C313" s="3"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
@@ -6375,7 +6555,7 @@
         <f>A313+1</f>
         <v>45603</v>
       </c>
-      <c r="B314" s="19"/>
+      <c r="B314" s="20"/>
       <c r="C314" s="4"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
@@ -6383,7 +6563,7 @@
         <f>A314+1</f>
         <v>45604</v>
       </c>
-      <c r="B315" s="20"/>
+      <c r="B315" s="19"/>
       <c r="C315" s="3"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
@@ -6391,7 +6571,7 @@
         <f>A315+1</f>
         <v>45605</v>
       </c>
-      <c r="B316" s="19"/>
+      <c r="B316" s="20"/>
       <c r="C316" s="4"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
@@ -6399,7 +6579,7 @@
         <f>A316+1</f>
         <v>45606</v>
       </c>
-      <c r="B317" s="20"/>
+      <c r="B317" s="19"/>
       <c r="C317" s="3"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
@@ -6407,7 +6587,7 @@
         <f>A317+1</f>
         <v>45607</v>
       </c>
-      <c r="B318" s="19"/>
+      <c r="B318" s="20"/>
       <c r="C318" s="4"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
@@ -6415,7 +6595,7 @@
         <f>A318+1</f>
         <v>45608</v>
       </c>
-      <c r="B319" s="20"/>
+      <c r="B319" s="19"/>
       <c r="C319" s="3"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
@@ -6423,7 +6603,7 @@
         <f>A319+1</f>
         <v>45609</v>
       </c>
-      <c r="B320" s="19"/>
+      <c r="B320" s="20"/>
       <c r="C320" s="4"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
@@ -6431,7 +6611,7 @@
         <f>A320+1</f>
         <v>45610</v>
       </c>
-      <c r="B321" s="20"/>
+      <c r="B321" s="19"/>
       <c r="C321" s="3"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
@@ -6439,7 +6619,7 @@
         <f>A321+1</f>
         <v>45611</v>
       </c>
-      <c r="B322" s="19"/>
+      <c r="B322" s="20"/>
       <c r="C322" s="4"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
@@ -6447,7 +6627,7 @@
         <f>A322+1</f>
         <v>45612</v>
       </c>
-      <c r="B323" s="20"/>
+      <c r="B323" s="19"/>
       <c r="C323" s="3"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
@@ -6455,7 +6635,7 @@
         <f>A323+1</f>
         <v>45613</v>
       </c>
-      <c r="B324" s="19"/>
+      <c r="B324" s="20"/>
       <c r="C324" s="4"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
@@ -6463,7 +6643,7 @@
         <f>A324+1</f>
         <v>45614</v>
       </c>
-      <c r="B325" s="20"/>
+      <c r="B325" s="19"/>
       <c r="C325" s="3"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
@@ -6471,7 +6651,7 @@
         <f>A325+1</f>
         <v>45615</v>
       </c>
-      <c r="B326" s="19"/>
+      <c r="B326" s="20"/>
       <c r="C326" s="4"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
@@ -6479,7 +6659,7 @@
         <f>A326+1</f>
         <v>45616</v>
       </c>
-      <c r="B327" s="20"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="3"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
@@ -6487,7 +6667,7 @@
         <f>A327+1</f>
         <v>45617</v>
       </c>
-      <c r="B328" s="19"/>
+      <c r="B328" s="20"/>
       <c r="C328" s="4"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
@@ -6495,7 +6675,7 @@
         <f>A328+1</f>
         <v>45618</v>
       </c>
-      <c r="B329" s="20"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="3"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
@@ -6503,7 +6683,7 @@
         <f>A329+1</f>
         <v>45619</v>
       </c>
-      <c r="B330" s="19"/>
+      <c r="B330" s="20"/>
       <c r="C330" s="4"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
@@ -6511,7 +6691,7 @@
         <f>A330+1</f>
         <v>45620</v>
       </c>
-      <c r="B331" s="20"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="3"/>
     </row>
     <row r="332" ht="20.05" customHeight="1">
@@ -6519,7 +6699,7 @@
         <f>A331+1</f>
         <v>45621</v>
       </c>
-      <c r="B332" s="19"/>
+      <c r="B332" s="20"/>
       <c r="C332" s="4"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
@@ -6527,7 +6707,7 @@
         <f>A332+1</f>
         <v>45622</v>
       </c>
-      <c r="B333" s="20"/>
+      <c r="B333" s="19"/>
       <c r="C333" s="3"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
@@ -6535,7 +6715,7 @@
         <f>A333+1</f>
         <v>45623</v>
       </c>
-      <c r="B334" s="19"/>
+      <c r="B334" s="20"/>
       <c r="C334" s="4"/>
     </row>
     <row r="335" ht="20.05" customHeight="1">
@@ -6543,7 +6723,7 @@
         <f>A334+1</f>
         <v>45624</v>
       </c>
-      <c r="B335" s="20"/>
+      <c r="B335" s="19"/>
       <c r="C335" s="3"/>
     </row>
     <row r="336" ht="20.05" customHeight="1">
@@ -6551,7 +6731,7 @@
         <f>A335+1</f>
         <v>45625</v>
       </c>
-      <c r="B336" s="19"/>
+      <c r="B336" s="20"/>
       <c r="C336" s="4"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
@@ -6559,7 +6739,7 @@
         <f>A336+1</f>
         <v>45626</v>
       </c>
-      <c r="B337" s="20"/>
+      <c r="B337" s="19"/>
       <c r="C337" s="3"/>
     </row>
     <row r="338" ht="20.05" customHeight="1">
@@ -6567,7 +6747,7 @@
         <f>A337+1</f>
         <v>45627</v>
       </c>
-      <c r="B338" s="19"/>
+      <c r="B338" s="20"/>
       <c r="C338" s="4"/>
     </row>
     <row r="339" ht="20.05" customHeight="1">
@@ -6575,7 +6755,7 @@
         <f>A338+1</f>
         <v>45628</v>
       </c>
-      <c r="B339" s="20"/>
+      <c r="B339" s="19"/>
       <c r="C339" s="3"/>
     </row>
     <row r="340" ht="20.05" customHeight="1">
@@ -6583,7 +6763,7 @@
         <f>A339+1</f>
         <v>45629</v>
       </c>
-      <c r="B340" s="19"/>
+      <c r="B340" s="20"/>
       <c r="C340" s="4"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
@@ -6591,7 +6771,7 @@
         <f>A340+1</f>
         <v>45630</v>
       </c>
-      <c r="B341" s="20"/>
+      <c r="B341" s="19"/>
       <c r="C341" s="3"/>
     </row>
     <row r="342" ht="20.05" customHeight="1">
@@ -6599,7 +6779,7 @@
         <f>A341+1</f>
         <v>45631</v>
       </c>
-      <c r="B342" s="19"/>
+      <c r="B342" s="20"/>
       <c r="C342" s="4"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
@@ -6607,7 +6787,7 @@
         <f>A342+1</f>
         <v>45632</v>
       </c>
-      <c r="B343" s="20"/>
+      <c r="B343" s="19"/>
       <c r="C343" s="3"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
@@ -6615,7 +6795,7 @@
         <f>A343+1</f>
         <v>45633</v>
       </c>
-      <c r="B344" s="19"/>
+      <c r="B344" s="20"/>
       <c r="C344" s="4"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
@@ -6623,7 +6803,7 @@
         <f>A344+1</f>
         <v>45634</v>
       </c>
-      <c r="B345" s="20"/>
+      <c r="B345" s="19"/>
       <c r="C345" s="3"/>
     </row>
     <row r="346" ht="20.05" customHeight="1">
@@ -6631,7 +6811,7 @@
         <f>A345+1</f>
         <v>45635</v>
       </c>
-      <c r="B346" s="19"/>
+      <c r="B346" s="20"/>
       <c r="C346" s="4"/>
     </row>
     <row r="347" ht="20.05" customHeight="1">
@@ -6639,7 +6819,7 @@
         <f>A346+1</f>
         <v>45636</v>
       </c>
-      <c r="B347" s="20"/>
+      <c r="B347" s="19"/>
       <c r="C347" s="3"/>
     </row>
     <row r="348" ht="20.05" customHeight="1">
@@ -6647,7 +6827,7 @@
         <f>A347+1</f>
         <v>45637</v>
       </c>
-      <c r="B348" s="19"/>
+      <c r="B348" s="20"/>
       <c r="C348" s="4"/>
     </row>
     <row r="349" ht="20.05" customHeight="1">
@@ -6655,7 +6835,7 @@
         <f>A348+1</f>
         <v>45638</v>
       </c>
-      <c r="B349" s="20"/>
+      <c r="B349" s="19"/>
       <c r="C349" s="3"/>
     </row>
     <row r="350" ht="20.05" customHeight="1">
@@ -6663,7 +6843,7 @@
         <f>A349+1</f>
         <v>45639</v>
       </c>
-      <c r="B350" s="19"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="4"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
@@ -6671,7 +6851,7 @@
         <f>A350+1</f>
         <v>45640</v>
       </c>
-      <c r="B351" s="20"/>
+      <c r="B351" s="19"/>
       <c r="C351" s="3"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
@@ -6679,7 +6859,7 @@
         <f>A351+1</f>
         <v>45641</v>
       </c>
-      <c r="B352" s="19"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="4"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
@@ -6687,7 +6867,7 @@
         <f>A352+1</f>
         <v>45642</v>
       </c>
-      <c r="B353" s="20"/>
+      <c r="B353" s="19"/>
       <c r="C353" s="3"/>
     </row>
     <row r="354" ht="20.05" customHeight="1">
@@ -6695,7 +6875,7 @@
         <f>A353+1</f>
         <v>45643</v>
       </c>
-      <c r="B354" s="19"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
@@ -6703,7 +6883,7 @@
         <f>A354+1</f>
         <v>45644</v>
       </c>
-      <c r="B355" s="20"/>
+      <c r="B355" s="19"/>
       <c r="C355" s="3"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
@@ -6711,7 +6891,7 @@
         <f>A355+1</f>
         <v>45645</v>
       </c>
-      <c r="B356" s="19"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="4"/>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -6719,7 +6899,7 @@
         <f>A356+1</f>
         <v>45646</v>
       </c>
-      <c r="B357" s="20"/>
+      <c r="B357" s="19"/>
       <c r="C357" s="3"/>
     </row>
     <row r="358" ht="20.05" customHeight="1">
@@ -6727,7 +6907,7 @@
         <f>A357+1</f>
         <v>45647</v>
       </c>
-      <c r="B358" s="19"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="4"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
@@ -6735,7 +6915,7 @@
         <f>A358+1</f>
         <v>45648</v>
       </c>
-      <c r="B359" s="20"/>
+      <c r="B359" s="19"/>
       <c r="C359" s="3"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
@@ -6743,7 +6923,7 @@
         <f>A359+1</f>
         <v>45649</v>
       </c>
-      <c r="B360" s="19"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="4"/>
     </row>
     <row r="361" ht="20.05" customHeight="1">
@@ -6751,7 +6931,7 @@
         <f>A360+1</f>
         <v>45650</v>
       </c>
-      <c r="B361" s="20"/>
+      <c r="B361" s="19"/>
       <c r="C361" s="3"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
@@ -6759,7 +6939,7 @@
         <f>A361+1</f>
         <v>45651</v>
       </c>
-      <c r="B362" s="19"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="4"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
@@ -6767,7 +6947,7 @@
         <f>A362+1</f>
         <v>45652</v>
       </c>
-      <c r="B363" s="20"/>
+      <c r="B363" s="19"/>
       <c r="C363" s="3"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
@@ -6775,7 +6955,7 @@
         <f>A363+1</f>
         <v>45653</v>
       </c>
-      <c r="B364" s="19"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="4"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
@@ -6783,7 +6963,7 @@
         <f>A364+1</f>
         <v>45654</v>
       </c>
-      <c r="B365" s="20"/>
+      <c r="B365" s="19"/>
       <c r="C365" s="3"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
@@ -6791,7 +6971,7 @@
         <f>A365+1</f>
         <v>45655</v>
       </c>
-      <c r="B366" s="19"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="4"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
@@ -6799,7 +6979,7 @@
         <f>A366+1</f>
         <v>45656</v>
       </c>
-      <c r="B367" s="20"/>
+      <c r="B367" s="19"/>
       <c r="C367" s="3"/>
     </row>
     <row r="368" ht="20.05" customHeight="1">
@@ -6807,7 +6987,7 @@
         <f>A367+1</f>
         <v>45657</v>
       </c>
-      <c r="B368" s="19"/>
+      <c r="B368" s="20"/>
       <c r="C368" s="4"/>
     </row>
   </sheetData>
@@ -6871,7 +7051,7 @@
         <f>A3+1</f>
         <v>45659</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -6879,7 +7059,7 @@
         <f>A4+1</f>
         <v>45660</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -6887,7 +7067,7 @@
         <f>A5+1</f>
         <v>45661</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -6895,7 +7075,7 @@
         <f>A6+1</f>
         <v>45662</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -6903,7 +7083,7 @@
         <f>A7+1</f>
         <v>45663</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -6911,7 +7091,7 @@
         <f>A8+1</f>
         <v>45664</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -6919,7 +7099,7 @@
         <f>A9+1</f>
         <v>45665</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -6927,7 +7107,7 @@
         <f>A10+1</f>
         <v>45666</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -6935,7 +7115,7 @@
         <f>A11+1</f>
         <v>45667</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -6943,7 +7123,7 @@
         <f>A12+1</f>
         <v>45668</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -6951,7 +7131,7 @@
         <f>A13+1</f>
         <v>45669</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -6959,7 +7139,7 @@
         <f>A14+1</f>
         <v>45670</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -6967,7 +7147,7 @@
         <f>A15+1</f>
         <v>45671</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -6975,7 +7155,7 @@
         <f>A16+1</f>
         <v>45672</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -6983,7 +7163,7 @@
         <f>A17+1</f>
         <v>45673</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -6991,7 +7171,7 @@
         <f>A18+1</f>
         <v>45674</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -6999,7 +7179,7 @@
         <f>A19+1</f>
         <v>45675</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -7007,7 +7187,7 @@
         <f>A20+1</f>
         <v>45676</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -7015,7 +7195,7 @@
         <f>A21+1</f>
         <v>45677</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -7023,7 +7203,7 @@
         <f>A22+1</f>
         <v>45678</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -7031,7 +7211,7 @@
         <f>A23+1</f>
         <v>45679</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -7039,7 +7219,7 @@
         <f>A24+1</f>
         <v>45680</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -7047,7 +7227,7 @@
         <f>A25+1</f>
         <v>45681</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -7055,7 +7235,7 @@
         <f>A26+1</f>
         <v>45682</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -7063,7 +7243,7 @@
         <f>A27+1</f>
         <v>45683</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -7071,7 +7251,7 @@
         <f>A28+1</f>
         <v>45684</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -7079,7 +7259,7 @@
         <f>A29+1</f>
         <v>45685</v>
       </c>
-      <c r="B30" s="19"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -7087,7 +7267,7 @@
         <f>A30+1</f>
         <v>45686</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -7095,7 +7275,7 @@
         <f>A31+1</f>
         <v>45687</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -7103,7 +7283,7 @@
         <f>A32+1</f>
         <v>45688</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -7111,7 +7291,7 @@
         <f>A33+1</f>
         <v>45689</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -7119,7 +7299,7 @@
         <f>A34+1</f>
         <v>45690</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -7127,7 +7307,7 @@
         <f>A35+1</f>
         <v>45691</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -7135,7 +7315,7 @@
         <f>A36+1</f>
         <v>45692</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -7143,7 +7323,7 @@
         <f>A37+1</f>
         <v>45693</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -7151,7 +7331,7 @@
         <f>A38+1</f>
         <v>45694</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -7159,7 +7339,7 @@
         <f>A39+1</f>
         <v>45695</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -7167,7 +7347,7 @@
         <f>A40+1</f>
         <v>45696</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -7175,7 +7355,7 @@
         <f>A41+1</f>
         <v>45697</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -7183,7 +7363,7 @@
         <f>A42+1</f>
         <v>45698</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -7191,7 +7371,7 @@
         <f>A43+1</f>
         <v>45699</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -7199,7 +7379,7 @@
         <f>A44+1</f>
         <v>45700</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -7207,7 +7387,7 @@
         <f>A45+1</f>
         <v>45701</v>
       </c>
-      <c r="B46" s="19"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -7215,7 +7395,7 @@
         <f>A46+1</f>
         <v>45702</v>
       </c>
-      <c r="B47" s="20"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -7223,7 +7403,7 @@
         <f>A47+1</f>
         <v>45703</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -7231,7 +7411,7 @@
         <f>A48+1</f>
         <v>45704</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -7239,7 +7419,7 @@
         <f>A49+1</f>
         <v>45705</v>
       </c>
-      <c r="B50" s="19"/>
+      <c r="B50" s="20"/>
       <c r="C50" s="4"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -7247,7 +7427,7 @@
         <f>A50+1</f>
         <v>45706</v>
       </c>
-      <c r="B51" s="20"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -7255,7 +7435,7 @@
         <f>A51+1</f>
         <v>45707</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="20"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -7263,7 +7443,7 @@
         <f>A52+1</f>
         <v>45708</v>
       </c>
-      <c r="B53" s="20"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -7271,7 +7451,7 @@
         <f>A53+1</f>
         <v>45709</v>
       </c>
-      <c r="B54" s="19"/>
+      <c r="B54" s="20"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -7279,7 +7459,7 @@
         <f>A54+1</f>
         <v>45710</v>
       </c>
-      <c r="B55" s="20"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
@@ -7287,7 +7467,7 @@
         <f>A55+1</f>
         <v>45711</v>
       </c>
-      <c r="B56" s="19"/>
+      <c r="B56" s="20"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -7295,7 +7475,7 @@
         <f>A56+1</f>
         <v>45712</v>
       </c>
-      <c r="B57" s="20"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -7303,7 +7483,7 @@
         <f>A57+1</f>
         <v>45713</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
@@ -7311,7 +7491,7 @@
         <f>A58+1</f>
         <v>45714</v>
       </c>
-      <c r="B59" s="20"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -7319,7 +7499,7 @@
         <f>A59+1</f>
         <v>45715</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
@@ -7327,7 +7507,7 @@
         <f>A60+1</f>
         <v>45716</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="19"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -7335,7 +7515,7 @@
         <f>A61+1</f>
         <v>45717</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -7343,7 +7523,7 @@
         <f>A62+1</f>
         <v>45718</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -7351,7 +7531,7 @@
         <f>A63+1</f>
         <v>45719</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -7359,7 +7539,7 @@
         <f>A64+1</f>
         <v>45720</v>
       </c>
-      <c r="B65" s="20"/>
+      <c r="B65" s="19"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -7367,7 +7547,7 @@
         <f>A65+1</f>
         <v>45721</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="20"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -7375,7 +7555,7 @@
         <f>A66+1</f>
         <v>45722</v>
       </c>
-      <c r="B67" s="20"/>
+      <c r="B67" s="19"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -7383,7 +7563,7 @@
         <f>A67+1</f>
         <v>45723</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -7391,7 +7571,7 @@
         <f>A68+1</f>
         <v>45724</v>
       </c>
-      <c r="B69" s="20"/>
+      <c r="B69" s="19"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -7399,7 +7579,7 @@
         <f>A69+1</f>
         <v>45725</v>
       </c>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -7407,7 +7587,7 @@
         <f>A70+1</f>
         <v>45726</v>
       </c>
-      <c r="B71" s="20"/>
+      <c r="B71" s="19"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -7415,7 +7595,7 @@
         <f>A71+1</f>
         <v>45727</v>
       </c>
-      <c r="B72" s="19"/>
+      <c r="B72" s="20"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -7423,7 +7603,7 @@
         <f>A72+1</f>
         <v>45728</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="19"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -7431,7 +7611,7 @@
         <f>A73+1</f>
         <v>45729</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="20"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -7439,7 +7619,7 @@
         <f>A74+1</f>
         <v>45730</v>
       </c>
-      <c r="B75" s="20"/>
+      <c r="B75" s="19"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -7447,7 +7627,7 @@
         <f>A75+1</f>
         <v>45731</v>
       </c>
-      <c r="B76" s="19"/>
+      <c r="B76" s="20"/>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -7455,7 +7635,7 @@
         <f>A76+1</f>
         <v>45732</v>
       </c>
-      <c r="B77" s="20"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -7463,7 +7643,7 @@
         <f>A77+1</f>
         <v>45733</v>
       </c>
-      <c r="B78" s="19"/>
+      <c r="B78" s="20"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -7471,7 +7651,7 @@
         <f>A78+1</f>
         <v>45734</v>
       </c>
-      <c r="B79" s="20"/>
+      <c r="B79" s="19"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -7479,7 +7659,7 @@
         <f>A79+1</f>
         <v>45735</v>
       </c>
-      <c r="B80" s="19"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -7487,7 +7667,7 @@
         <f>A80+1</f>
         <v>45736</v>
       </c>
-      <c r="B81" s="20"/>
+      <c r="B81" s="19"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -7495,7 +7675,7 @@
         <f>A81+1</f>
         <v>45737</v>
       </c>
-      <c r="B82" s="19"/>
+      <c r="B82" s="20"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -7503,7 +7683,7 @@
         <f>A82+1</f>
         <v>45738</v>
       </c>
-      <c r="B83" s="20"/>
+      <c r="B83" s="19"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -7511,7 +7691,7 @@
         <f>A83+1</f>
         <v>45739</v>
       </c>
-      <c r="B84" s="19"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -7519,7 +7699,7 @@
         <f>A84+1</f>
         <v>45740</v>
       </c>
-      <c r="B85" s="20"/>
+      <c r="B85" s="19"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -7527,7 +7707,7 @@
         <f>A85+1</f>
         <v>45741</v>
       </c>
-      <c r="B86" s="19"/>
+      <c r="B86" s="20"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -7535,7 +7715,7 @@
         <f>A86+1</f>
         <v>45742</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="19"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -7543,7 +7723,7 @@
         <f>A87+1</f>
         <v>45743</v>
       </c>
-      <c r="B88" s="19"/>
+      <c r="B88" s="20"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -7551,7 +7731,7 @@
         <f>A88+1</f>
         <v>45744</v>
       </c>
-      <c r="B89" s="20"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -7559,7 +7739,7 @@
         <f>A89+1</f>
         <v>45745</v>
       </c>
-      <c r="B90" s="19"/>
+      <c r="B90" s="20"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -7567,7 +7747,7 @@
         <f>A90+1</f>
         <v>45746</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="19"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -7575,7 +7755,7 @@
         <f>A91+1</f>
         <v>45747</v>
       </c>
-      <c r="B92" s="19"/>
+      <c r="B92" s="20"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -7583,7 +7763,7 @@
         <f>A92+1</f>
         <v>45748</v>
       </c>
-      <c r="B93" s="20"/>
+      <c r="B93" s="19"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -7591,7 +7771,7 @@
         <f>A93+1</f>
         <v>45749</v>
       </c>
-      <c r="B94" s="19"/>
+      <c r="B94" s="20"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -7599,7 +7779,7 @@
         <f>A94+1</f>
         <v>45750</v>
       </c>
-      <c r="B95" s="20"/>
+      <c r="B95" s="19"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -7607,7 +7787,7 @@
         <f>A95+1</f>
         <v>45751</v>
       </c>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -7615,7 +7795,7 @@
         <f>A96+1</f>
         <v>45752</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="19"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -7623,7 +7803,7 @@
         <f>A97+1</f>
         <v>45753</v>
       </c>
-      <c r="B98" s="19"/>
+      <c r="B98" s="20"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -7631,7 +7811,7 @@
         <f>A98+1</f>
         <v>45754</v>
       </c>
-      <c r="B99" s="20"/>
+      <c r="B99" s="19"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -7639,7 +7819,7 @@
         <f>A99+1</f>
         <v>45755</v>
       </c>
-      <c r="B100" s="19"/>
+      <c r="B100" s="20"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -7647,7 +7827,7 @@
         <f>A100+1</f>
         <v>45756</v>
       </c>
-      <c r="B101" s="20"/>
+      <c r="B101" s="19"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -7655,7 +7835,7 @@
         <f>A101+1</f>
         <v>45757</v>
       </c>
-      <c r="B102" s="19"/>
+      <c r="B102" s="20"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -7663,7 +7843,7 @@
         <f>A102+1</f>
         <v>45758</v>
       </c>
-      <c r="B103" s="20"/>
+      <c r="B103" s="19"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -7671,7 +7851,7 @@
         <f>A103+1</f>
         <v>45759</v>
       </c>
-      <c r="B104" s="19"/>
+      <c r="B104" s="20"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -7679,7 +7859,7 @@
         <f>A104+1</f>
         <v>45760</v>
       </c>
-      <c r="B105" s="20"/>
+      <c r="B105" s="19"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -7687,7 +7867,7 @@
         <f>A105+1</f>
         <v>45761</v>
       </c>
-      <c r="B106" s="19"/>
+      <c r="B106" s="20"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -7695,7 +7875,7 @@
         <f>A106+1</f>
         <v>45762</v>
       </c>
-      <c r="B107" s="20"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -7703,7 +7883,7 @@
         <f>A107+1</f>
         <v>45763</v>
       </c>
-      <c r="B108" s="19"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -7711,7 +7891,7 @@
         <f>A108+1</f>
         <v>45764</v>
       </c>
-      <c r="B109" s="20"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -7719,7 +7899,7 @@
         <f>A109+1</f>
         <v>45765</v>
       </c>
-      <c r="B110" s="19"/>
+      <c r="B110" s="20"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -7727,7 +7907,7 @@
         <f>A110+1</f>
         <v>45766</v>
       </c>
-      <c r="B111" s="20"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -7735,7 +7915,7 @@
         <f>A111+1</f>
         <v>45767</v>
       </c>
-      <c r="B112" s="19"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -7743,7 +7923,7 @@
         <f>A112+1</f>
         <v>45768</v>
       </c>
-      <c r="B113" s="20"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -7751,7 +7931,7 @@
         <f>A113+1</f>
         <v>45769</v>
       </c>
-      <c r="B114" s="19"/>
+      <c r="B114" s="20"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -7759,7 +7939,7 @@
         <f>A114+1</f>
         <v>45770</v>
       </c>
-      <c r="B115" s="20"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -7767,7 +7947,7 @@
         <f>A115+1</f>
         <v>45771</v>
       </c>
-      <c r="B116" s="19"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -7775,7 +7955,7 @@
         <f>A116+1</f>
         <v>45772</v>
       </c>
-      <c r="B117" s="20"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -7783,7 +7963,7 @@
         <f>A117+1</f>
         <v>45773</v>
       </c>
-      <c r="B118" s="19"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -7791,7 +7971,7 @@
         <f>A118+1</f>
         <v>45774</v>
       </c>
-      <c r="B119" s="20"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -7799,7 +7979,7 @@
         <f>A119+1</f>
         <v>45775</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="20"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -7807,7 +7987,7 @@
         <f>A120+1</f>
         <v>45776</v>
       </c>
-      <c r="B121" s="20"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -7815,7 +7995,7 @@
         <f>A121+1</f>
         <v>45777</v>
       </c>
-      <c r="B122" s="19"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -7823,7 +8003,7 @@
         <f>A122+1</f>
         <v>45778</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -7831,7 +8011,7 @@
         <f>A123+1</f>
         <v>45779</v>
       </c>
-      <c r="B124" s="19"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -7839,7 +8019,7 @@
         <f>A124+1</f>
         <v>45780</v>
       </c>
-      <c r="B125" s="20"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -7847,7 +8027,7 @@
         <f>A125+1</f>
         <v>45781</v>
       </c>
-      <c r="B126" s="19"/>
+      <c r="B126" s="20"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -7855,7 +8035,7 @@
         <f>A126+1</f>
         <v>45782</v>
       </c>
-      <c r="B127" s="20"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -7863,7 +8043,7 @@
         <f>A127+1</f>
         <v>45783</v>
       </c>
-      <c r="B128" s="19"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -7871,7 +8051,7 @@
         <f>A128+1</f>
         <v>45784</v>
       </c>
-      <c r="B129" s="20"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -7879,7 +8059,7 @@
         <f>A129+1</f>
         <v>45785</v>
       </c>
-      <c r="B130" s="19"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -7887,7 +8067,7 @@
         <f>A130+1</f>
         <v>45786</v>
       </c>
-      <c r="B131" s="20"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -7895,7 +8075,7 @@
         <f>A131+1</f>
         <v>45787</v>
       </c>
-      <c r="B132" s="19"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -7903,7 +8083,7 @@
         <f>A132+1</f>
         <v>45788</v>
       </c>
-      <c r="B133" s="20"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -7911,7 +8091,7 @@
         <f>A133+1</f>
         <v>45789</v>
       </c>
-      <c r="B134" s="19"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -7919,7 +8099,7 @@
         <f>A134+1</f>
         <v>45790</v>
       </c>
-      <c r="B135" s="20"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -7927,7 +8107,7 @@
         <f>A135+1</f>
         <v>45791</v>
       </c>
-      <c r="B136" s="19"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -7935,7 +8115,7 @@
         <f>A136+1</f>
         <v>45792</v>
       </c>
-      <c r="B137" s="20"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -7943,7 +8123,7 @@
         <f>A137+1</f>
         <v>45793</v>
       </c>
-      <c r="B138" s="19"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -7951,7 +8131,7 @@
         <f>A138+1</f>
         <v>45794</v>
       </c>
-      <c r="B139" s="20"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -7959,7 +8139,7 @@
         <f>A139+1</f>
         <v>45795</v>
       </c>
-      <c r="B140" s="19"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -7967,7 +8147,7 @@
         <f>A140+1</f>
         <v>45796</v>
       </c>
-      <c r="B141" s="20"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -7975,7 +8155,7 @@
         <f>A141+1</f>
         <v>45797</v>
       </c>
-      <c r="B142" s="19"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -7983,7 +8163,7 @@
         <f>A142+1</f>
         <v>45798</v>
       </c>
-      <c r="B143" s="20"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -7991,7 +8171,7 @@
         <f>A143+1</f>
         <v>45799</v>
       </c>
-      <c r="B144" s="19"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -7999,7 +8179,7 @@
         <f>A144+1</f>
         <v>45800</v>
       </c>
-      <c r="B145" s="20"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -8007,7 +8187,7 @@
         <f>A145+1</f>
         <v>45801</v>
       </c>
-      <c r="B146" s="19"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -8015,7 +8195,7 @@
         <f>A146+1</f>
         <v>45802</v>
       </c>
-      <c r="B147" s="20"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -8023,7 +8203,7 @@
         <f>A147+1</f>
         <v>45803</v>
       </c>
-      <c r="B148" s="19"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -8031,7 +8211,7 @@
         <f>A148+1</f>
         <v>45804</v>
       </c>
-      <c r="B149" s="20"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -8039,7 +8219,7 @@
         <f>A149+1</f>
         <v>45805</v>
       </c>
-      <c r="B150" s="19"/>
+      <c r="B150" s="20"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -8047,7 +8227,7 @@
         <f>A150+1</f>
         <v>45806</v>
       </c>
-      <c r="B151" s="20"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -8055,7 +8235,7 @@
         <f>A151+1</f>
         <v>45807</v>
       </c>
-      <c r="B152" s="19"/>
+      <c r="B152" s="20"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -8063,7 +8243,7 @@
         <f>A152+1</f>
         <v>45808</v>
       </c>
-      <c r="B153" s="20"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -8071,7 +8251,7 @@
         <f>A153+1</f>
         <v>45809</v>
       </c>
-      <c r="B154" s="19"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -8079,7 +8259,7 @@
         <f>A154+1</f>
         <v>45810</v>
       </c>
-      <c r="B155" s="20"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -8087,7 +8267,7 @@
         <f>A155+1</f>
         <v>45811</v>
       </c>
-      <c r="B156" s="19"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -8095,7 +8275,7 @@
         <f>A156+1</f>
         <v>45812</v>
       </c>
-      <c r="B157" s="20"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -8103,7 +8283,7 @@
         <f>A157+1</f>
         <v>45813</v>
       </c>
-      <c r="B158" s="19"/>
+      <c r="B158" s="20"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -8111,7 +8291,7 @@
         <f>A158+1</f>
         <v>45814</v>
       </c>
-      <c r="B159" s="20"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -8119,7 +8299,7 @@
         <f>A159+1</f>
         <v>45815</v>
       </c>
-      <c r="B160" s="19"/>
+      <c r="B160" s="20"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -8127,7 +8307,7 @@
         <f>A160+1</f>
         <v>45816</v>
       </c>
-      <c r="B161" s="20"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -8135,7 +8315,7 @@
         <f>A161+1</f>
         <v>45817</v>
       </c>
-      <c r="B162" s="19"/>
+      <c r="B162" s="20"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -8143,7 +8323,7 @@
         <f>A162+1</f>
         <v>45818</v>
       </c>
-      <c r="B163" s="20"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -8151,7 +8331,7 @@
         <f>A163+1</f>
         <v>45819</v>
       </c>
-      <c r="B164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -8159,7 +8339,7 @@
         <f>A164+1</f>
         <v>45820</v>
       </c>
-      <c r="B165" s="20"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -8167,7 +8347,7 @@
         <f>A165+1</f>
         <v>45821</v>
       </c>
-      <c r="B166" s="19"/>
+      <c r="B166" s="20"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -8175,7 +8355,7 @@
         <f>A166+1</f>
         <v>45822</v>
       </c>
-      <c r="B167" s="20"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -8183,7 +8363,7 @@
         <f>A167+1</f>
         <v>45823</v>
       </c>
-      <c r="B168" s="19"/>
+      <c r="B168" s="20"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -8191,7 +8371,7 @@
         <f>A168+1</f>
         <v>45824</v>
       </c>
-      <c r="B169" s="20"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -8199,7 +8379,7 @@
         <f>A169+1</f>
         <v>45825</v>
       </c>
-      <c r="B170" s="19"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -8207,7 +8387,7 @@
         <f>A170+1</f>
         <v>45826</v>
       </c>
-      <c r="B171" s="20"/>
+      <c r="B171" s="19"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -8215,7 +8395,7 @@
         <f>A171+1</f>
         <v>45827</v>
       </c>
-      <c r="B172" s="19"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -8223,7 +8403,7 @@
         <f>A172+1</f>
         <v>45828</v>
       </c>
-      <c r="B173" s="20"/>
+      <c r="B173" s="19"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -8231,7 +8411,7 @@
         <f>A173+1</f>
         <v>45829</v>
       </c>
-      <c r="B174" s="19"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -8239,7 +8419,7 @@
         <f>A174+1</f>
         <v>45830</v>
       </c>
-      <c r="B175" s="20"/>
+      <c r="B175" s="19"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -8247,7 +8427,7 @@
         <f>A175+1</f>
         <v>45831</v>
       </c>
-      <c r="B176" s="19"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -8255,7 +8435,7 @@
         <f>A176+1</f>
         <v>45832</v>
       </c>
-      <c r="B177" s="20"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -8263,7 +8443,7 @@
         <f>A177+1</f>
         <v>45833</v>
       </c>
-      <c r="B178" s="19"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -8271,7 +8451,7 @@
         <f>A178+1</f>
         <v>45834</v>
       </c>
-      <c r="B179" s="20"/>
+      <c r="B179" s="19"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -8279,7 +8459,7 @@
         <f>A179+1</f>
         <v>45835</v>
       </c>
-      <c r="B180" s="19"/>
+      <c r="B180" s="20"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -8287,7 +8467,7 @@
         <f>A180+1</f>
         <v>45836</v>
       </c>
-      <c r="B181" s="20"/>
+      <c r="B181" s="19"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -8295,7 +8475,7 @@
         <f>A181+1</f>
         <v>45837</v>
       </c>
-      <c r="B182" s="19"/>
+      <c r="B182" s="20"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -8303,7 +8483,7 @@
         <f>A182+1</f>
         <v>45838</v>
       </c>
-      <c r="B183" s="20"/>
+      <c r="B183" s="19"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -8311,7 +8491,7 @@
         <f>A183+1</f>
         <v>45839</v>
       </c>
-      <c r="B184" s="19"/>
+      <c r="B184" s="20"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -8319,7 +8499,7 @@
         <f>A184+1</f>
         <v>45840</v>
       </c>
-      <c r="B185" s="20"/>
+      <c r="B185" s="19"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -8327,7 +8507,7 @@
         <f>A185+1</f>
         <v>45841</v>
       </c>
-      <c r="B186" s="19"/>
+      <c r="B186" s="20"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -8335,7 +8515,7 @@
         <f>A186+1</f>
         <v>45842</v>
       </c>
-      <c r="B187" s="20"/>
+      <c r="B187" s="19"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -8343,7 +8523,7 @@
         <f>A187+1</f>
         <v>45843</v>
       </c>
-      <c r="B188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -8351,7 +8531,7 @@
         <f>A188+1</f>
         <v>45844</v>
       </c>
-      <c r="B189" s="20"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -8359,7 +8539,7 @@
         <f>A189+1</f>
         <v>45845</v>
       </c>
-      <c r="B190" s="19"/>
+      <c r="B190" s="20"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -8367,7 +8547,7 @@
         <f>A190+1</f>
         <v>45846</v>
       </c>
-      <c r="B191" s="20"/>
+      <c r="B191" s="19"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -8375,7 +8555,7 @@
         <f>A191+1</f>
         <v>45847</v>
       </c>
-      <c r="B192" s="19"/>
+      <c r="B192" s="20"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -8383,7 +8563,7 @@
         <f>A192+1</f>
         <v>45848</v>
       </c>
-      <c r="B193" s="20"/>
+      <c r="B193" s="19"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -8391,7 +8571,7 @@
         <f>A193+1</f>
         <v>45849</v>
       </c>
-      <c r="B194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -8399,7 +8579,7 @@
         <f>A194+1</f>
         <v>45850</v>
       </c>
-      <c r="B195" s="20"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -8407,7 +8587,7 @@
         <f>A195+1</f>
         <v>45851</v>
       </c>
-      <c r="B196" s="19"/>
+      <c r="B196" s="20"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -8415,7 +8595,7 @@
         <f>A196+1</f>
         <v>45852</v>
       </c>
-      <c r="B197" s="20"/>
+      <c r="B197" s="19"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -8423,7 +8603,7 @@
         <f>A197+1</f>
         <v>45853</v>
       </c>
-      <c r="B198" s="19"/>
+      <c r="B198" s="20"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -8431,7 +8611,7 @@
         <f>A198+1</f>
         <v>45854</v>
       </c>
-      <c r="B199" s="20"/>
+      <c r="B199" s="19"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -8439,7 +8619,7 @@
         <f>A199+1</f>
         <v>45855</v>
       </c>
-      <c r="B200" s="19"/>
+      <c r="B200" s="20"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -8447,7 +8627,7 @@
         <f>A200+1</f>
         <v>45856</v>
       </c>
-      <c r="B201" s="20"/>
+      <c r="B201" s="19"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -8455,7 +8635,7 @@
         <f>A201+1</f>
         <v>45857</v>
       </c>
-      <c r="B202" s="19"/>
+      <c r="B202" s="20"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -8463,7 +8643,7 @@
         <f>A202+1</f>
         <v>45858</v>
       </c>
-      <c r="B203" s="20"/>
+      <c r="B203" s="19"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -8471,7 +8651,7 @@
         <f>A203+1</f>
         <v>45859</v>
       </c>
-      <c r="B204" s="19"/>
+      <c r="B204" s="20"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -8479,7 +8659,7 @@
         <f>A204+1</f>
         <v>45860</v>
       </c>
-      <c r="B205" s="20"/>
+      <c r="B205" s="19"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -8487,7 +8667,7 @@
         <f>A205+1</f>
         <v>45861</v>
       </c>
-      <c r="B206" s="19"/>
+      <c r="B206" s="20"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -8495,7 +8675,7 @@
         <f>A206+1</f>
         <v>45862</v>
       </c>
-      <c r="B207" s="20"/>
+      <c r="B207" s="19"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -8503,7 +8683,7 @@
         <f>A207+1</f>
         <v>45863</v>
       </c>
-      <c r="B208" s="19"/>
+      <c r="B208" s="20"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -8511,7 +8691,7 @@
         <f>A208+1</f>
         <v>45864</v>
       </c>
-      <c r="B209" s="20"/>
+      <c r="B209" s="19"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -8519,7 +8699,7 @@
         <f>A209+1</f>
         <v>45865</v>
       </c>
-      <c r="B210" s="19"/>
+      <c r="B210" s="20"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -8527,7 +8707,7 @@
         <f>A210+1</f>
         <v>45866</v>
       </c>
-      <c r="B211" s="20"/>
+      <c r="B211" s="19"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -8535,7 +8715,7 @@
         <f>A211+1</f>
         <v>45867</v>
       </c>
-      <c r="B212" s="19"/>
+      <c r="B212" s="20"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -8543,7 +8723,7 @@
         <f>A212+1</f>
         <v>45868</v>
       </c>
-      <c r="B213" s="20"/>
+      <c r="B213" s="19"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -8551,7 +8731,7 @@
         <f>A213+1</f>
         <v>45869</v>
       </c>
-      <c r="B214" s="19"/>
+      <c r="B214" s="20"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -8559,7 +8739,7 @@
         <f>A214+1</f>
         <v>45870</v>
       </c>
-      <c r="B215" s="20"/>
+      <c r="B215" s="19"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -8567,7 +8747,7 @@
         <f>A215+1</f>
         <v>45871</v>
       </c>
-      <c r="B216" s="19"/>
+      <c r="B216" s="20"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -8575,7 +8755,7 @@
         <f>A216+1</f>
         <v>45872</v>
       </c>
-      <c r="B217" s="20"/>
+      <c r="B217" s="19"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -8583,7 +8763,7 @@
         <f>A217+1</f>
         <v>45873</v>
       </c>
-      <c r="B218" s="19"/>
+      <c r="B218" s="20"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -8591,7 +8771,7 @@
         <f>A218+1</f>
         <v>45874</v>
       </c>
-      <c r="B219" s="20"/>
+      <c r="B219" s="19"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -8599,7 +8779,7 @@
         <f>A219+1</f>
         <v>45875</v>
       </c>
-      <c r="B220" s="19"/>
+      <c r="B220" s="20"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -8607,7 +8787,7 @@
         <f>A220+1</f>
         <v>45876</v>
       </c>
-      <c r="B221" s="20"/>
+      <c r="B221" s="19"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -8615,7 +8795,7 @@
         <f>A221+1</f>
         <v>45877</v>
       </c>
-      <c r="B222" s="19"/>
+      <c r="B222" s="20"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -8623,7 +8803,7 @@
         <f>A222+1</f>
         <v>45878</v>
       </c>
-      <c r="B223" s="20"/>
+      <c r="B223" s="19"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -8631,7 +8811,7 @@
         <f>A223+1</f>
         <v>45879</v>
       </c>
-      <c r="B224" s="19"/>
+      <c r="B224" s="20"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -8639,7 +8819,7 @@
         <f>A224+1</f>
         <v>45880</v>
       </c>
-      <c r="B225" s="20"/>
+      <c r="B225" s="19"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -8647,7 +8827,7 @@
         <f>A225+1</f>
         <v>45881</v>
       </c>
-      <c r="B226" s="19"/>
+      <c r="B226" s="20"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -8655,7 +8835,7 @@
         <f>A226+1</f>
         <v>45882</v>
       </c>
-      <c r="B227" s="20"/>
+      <c r="B227" s="19"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -8663,7 +8843,7 @@
         <f>A227+1</f>
         <v>45883</v>
       </c>
-      <c r="B228" s="19"/>
+      <c r="B228" s="20"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -8671,7 +8851,7 @@
         <f>A228+1</f>
         <v>45884</v>
       </c>
-      <c r="B229" s="20"/>
+      <c r="B229" s="19"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -8679,7 +8859,7 @@
         <f>A229+1</f>
         <v>45885</v>
       </c>
-      <c r="B230" s="19"/>
+      <c r="B230" s="20"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -8687,7 +8867,7 @@
         <f>A230+1</f>
         <v>45886</v>
       </c>
-      <c r="B231" s="20"/>
+      <c r="B231" s="19"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -8695,7 +8875,7 @@
         <f>A231+1</f>
         <v>45887</v>
       </c>
-      <c r="B232" s="19"/>
+      <c r="B232" s="20"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -8703,7 +8883,7 @@
         <f>A232+1</f>
         <v>45888</v>
       </c>
-      <c r="B233" s="20"/>
+      <c r="B233" s="19"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -8711,7 +8891,7 @@
         <f>A233+1</f>
         <v>45889</v>
       </c>
-      <c r="B234" s="19"/>
+      <c r="B234" s="20"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -8719,7 +8899,7 @@
         <f>A234+1</f>
         <v>45890</v>
       </c>
-      <c r="B235" s="20"/>
+      <c r="B235" s="19"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -8727,7 +8907,7 @@
         <f>A235+1</f>
         <v>45891</v>
       </c>
-      <c r="B236" s="19"/>
+      <c r="B236" s="20"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -8735,7 +8915,7 @@
         <f>A236+1</f>
         <v>45892</v>
       </c>
-      <c r="B237" s="20"/>
+      <c r="B237" s="19"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -8743,7 +8923,7 @@
         <f>A237+1</f>
         <v>45893</v>
       </c>
-      <c r="B238" s="19"/>
+      <c r="B238" s="20"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -8751,7 +8931,7 @@
         <f>A238+1</f>
         <v>45894</v>
       </c>
-      <c r="B239" s="20"/>
+      <c r="B239" s="19"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -8759,7 +8939,7 @@
         <f>A239+1</f>
         <v>45895</v>
       </c>
-      <c r="B240" s="19"/>
+      <c r="B240" s="20"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -8767,7 +8947,7 @@
         <f>A240+1</f>
         <v>45896</v>
       </c>
-      <c r="B241" s="20"/>
+      <c r="B241" s="19"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -8775,7 +8955,7 @@
         <f>A241+1</f>
         <v>45897</v>
       </c>
-      <c r="B242" s="19"/>
+      <c r="B242" s="20"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -8783,7 +8963,7 @@
         <f>A242+1</f>
         <v>45898</v>
       </c>
-      <c r="B243" s="20"/>
+      <c r="B243" s="19"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -8791,7 +8971,7 @@
         <f>A243+1</f>
         <v>45899</v>
       </c>
-      <c r="B244" s="19"/>
+      <c r="B244" s="20"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -8799,7 +8979,7 @@
         <f>A244+1</f>
         <v>45900</v>
       </c>
-      <c r="B245" s="20"/>
+      <c r="B245" s="19"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -8807,7 +8987,7 @@
         <f>A245+1</f>
         <v>45901</v>
       </c>
-      <c r="B246" s="19"/>
+      <c r="B246" s="20"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -8815,7 +8995,7 @@
         <f>A246+1</f>
         <v>45902</v>
       </c>
-      <c r="B247" s="20"/>
+      <c r="B247" s="19"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -8823,7 +9003,7 @@
         <f>A247+1</f>
         <v>45903</v>
       </c>
-      <c r="B248" s="19"/>
+      <c r="B248" s="20"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -8831,7 +9011,7 @@
         <f>A248+1</f>
         <v>45904</v>
       </c>
-      <c r="B249" s="20"/>
+      <c r="B249" s="19"/>
       <c r="C249" s="3"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
@@ -8839,7 +9019,7 @@
         <f>A249+1</f>
         <v>45905</v>
       </c>
-      <c r="B250" s="19"/>
+      <c r="B250" s="20"/>
       <c r="C250" s="4"/>
     </row>
     <row r="251" ht="20.05" customHeight="1">
@@ -8847,7 +9027,7 @@
         <f>A250+1</f>
         <v>45906</v>
       </c>
-      <c r="B251" s="20"/>
+      <c r="B251" s="19"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
@@ -8855,7 +9035,7 @@
         <f>A251+1</f>
         <v>45907</v>
       </c>
-      <c r="B252" s="19"/>
+      <c r="B252" s="20"/>
       <c r="C252" s="4"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
@@ -8863,7 +9043,7 @@
         <f>A252+1</f>
         <v>45908</v>
       </c>
-      <c r="B253" s="20"/>
+      <c r="B253" s="19"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
@@ -8871,7 +9051,7 @@
         <f>A253+1</f>
         <v>45909</v>
       </c>
-      <c r="B254" s="19"/>
+      <c r="B254" s="20"/>
       <c r="C254" s="4"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
@@ -8879,7 +9059,7 @@
         <f>A254+1</f>
         <v>45910</v>
       </c>
-      <c r="B255" s="20"/>
+      <c r="B255" s="19"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
@@ -8887,7 +9067,7 @@
         <f>A255+1</f>
         <v>45911</v>
       </c>
-      <c r="B256" s="19"/>
+      <c r="B256" s="20"/>
       <c r="C256" s="4"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
@@ -8895,7 +9075,7 @@
         <f>A256+1</f>
         <v>45912</v>
       </c>
-      <c r="B257" s="20"/>
+      <c r="B257" s="19"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
@@ -8903,7 +9083,7 @@
         <f>A257+1</f>
         <v>45913</v>
       </c>
-      <c r="B258" s="19"/>
+      <c r="B258" s="20"/>
       <c r="C258" s="4"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
@@ -8911,7 +9091,7 @@
         <f>A258+1</f>
         <v>45914</v>
       </c>
-      <c r="B259" s="20"/>
+      <c r="B259" s="19"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" ht="20.05" customHeight="1">
@@ -8919,7 +9099,7 @@
         <f>A259+1</f>
         <v>45915</v>
       </c>
-      <c r="B260" s="19"/>
+      <c r="B260" s="20"/>
       <c r="C260" s="4"/>
     </row>
     <row r="261" ht="20.05" customHeight="1">
@@ -8927,7 +9107,7 @@
         <f>A260+1</f>
         <v>45916</v>
       </c>
-      <c r="B261" s="20"/>
+      <c r="B261" s="19"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -8935,7 +9115,7 @@
         <f>A261+1</f>
         <v>45917</v>
       </c>
-      <c r="B262" s="19"/>
+      <c r="B262" s="20"/>
       <c r="C262" s="4"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -8943,7 +9123,7 @@
         <f>A262+1</f>
         <v>45918</v>
       </c>
-      <c r="B263" s="20"/>
+      <c r="B263" s="19"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" ht="20.05" customHeight="1">
@@ -8951,7 +9131,7 @@
         <f>A263+1</f>
         <v>45919</v>
       </c>
-      <c r="B264" s="19"/>
+      <c r="B264" s="20"/>
       <c r="C264" s="4"/>
     </row>
     <row r="265" ht="20.05" customHeight="1">
@@ -8959,7 +9139,7 @@
         <f>A264+1</f>
         <v>45920</v>
       </c>
-      <c r="B265" s="20"/>
+      <c r="B265" s="19"/>
       <c r="C265" s="3"/>
     </row>
     <row r="266" ht="20.05" customHeight="1">
@@ -8967,7 +9147,7 @@
         <f>A265+1</f>
         <v>45921</v>
       </c>
-      <c r="B266" s="19"/>
+      <c r="B266" s="20"/>
       <c r="C266" s="4"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
@@ -8975,7 +9155,7 @@
         <f>A266+1</f>
         <v>45922</v>
       </c>
-      <c r="B267" s="20"/>
+      <c r="B267" s="19"/>
       <c r="C267" s="3"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
@@ -8983,7 +9163,7 @@
         <f>A267+1</f>
         <v>45923</v>
       </c>
-      <c r="B268" s="19"/>
+      <c r="B268" s="20"/>
       <c r="C268" s="4"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -8991,7 +9171,7 @@
         <f>A268+1</f>
         <v>45924</v>
       </c>
-      <c r="B269" s="20"/>
+      <c r="B269" s="19"/>
       <c r="C269" s="3"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -8999,7 +9179,7 @@
         <f>A269+1</f>
         <v>45925</v>
       </c>
-      <c r="B270" s="19"/>
+      <c r="B270" s="20"/>
       <c r="C270" s="4"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
@@ -9007,7 +9187,7 @@
         <f>A270+1</f>
         <v>45926</v>
       </c>
-      <c r="B271" s="20"/>
+      <c r="B271" s="19"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
@@ -9015,7 +9195,7 @@
         <f>A271+1</f>
         <v>45927</v>
       </c>
-      <c r="B272" s="19"/>
+      <c r="B272" s="20"/>
       <c r="C272" s="4"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
@@ -9023,7 +9203,7 @@
         <f>A272+1</f>
         <v>45928</v>
       </c>
-      <c r="B273" s="20"/>
+      <c r="B273" s="19"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
@@ -9031,7 +9211,7 @@
         <f>A273+1</f>
         <v>45929</v>
       </c>
-      <c r="B274" s="19"/>
+      <c r="B274" s="20"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
@@ -9039,7 +9219,7 @@
         <f>A274+1</f>
         <v>45930</v>
       </c>
-      <c r="B275" s="20"/>
+      <c r="B275" s="19"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" ht="20.05" customHeight="1">
@@ -9047,7 +9227,7 @@
         <f>A275+1</f>
         <v>45931</v>
       </c>
-      <c r="B276" s="19"/>
+      <c r="B276" s="20"/>
       <c r="C276" s="4"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
@@ -9055,7 +9235,7 @@
         <f>A276+1</f>
         <v>45932</v>
       </c>
-      <c r="B277" s="20"/>
+      <c r="B277" s="19"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
@@ -9063,7 +9243,7 @@
         <f>A277+1</f>
         <v>45933</v>
       </c>
-      <c r="B278" s="19"/>
+      <c r="B278" s="20"/>
       <c r="C278" s="4"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
@@ -9071,7 +9251,7 @@
         <f>A278+1</f>
         <v>45934</v>
       </c>
-      <c r="B279" s="20"/>
+      <c r="B279" s="19"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
@@ -9079,7 +9259,7 @@
         <f>A279+1</f>
         <v>45935</v>
       </c>
-      <c r="B280" s="19"/>
+      <c r="B280" s="20"/>
       <c r="C280" s="4"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
@@ -9087,7 +9267,7 @@
         <f>A280+1</f>
         <v>45936</v>
       </c>
-      <c r="B281" s="20"/>
+      <c r="B281" s="19"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
@@ -9095,7 +9275,7 @@
         <f>A281+1</f>
         <v>45937</v>
       </c>
-      <c r="B282" s="19"/>
+      <c r="B282" s="20"/>
       <c r="C282" s="4"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
@@ -9103,7 +9283,7 @@
         <f>A282+1</f>
         <v>45938</v>
       </c>
-      <c r="B283" s="20"/>
+      <c r="B283" s="19"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
@@ -9111,7 +9291,7 @@
         <f>A283+1</f>
         <v>45939</v>
       </c>
-      <c r="B284" s="19"/>
+      <c r="B284" s="20"/>
       <c r="C284" s="4"/>
     </row>
     <row r="285" ht="20.05" customHeight="1">
@@ -9119,7 +9299,7 @@
         <f>A284+1</f>
         <v>45940</v>
       </c>
-      <c r="B285" s="20"/>
+      <c r="B285" s="19"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
@@ -9127,7 +9307,7 @@
         <f>A285+1</f>
         <v>45941</v>
       </c>
-      <c r="B286" s="19"/>
+      <c r="B286" s="20"/>
       <c r="C286" s="4"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
@@ -9135,7 +9315,7 @@
         <f>A286+1</f>
         <v>45942</v>
       </c>
-      <c r="B287" s="20"/>
+      <c r="B287" s="19"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
@@ -9143,7 +9323,7 @@
         <f>A287+1</f>
         <v>45943</v>
       </c>
-      <c r="B288" s="19"/>
+      <c r="B288" s="20"/>
       <c r="C288" s="4"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
@@ -9151,7 +9331,7 @@
         <f>A288+1</f>
         <v>45944</v>
       </c>
-      <c r="B289" s="20"/>
+      <c r="B289" s="19"/>
       <c r="C289" s="3"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
@@ -9159,7 +9339,7 @@
         <f>A289+1</f>
         <v>45945</v>
       </c>
-      <c r="B290" s="19"/>
+      <c r="B290" s="20"/>
       <c r="C290" s="4"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
@@ -9167,7 +9347,7 @@
         <f>A290+1</f>
         <v>45946</v>
       </c>
-      <c r="B291" s="20"/>
+      <c r="B291" s="19"/>
       <c r="C291" s="3"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
@@ -9175,7 +9355,7 @@
         <f>A291+1</f>
         <v>45947</v>
       </c>
-      <c r="B292" s="19"/>
+      <c r="B292" s="20"/>
       <c r="C292" s="4"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
@@ -9183,7 +9363,7 @@
         <f>A292+1</f>
         <v>45948</v>
       </c>
-      <c r="B293" s="20"/>
+      <c r="B293" s="19"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -9191,7 +9371,7 @@
         <f>A293+1</f>
         <v>45949</v>
       </c>
-      <c r="B294" s="19"/>
+      <c r="B294" s="20"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -9199,7 +9379,7 @@
         <f>A294+1</f>
         <v>45950</v>
       </c>
-      <c r="B295" s="20"/>
+      <c r="B295" s="19"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
@@ -9207,7 +9387,7 @@
         <f>A295+1</f>
         <v>45951</v>
       </c>
-      <c r="B296" s="19"/>
+      <c r="B296" s="20"/>
       <c r="C296" s="4"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
@@ -9215,7 +9395,7 @@
         <f>A296+1</f>
         <v>45952</v>
       </c>
-      <c r="B297" s="20"/>
+      <c r="B297" s="19"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
@@ -9223,7 +9403,7 @@
         <f>A297+1</f>
         <v>45953</v>
       </c>
-      <c r="B298" s="19"/>
+      <c r="B298" s="20"/>
       <c r="C298" s="4"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
@@ -9231,7 +9411,7 @@
         <f>A298+1</f>
         <v>45954</v>
       </c>
-      <c r="B299" s="20"/>
+      <c r="B299" s="19"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
@@ -9239,7 +9419,7 @@
         <f>A299+1</f>
         <v>45955</v>
       </c>
-      <c r="B300" s="19"/>
+      <c r="B300" s="20"/>
       <c r="C300" s="4"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
@@ -9247,7 +9427,7 @@
         <f>A300+1</f>
         <v>45956</v>
       </c>
-      <c r="B301" s="20"/>
+      <c r="B301" s="19"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
@@ -9255,7 +9435,7 @@
         <f>A301+1</f>
         <v>45957</v>
       </c>
-      <c r="B302" s="19"/>
+      <c r="B302" s="20"/>
       <c r="C302" s="4"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
@@ -9263,7 +9443,7 @@
         <f>A302+1</f>
         <v>45958</v>
       </c>
-      <c r="B303" s="20"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
@@ -9271,7 +9451,7 @@
         <f>A303+1</f>
         <v>45959</v>
       </c>
-      <c r="B304" s="19"/>
+      <c r="B304" s="20"/>
       <c r="C304" s="4"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
@@ -9279,7 +9459,7 @@
         <f>A304+1</f>
         <v>45960</v>
       </c>
-      <c r="B305" s="20"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="3"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
@@ -9287,7 +9467,7 @@
         <f>A305+1</f>
         <v>45961</v>
       </c>
-      <c r="B306" s="19"/>
+      <c r="B306" s="20"/>
       <c r="C306" s="4"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
@@ -9295,7 +9475,7 @@
         <f>A306+1</f>
         <v>45962</v>
       </c>
-      <c r="B307" s="20"/>
+      <c r="B307" s="19"/>
       <c r="C307" s="3"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
@@ -9303,7 +9483,7 @@
         <f>A307+1</f>
         <v>45963</v>
       </c>
-      <c r="B308" s="19"/>
+      <c r="B308" s="20"/>
       <c r="C308" s="4"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
@@ -9311,7 +9491,7 @@
         <f>A308+1</f>
         <v>45964</v>
       </c>
-      <c r="B309" s="20"/>
+      <c r="B309" s="19"/>
       <c r="C309" s="3"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
@@ -9319,7 +9499,7 @@
         <f>A309+1</f>
         <v>45965</v>
       </c>
-      <c r="B310" s="19"/>
+      <c r="B310" s="20"/>
       <c r="C310" s="4"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
@@ -9327,7 +9507,7 @@
         <f>A310+1</f>
         <v>45966</v>
       </c>
-      <c r="B311" s="20"/>
+      <c r="B311" s="19"/>
       <c r="C311" s="3"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
@@ -9335,7 +9515,7 @@
         <f>A311+1</f>
         <v>45967</v>
       </c>
-      <c r="B312" s="19"/>
+      <c r="B312" s="20"/>
       <c r="C312" s="4"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
@@ -9343,7 +9523,7 @@
         <f>A312+1</f>
         <v>45968</v>
       </c>
-      <c r="B313" s="20"/>
+      <c r="B313" s="19"/>
       <c r="C313" s="3"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
@@ -9351,7 +9531,7 @@
         <f>A313+1</f>
         <v>45969</v>
       </c>
-      <c r="B314" s="19"/>
+      <c r="B314" s="20"/>
       <c r="C314" s="4"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
@@ -9359,7 +9539,7 @@
         <f>A314+1</f>
         <v>45970</v>
       </c>
-      <c r="B315" s="20"/>
+      <c r="B315" s="19"/>
       <c r="C315" s="3"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
@@ -9367,7 +9547,7 @@
         <f>A315+1</f>
         <v>45971</v>
       </c>
-      <c r="B316" s="19"/>
+      <c r="B316" s="20"/>
       <c r="C316" s="4"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
@@ -9375,7 +9555,7 @@
         <f>A316+1</f>
         <v>45972</v>
       </c>
-      <c r="B317" s="20"/>
+      <c r="B317" s="19"/>
       <c r="C317" s="3"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
@@ -9383,7 +9563,7 @@
         <f>A317+1</f>
         <v>45973</v>
       </c>
-      <c r="B318" s="19"/>
+      <c r="B318" s="20"/>
       <c r="C318" s="4"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
@@ -9391,7 +9571,7 @@
         <f>A318+1</f>
         <v>45974</v>
       </c>
-      <c r="B319" s="20"/>
+      <c r="B319" s="19"/>
       <c r="C319" s="3"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
@@ -9399,7 +9579,7 @@
         <f>A319+1</f>
         <v>45975</v>
       </c>
-      <c r="B320" s="19"/>
+      <c r="B320" s="20"/>
       <c r="C320" s="4"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
@@ -9407,7 +9587,7 @@
         <f>A320+1</f>
         <v>45976</v>
       </c>
-      <c r="B321" s="20"/>
+      <c r="B321" s="19"/>
       <c r="C321" s="3"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
@@ -9415,7 +9595,7 @@
         <f>A321+1</f>
         <v>45977</v>
       </c>
-      <c r="B322" s="19"/>
+      <c r="B322" s="20"/>
       <c r="C322" s="4"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
@@ -9423,7 +9603,7 @@
         <f>A322+1</f>
         <v>45978</v>
       </c>
-      <c r="B323" s="20"/>
+      <c r="B323" s="19"/>
       <c r="C323" s="3"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
@@ -9431,7 +9611,7 @@
         <f>A323+1</f>
         <v>45979</v>
       </c>
-      <c r="B324" s="19"/>
+      <c r="B324" s="20"/>
       <c r="C324" s="4"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
@@ -9439,7 +9619,7 @@
         <f>A324+1</f>
         <v>45980</v>
       </c>
-      <c r="B325" s="20"/>
+      <c r="B325" s="19"/>
       <c r="C325" s="3"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
@@ -9447,7 +9627,7 @@
         <f>A325+1</f>
         <v>45981</v>
       </c>
-      <c r="B326" s="19"/>
+      <c r="B326" s="20"/>
       <c r="C326" s="4"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
@@ -9455,7 +9635,7 @@
         <f>A326+1</f>
         <v>45982</v>
       </c>
-      <c r="B327" s="20"/>
+      <c r="B327" s="19"/>
       <c r="C327" s="3"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
@@ -9463,7 +9643,7 @@
         <f>A327+1</f>
         <v>45983</v>
       </c>
-      <c r="B328" s="19"/>
+      <c r="B328" s="20"/>
       <c r="C328" s="4"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
@@ -9471,7 +9651,7 @@
         <f>A328+1</f>
         <v>45984</v>
       </c>
-      <c r="B329" s="20"/>
+      <c r="B329" s="19"/>
       <c r="C329" s="3"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
@@ -9479,7 +9659,7 @@
         <f>A329+1</f>
         <v>45985</v>
       </c>
-      <c r="B330" s="19"/>
+      <c r="B330" s="20"/>
       <c r="C330" s="4"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
@@ -9487,7 +9667,7 @@
         <f>A330+1</f>
         <v>45986</v>
       </c>
-      <c r="B331" s="20"/>
+      <c r="B331" s="19"/>
       <c r="C331" s="3"/>
     </row>
     <row r="332" ht="20.05" customHeight="1">
@@ -9495,7 +9675,7 @@
         <f>A331+1</f>
         <v>45987</v>
       </c>
-      <c r="B332" s="19"/>
+      <c r="B332" s="20"/>
       <c r="C332" s="4"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
@@ -9503,7 +9683,7 @@
         <f>A332+1</f>
         <v>45988</v>
       </c>
-      <c r="B333" s="20"/>
+      <c r="B333" s="19"/>
       <c r="C333" s="3"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
@@ -9511,7 +9691,7 @@
         <f>A333+1</f>
         <v>45989</v>
       </c>
-      <c r="B334" s="19"/>
+      <c r="B334" s="20"/>
       <c r="C334" s="4"/>
     </row>
     <row r="335" ht="20.05" customHeight="1">
@@ -9519,7 +9699,7 @@
         <f>A334+1</f>
         <v>45990</v>
       </c>
-      <c r="B335" s="20"/>
+      <c r="B335" s="19"/>
       <c r="C335" s="3"/>
     </row>
     <row r="336" ht="20.05" customHeight="1">
@@ -9527,7 +9707,7 @@
         <f>A335+1</f>
         <v>45991</v>
       </c>
-      <c r="B336" s="19"/>
+      <c r="B336" s="20"/>
       <c r="C336" s="4"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
@@ -9535,7 +9715,7 @@
         <f>A336+1</f>
         <v>45992</v>
       </c>
-      <c r="B337" s="20"/>
+      <c r="B337" s="19"/>
       <c r="C337" s="3"/>
     </row>
     <row r="338" ht="20.05" customHeight="1">
@@ -9543,7 +9723,7 @@
         <f>A337+1</f>
         <v>45993</v>
       </c>
-      <c r="B338" s="19"/>
+      <c r="B338" s="20"/>
       <c r="C338" s="4"/>
     </row>
     <row r="339" ht="20.05" customHeight="1">
@@ -9551,7 +9731,7 @@
         <f>A338+1</f>
         <v>45994</v>
       </c>
-      <c r="B339" s="20"/>
+      <c r="B339" s="19"/>
       <c r="C339" s="3"/>
     </row>
     <row r="340" ht="20.05" customHeight="1">
@@ -9559,7 +9739,7 @@
         <f>A339+1</f>
         <v>45995</v>
       </c>
-      <c r="B340" s="19"/>
+      <c r="B340" s="20"/>
       <c r="C340" s="4"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
@@ -9567,7 +9747,7 @@
         <f>A340+1</f>
         <v>45996</v>
       </c>
-      <c r="B341" s="20"/>
+      <c r="B341" s="19"/>
       <c r="C341" s="3"/>
     </row>
     <row r="342" ht="20.05" customHeight="1">
@@ -9575,7 +9755,7 @@
         <f>A341+1</f>
         <v>45997</v>
       </c>
-      <c r="B342" s="19"/>
+      <c r="B342" s="20"/>
       <c r="C342" s="4"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
@@ -9583,7 +9763,7 @@
         <f>A342+1</f>
         <v>45998</v>
       </c>
-      <c r="B343" s="20"/>
+      <c r="B343" s="19"/>
       <c r="C343" s="3"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
@@ -9591,7 +9771,7 @@
         <f>A343+1</f>
         <v>45999</v>
       </c>
-      <c r="B344" s="19"/>
+      <c r="B344" s="20"/>
       <c r="C344" s="4"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
@@ -9599,7 +9779,7 @@
         <f>A344+1</f>
         <v>46000</v>
       </c>
-      <c r="B345" s="20"/>
+      <c r="B345" s="19"/>
       <c r="C345" s="3"/>
     </row>
     <row r="346" ht="20.05" customHeight="1">
@@ -9607,7 +9787,7 @@
         <f>A345+1</f>
         <v>46001</v>
       </c>
-      <c r="B346" s="19"/>
+      <c r="B346" s="20"/>
       <c r="C346" s="4"/>
     </row>
     <row r="347" ht="20.05" customHeight="1">
@@ -9615,7 +9795,7 @@
         <f>A346+1</f>
         <v>46002</v>
       </c>
-      <c r="B347" s="20"/>
+      <c r="B347" s="19"/>
       <c r="C347" s="3"/>
     </row>
     <row r="348" ht="20.05" customHeight="1">
@@ -9623,7 +9803,7 @@
         <f>A347+1</f>
         <v>46003</v>
       </c>
-      <c r="B348" s="19"/>
+      <c r="B348" s="20"/>
       <c r="C348" s="4"/>
     </row>
     <row r="349" ht="20.05" customHeight="1">
@@ -9631,7 +9811,7 @@
         <f>A348+1</f>
         <v>46004</v>
       </c>
-      <c r="B349" s="20"/>
+      <c r="B349" s="19"/>
       <c r="C349" s="3"/>
     </row>
     <row r="350" ht="20.05" customHeight="1">
@@ -9639,7 +9819,7 @@
         <f>A349+1</f>
         <v>46005</v>
       </c>
-      <c r="B350" s="19"/>
+      <c r="B350" s="20"/>
       <c r="C350" s="4"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
@@ -9647,7 +9827,7 @@
         <f>A350+1</f>
         <v>46006</v>
       </c>
-      <c r="B351" s="20"/>
+      <c r="B351" s="19"/>
       <c r="C351" s="3"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
@@ -9655,7 +9835,7 @@
         <f>A351+1</f>
         <v>46007</v>
       </c>
-      <c r="B352" s="19"/>
+      <c r="B352" s="20"/>
       <c r="C352" s="4"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
@@ -9663,7 +9843,7 @@
         <f>A352+1</f>
         <v>46008</v>
       </c>
-      <c r="B353" s="20"/>
+      <c r="B353" s="19"/>
       <c r="C353" s="3"/>
     </row>
     <row r="354" ht="20.05" customHeight="1">
@@ -9671,7 +9851,7 @@
         <f>A353+1</f>
         <v>46009</v>
       </c>
-      <c r="B354" s="19"/>
+      <c r="B354" s="20"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
@@ -9679,7 +9859,7 @@
         <f>A354+1</f>
         <v>46010</v>
       </c>
-      <c r="B355" s="20"/>
+      <c r="B355" s="19"/>
       <c r="C355" s="3"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
@@ -9687,7 +9867,7 @@
         <f>A355+1</f>
         <v>46011</v>
       </c>
-      <c r="B356" s="19"/>
+      <c r="B356" s="20"/>
       <c r="C356" s="4"/>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -9695,7 +9875,7 @@
         <f>A356+1</f>
         <v>46012</v>
       </c>
-      <c r="B357" s="20"/>
+      <c r="B357" s="19"/>
       <c r="C357" s="3"/>
     </row>
     <row r="358" ht="20.05" customHeight="1">
@@ -9703,7 +9883,7 @@
         <f>A357+1</f>
         <v>46013</v>
       </c>
-      <c r="B358" s="19"/>
+      <c r="B358" s="20"/>
       <c r="C358" s="4"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
@@ -9711,7 +9891,7 @@
         <f>A358+1</f>
         <v>46014</v>
       </c>
-      <c r="B359" s="20"/>
+      <c r="B359" s="19"/>
       <c r="C359" s="3"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
@@ -9719,7 +9899,7 @@
         <f>A359+1</f>
         <v>46015</v>
       </c>
-      <c r="B360" s="19"/>
+      <c r="B360" s="20"/>
       <c r="C360" s="4"/>
     </row>
     <row r="361" ht="20.05" customHeight="1">
@@ -9727,7 +9907,7 @@
         <f>A360+1</f>
         <v>46016</v>
       </c>
-      <c r="B361" s="20"/>
+      <c r="B361" s="19"/>
       <c r="C361" s="3"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
@@ -9735,7 +9915,7 @@
         <f>A361+1</f>
         <v>46017</v>
       </c>
-      <c r="B362" s="19"/>
+      <c r="B362" s="20"/>
       <c r="C362" s="4"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
@@ -9743,7 +9923,7 @@
         <f>A362+1</f>
         <v>46018</v>
       </c>
-      <c r="B363" s="20"/>
+      <c r="B363" s="19"/>
       <c r="C363" s="3"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
@@ -9751,7 +9931,7 @@
         <f>A363+1</f>
         <v>46019</v>
       </c>
-      <c r="B364" s="19"/>
+      <c r="B364" s="20"/>
       <c r="C364" s="4"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
@@ -9759,7 +9939,7 @@
         <f>A364+1</f>
         <v>46020</v>
       </c>
-      <c r="B365" s="20"/>
+      <c r="B365" s="19"/>
       <c r="C365" s="3"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
@@ -9767,7 +9947,7 @@
         <f>A365+1</f>
         <v>46021</v>
       </c>
-      <c r="B366" s="19"/>
+      <c r="B366" s="20"/>
       <c r="C366" s="4"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
@@ -9775,7 +9955,7 @@
         <f>A366+1</f>
         <v>46022</v>
       </c>
-      <c r="B367" s="20"/>
+      <c r="B367" s="19"/>
       <c r="C367" s="3"/>
     </row>
   </sheetData>
@@ -9839,7 +10019,7 @@
         <f>A3+1</f>
         <v>46024</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -9847,7 +10027,7 @@
         <f>A4+1</f>
         <v>46025</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -9855,7 +10035,7 @@
         <f>A5+1</f>
         <v>46026</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -9863,7 +10043,7 @@
         <f>A6+1</f>
         <v>46027</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -9871,7 +10051,7 @@
         <f>A7+1</f>
         <v>46028</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -9879,7 +10059,7 @@
         <f>A8+1</f>
         <v>46029</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -9887,7 +10067,7 @@
         <f>A9+1</f>
         <v>46030</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -9895,7 +10075,7 @@
         <f>A10+1</f>
         <v>46031</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -9903,7 +10083,7 @@
         <f>A11+1</f>
         <v>46032</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -9911,7 +10091,7 @@
         <f>A12+1</f>
         <v>46033</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -9919,7 +10099,7 @@
         <f>A13+1</f>
         <v>46034</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -9927,7 +10107,7 @@
         <f>A14+1</f>
         <v>46035</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -9935,7 +10115,7 @@
         <f>A15+1</f>
         <v>46036</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -9943,7 +10123,7 @@
         <f>A16+1</f>
         <v>46037</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -9951,7 +10131,7 @@
         <f>A17+1</f>
         <v>46038</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -9959,7 +10139,7 @@
         <f>A18+1</f>
         <v>46039</v>
       </c>
-      <c r="B19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -9967,7 +10147,7 @@
         <f>A19+1</f>
         <v>46040</v>
       </c>
-      <c r="B20" s="19"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -9975,7 +10155,7 @@
         <f>A20+1</f>
         <v>46041</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -9983,7 +10163,7 @@
         <f>A21+1</f>
         <v>46042</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -9991,7 +10171,7 @@
         <f>A22+1</f>
         <v>46043</v>
       </c>
-      <c r="B23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -9999,7 +10179,7 @@
         <f>A23+1</f>
         <v>46044</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -10007,7 +10187,7 @@
         <f>A24+1</f>
         <v>46045</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -10015,7 +10195,7 @@
         <f>A25+1</f>
         <v>46046</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -10023,7 +10203,7 @@
         <f>A26+1</f>
         <v>46047</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -10031,7 +10211,7 @@
         <f>A27+1</f>
         <v>46048</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="4"/>
     </row>
   </sheetData>

--- a/mastodon-radio-1001-nights/1001-nights-in-amateur-radio.xlsx
+++ b/mastodon-radio-1001-nights/1001-nights-in-amateur-radio.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>Readme</t>
   </si>
@@ -368,6 +368,93 @@
   <si>
     <t>EME contact (DX)</t>
   </si>
+  <si>
+    <t>Digital modes</t>
+  </si>
+  <si>
+    <t>Ready to embrace the digital mode? It is not going anywhere and well worth the try.</t>
+  </si>
+  <si>
+    <t>CW contact on SSB</t>
+  </si>
+  <si>
+    <t>Check out the Nervous Novices CW Net and get your first or next CW QSO.</t>
+  </si>
+  <si>
+    <t>FT8 contact on SSB</t>
+  </si>
+  <si>
+    <t>It is all about getting on the air and giving the Ops a chance of that elusive DX contact.</t>
+  </si>
+  <si>
+    <t>Maximum power or QRP</t>
+  </si>
+  <si>
+    <t>Do you need that additional power? I have the answer, do you?</t>
+  </si>
+  <si>
+    <t>QRP HF contact on SSB (Local)</t>
+  </si>
+  <si>
+    <t>What is the minimum power required for this contact?</t>
+  </si>
+  <si>
+    <t>QRP HF contact on SSB (DX)</t>
+  </si>
+  <si>
+    <t>QRP VHF contact on SSB (Local)</t>
+  </si>
+  <si>
+    <t>QRP VHF contact on SSB (DX)</t>
+  </si>
+  <si>
+    <t>QRP VHF contact on FM (Local)</t>
+  </si>
+  <si>
+    <t>QRP VHF contact on FM (DX)</t>
+  </si>
+  <si>
+    <t>WWFF</t>
+  </si>
+  <si>
+    <t>Maybe it is time to leave the shack</t>
+  </si>
+  <si>
+    <t>SOTA</t>
+  </si>
+  <si>
+    <t>Maybe it is time for some fresh air</t>
+  </si>
+  <si>
+    <t>POTA</t>
+  </si>
+  <si>
+    <t>Maybe it is time to take our hobby to the public</t>
+  </si>
+  <si>
+    <t>ROTA</t>
+  </si>
+  <si>
+    <t>Trains and Radio. Enough said.</t>
+  </si>
+  <si>
+    <t>MOTA</t>
+  </si>
+  <si>
+    <t>Museums and Radio. Best combo.</t>
+  </si>
+  <si>
+    <t>COTA</t>
+  </si>
+  <si>
+    <t>History and Radio. One for the bucket list.</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>It is good to dream on the perfect getaway</t>
+  </si>
 </sst>
 </file>
 
@@ -611,10 +698,10 @@
     <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -2416,148 +2503,216 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" ht="20.05" customHeight="1">
+    <row r="51" ht="32.05" customHeight="1">
       <c r="A51" s="14">
         <f>A50+1</f>
         <v>45093</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
+      <c r="B51" t="s" s="16">
+        <v>70</v>
+      </c>
+      <c r="C51" t="s" s="18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" ht="32.05" customHeight="1">
       <c r="A52" s="14">
         <f>A51+1</f>
         <v>45094</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
+      <c r="B52" t="s" s="15">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s" s="17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" ht="32.05" customHeight="1">
       <c r="A53" s="14">
         <f>A52+1</f>
         <v>45095</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
+      <c r="B53" t="s" s="16">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s" s="18">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" ht="32.05" customHeight="1">
       <c r="A54" s="14">
         <f>A53+1</f>
         <v>45096</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
+      <c r="B54" t="s" s="15">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s" s="17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" ht="32.05" customHeight="1">
       <c r="A55" s="14">
         <f>A54+1</f>
         <v>45097</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
+      <c r="B55" t="s" s="16">
+        <v>78</v>
+      </c>
+      <c r="C55" t="s" s="18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" ht="32.05" customHeight="1">
       <c r="A56" s="14">
         <f>A55+1</f>
         <v>45098</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
+      <c r="B56" t="s" s="15">
+        <v>80</v>
+      </c>
+      <c r="C56" t="s" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" ht="32.05" customHeight="1">
       <c r="A57" s="14">
         <f>A56+1</f>
         <v>45099</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
+      <c r="B57" t="s" s="16">
+        <v>81</v>
+      </c>
+      <c r="C57" t="s" s="18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" ht="32.05" customHeight="1">
       <c r="A58" s="14">
         <f>A57+1</f>
         <v>45100</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
+      <c r="B58" t="s" s="15">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s" s="17">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" ht="32.05" customHeight="1">
       <c r="A59" s="14">
         <f>A58+1</f>
         <v>45101</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
+      <c r="B59" t="s" s="16">
+        <v>83</v>
+      </c>
+      <c r="C59" t="s" s="18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" ht="32.05" customHeight="1">
       <c r="A60" s="14">
         <f>A59+1</f>
         <v>45102</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="4"/>
+      <c r="B60" t="s" s="15">
+        <v>84</v>
+      </c>
+      <c r="C60" t="s" s="17">
+        <v>79</v>
+      </c>
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" s="14">
         <f>A60+1</f>
         <v>45103</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="3"/>
+      <c r="B61" t="s" s="16">
+        <v>85</v>
+      </c>
+      <c r="C61" t="s" s="18">
+        <v>86</v>
+      </c>
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" s="14">
         <f>A61+1</f>
         <v>45104</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="4"/>
+      <c r="B62" t="s" s="15">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s" s="17">
+        <v>88</v>
+      </c>
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" s="14">
         <f>A62+1</f>
         <v>45105</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="3"/>
+      <c r="B63" t="s" s="16">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s" s="18">
+        <v>90</v>
+      </c>
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" s="14">
         <f>A63+1</f>
         <v>45106</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="4"/>
+      <c r="B64" t="s" s="15">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s" s="17">
+        <v>92</v>
+      </c>
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" s="14">
         <f>A64+1</f>
         <v>45107</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="3"/>
+      <c r="B65" t="s" s="16">
+        <v>93</v>
+      </c>
+      <c r="C65" t="s" s="18">
+        <v>94</v>
+      </c>
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" s="14">
         <f>A65+1</f>
         <v>45108</v>
       </c>
-      <c r="B66" s="20"/>
-      <c r="C66" s="4"/>
+      <c r="B66" t="s" s="15">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s" s="17">
+        <v>96</v>
+      </c>
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" s="14">
         <f>A66+1</f>
         <v>45109</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="3"/>
+      <c r="B67" t="s" s="16">
+        <v>97</v>
+      </c>
+      <c r="C67" t="s" s="18">
+        <v>98</v>
+      </c>
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" s="14">
         <f>A67+1</f>
         <v>45110</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -2565,7 +2720,7 @@
         <f>A68+1</f>
         <v>45111</v>
       </c>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -2573,7 +2728,7 @@
         <f>A69+1</f>
         <v>45112</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -2581,7 +2736,7 @@
         <f>A70+1</f>
         <v>45113</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -2589,7 +2744,7 @@
         <f>A71+1</f>
         <v>45114</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -2597,7 +2752,7 @@
         <f>A72+1</f>
         <v>45115</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -2605,7 +2760,7 @@
         <f>A73+1</f>
         <v>45116</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -2613,7 +2768,7 @@
         <f>A74+1</f>
         <v>45117</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -2621,7 +2776,7 @@
         <f>A75+1</f>
         <v>45118</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -2629,7 +2784,7 @@
         <f>A76+1</f>
         <v>45119</v>
       </c>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -2637,7 +2792,7 @@
         <f>A77+1</f>
         <v>45120</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -2645,7 +2800,7 @@
         <f>A78+1</f>
         <v>45121</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -2653,7 +2808,7 @@
         <f>A79+1</f>
         <v>45122</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -2661,7 +2816,7 @@
         <f>A80+1</f>
         <v>45123</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -2669,7 +2824,7 @@
         <f>A81+1</f>
         <v>45124</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -2677,7 +2832,7 @@
         <f>A82+1</f>
         <v>45125</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -2685,7 +2840,7 @@
         <f>A83+1</f>
         <v>45126</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -2693,7 +2848,7 @@
         <f>A84+1</f>
         <v>45127</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -2701,7 +2856,7 @@
         <f>A85+1</f>
         <v>45128</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -2709,7 +2864,7 @@
         <f>A86+1</f>
         <v>45129</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -2717,7 +2872,7 @@
         <f>A87+1</f>
         <v>45130</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -2725,7 +2880,7 @@
         <f>A88+1</f>
         <v>45131</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -2733,7 +2888,7 @@
         <f>A89+1</f>
         <v>45132</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -2741,7 +2896,7 @@
         <f>A90+1</f>
         <v>45133</v>
       </c>
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -2749,7 +2904,7 @@
         <f>A91+1</f>
         <v>45134</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -2757,7 +2912,7 @@
         <f>A92+1</f>
         <v>45135</v>
       </c>
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -2765,7 +2920,7 @@
         <f>A93+1</f>
         <v>45136</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -2773,7 +2928,7 @@
         <f>A94+1</f>
         <v>45137</v>
       </c>
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -2781,7 +2936,7 @@
         <f>A95+1</f>
         <v>45138</v>
       </c>
-      <c r="B96" s="20"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -2789,7 +2944,7 @@
         <f>A96+1</f>
         <v>45139</v>
       </c>
-      <c r="B97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -2797,7 +2952,7 @@
         <f>A97+1</f>
         <v>45140</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -2805,7 +2960,7 @@
         <f>A98+1</f>
         <v>45141</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -2813,7 +2968,7 @@
         <f>A99+1</f>
         <v>45142</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -2821,7 +2976,7 @@
         <f>A100+1</f>
         <v>45143</v>
       </c>
-      <c r="B101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -2829,7 +2984,7 @@
         <f>A101+1</f>
         <v>45144</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -2837,7 +2992,7 @@
         <f>A102+1</f>
         <v>45145</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -2845,7 +3000,7 @@
         <f>A103+1</f>
         <v>45146</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -2853,7 +3008,7 @@
         <f>A104+1</f>
         <v>45147</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -2861,7 +3016,7 @@
         <f>A105+1</f>
         <v>45148</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -2869,7 +3024,7 @@
         <f>A106+1</f>
         <v>45149</v>
       </c>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -2877,7 +3032,7 @@
         <f>A107+1</f>
         <v>45150</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -2885,7 +3040,7 @@
         <f>A108+1</f>
         <v>45151</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -2893,7 +3048,7 @@
         <f>A109+1</f>
         <v>45152</v>
       </c>
-      <c r="B110" s="20"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -2901,7 +3056,7 @@
         <f>A110+1</f>
         <v>45153</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -2909,7 +3064,7 @@
         <f>A111+1</f>
         <v>45154</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -2917,7 +3072,7 @@
         <f>A112+1</f>
         <v>45155</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -2925,7 +3080,7 @@
         <f>A113+1</f>
         <v>45156</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -2933,7 +3088,7 @@
         <f>A114+1</f>
         <v>45157</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -2941,7 +3096,7 @@
         <f>A115+1</f>
         <v>45158</v>
       </c>
-      <c r="B116" s="20"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -2949,7 +3104,7 @@
         <f>A116+1</f>
         <v>45159</v>
       </c>
-      <c r="B117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -2957,7 +3112,7 @@
         <f>A117+1</f>
         <v>45160</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -2965,7 +3120,7 @@
         <f>A118+1</f>
         <v>45161</v>
       </c>
-      <c r="B119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -2973,7 +3128,7 @@
         <f>A119+1</f>
         <v>45162</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -2981,7 +3136,7 @@
         <f>A120+1</f>
         <v>45163</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -2989,7 +3144,7 @@
         <f>A121+1</f>
         <v>45164</v>
       </c>
-      <c r="B122" s="20"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -2997,7 +3152,7 @@
         <f>A122+1</f>
         <v>45165</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -3005,7 +3160,7 @@
         <f>A123+1</f>
         <v>45166</v>
       </c>
-      <c r="B124" s="20"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -3013,7 +3168,7 @@
         <f>A124+1</f>
         <v>45167</v>
       </c>
-      <c r="B125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -3021,7 +3176,7 @@
         <f>A125+1</f>
         <v>45168</v>
       </c>
-      <c r="B126" s="20"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -3029,7 +3184,7 @@
         <f>A126+1</f>
         <v>45169</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -3037,7 +3192,7 @@
         <f>A127+1</f>
         <v>45170</v>
       </c>
-      <c r="B128" s="20"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -3045,7 +3200,7 @@
         <f>A128+1</f>
         <v>45171</v>
       </c>
-      <c r="B129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -3053,7 +3208,7 @@
         <f>A129+1</f>
         <v>45172</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -3061,7 +3216,7 @@
         <f>A130+1</f>
         <v>45173</v>
       </c>
-      <c r="B131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -3069,7 +3224,7 @@
         <f>A131+1</f>
         <v>45174</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -3077,7 +3232,7 @@
         <f>A132+1</f>
         <v>45175</v>
       </c>
-      <c r="B133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -3085,7 +3240,7 @@
         <f>A133+1</f>
         <v>45176</v>
       </c>
-      <c r="B134" s="20"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -3093,7 +3248,7 @@
         <f>A134+1</f>
         <v>45177</v>
       </c>
-      <c r="B135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -3101,7 +3256,7 @@
         <f>A135+1</f>
         <v>45178</v>
       </c>
-      <c r="B136" s="20"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -3109,7 +3264,7 @@
         <f>A136+1</f>
         <v>45179</v>
       </c>
-      <c r="B137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -3117,7 +3272,7 @@
         <f>A137+1</f>
         <v>45180</v>
       </c>
-      <c r="B138" s="20"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -3125,7 +3280,7 @@
         <f>A138+1</f>
         <v>45181</v>
       </c>
-      <c r="B139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -3133,7 +3288,7 @@
         <f>A139+1</f>
         <v>45182</v>
       </c>
-      <c r="B140" s="20"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -3141,7 +3296,7 @@
         <f>A140+1</f>
         <v>45183</v>
       </c>
-      <c r="B141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -3149,7 +3304,7 @@
         <f>A141+1</f>
         <v>45184</v>
       </c>
-      <c r="B142" s="20"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -3157,7 +3312,7 @@
         <f>A142+1</f>
         <v>45185</v>
       </c>
-      <c r="B143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -3165,7 +3320,7 @@
         <f>A143+1</f>
         <v>45186</v>
       </c>
-      <c r="B144" s="20"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -3173,7 +3328,7 @@
         <f>A144+1</f>
         <v>45187</v>
       </c>
-      <c r="B145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -3181,7 +3336,7 @@
         <f>A145+1</f>
         <v>45188</v>
       </c>
-      <c r="B146" s="20"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -3189,7 +3344,7 @@
         <f>A146+1</f>
         <v>45189</v>
       </c>
-      <c r="B147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -3197,7 +3352,7 @@
         <f>A147+1</f>
         <v>45190</v>
       </c>
-      <c r="B148" s="20"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -3205,7 +3360,7 @@
         <f>A148+1</f>
         <v>45191</v>
       </c>
-      <c r="B149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -3213,7 +3368,7 @@
         <f>A149+1</f>
         <v>45192</v>
       </c>
-      <c r="B150" s="20"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -3221,7 +3376,7 @@
         <f>A150+1</f>
         <v>45193</v>
       </c>
-      <c r="B151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -3229,7 +3384,7 @@
         <f>A151+1</f>
         <v>45194</v>
       </c>
-      <c r="B152" s="20"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -3237,7 +3392,7 @@
         <f>A152+1</f>
         <v>45195</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -3245,7 +3400,7 @@
         <f>A153+1</f>
         <v>45196</v>
       </c>
-      <c r="B154" s="20"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -3253,7 +3408,7 @@
         <f>A154+1</f>
         <v>45197</v>
       </c>
-      <c r="B155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -3261,7 +3416,7 @@
         <f>A155+1</f>
         <v>45198</v>
       </c>
-      <c r="B156" s="20"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -3269,7 +3424,7 @@
         <f>A156+1</f>
         <v>45199</v>
       </c>
-      <c r="B157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -3277,7 +3432,7 @@
         <f>A157+1</f>
         <v>45200</v>
       </c>
-      <c r="B158" s="20"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -3285,7 +3440,7 @@
         <f>A158+1</f>
         <v>45201</v>
       </c>
-      <c r="B159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -3293,7 +3448,7 @@
         <f>A159+1</f>
         <v>45202</v>
       </c>
-      <c r="B160" s="20"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -3301,7 +3456,7 @@
         <f>A160+1</f>
         <v>45203</v>
       </c>
-      <c r="B161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -3309,7 +3464,7 @@
         <f>A161+1</f>
         <v>45204</v>
       </c>
-      <c r="B162" s="20"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -3317,7 +3472,7 @@
         <f>A162+1</f>
         <v>45205</v>
       </c>
-      <c r="B163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -3325,7 +3480,7 @@
         <f>A163+1</f>
         <v>45206</v>
       </c>
-      <c r="B164" s="20"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -3333,7 +3488,7 @@
         <f>A164+1</f>
         <v>45207</v>
       </c>
-      <c r="B165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -3341,7 +3496,7 @@
         <f>A165+1</f>
         <v>45208</v>
       </c>
-      <c r="B166" s="20"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -3349,7 +3504,7 @@
         <f>A166+1</f>
         <v>45209</v>
       </c>
-      <c r="B167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -3357,7 +3512,7 @@
         <f>A167+1</f>
         <v>45210</v>
       </c>
-      <c r="B168" s="20"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -3365,7 +3520,7 @@
         <f>A168+1</f>
         <v>45211</v>
       </c>
-      <c r="B169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -3373,7 +3528,7 @@
         <f>A169+1</f>
         <v>45212</v>
       </c>
-      <c r="B170" s="20"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -3381,7 +3536,7 @@
         <f>A170+1</f>
         <v>45213</v>
       </c>
-      <c r="B171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -3389,7 +3544,7 @@
         <f>A171+1</f>
         <v>45214</v>
       </c>
-      <c r="B172" s="20"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -3397,7 +3552,7 @@
         <f>A172+1</f>
         <v>45215</v>
       </c>
-      <c r="B173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -3405,7 +3560,7 @@
         <f>A173+1</f>
         <v>45216</v>
       </c>
-      <c r="B174" s="20"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -3413,7 +3568,7 @@
         <f>A174+1</f>
         <v>45217</v>
       </c>
-      <c r="B175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -3421,7 +3576,7 @@
         <f>A175+1</f>
         <v>45218</v>
       </c>
-      <c r="B176" s="20"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -3429,7 +3584,7 @@
         <f>A176+1</f>
         <v>45219</v>
       </c>
-      <c r="B177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -3437,7 +3592,7 @@
         <f>A177+1</f>
         <v>45220</v>
       </c>
-      <c r="B178" s="20"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -3445,7 +3600,7 @@
         <f>A178+1</f>
         <v>45221</v>
       </c>
-      <c r="B179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -3453,7 +3608,7 @@
         <f>A179+1</f>
         <v>45222</v>
       </c>
-      <c r="B180" s="20"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -3461,7 +3616,7 @@
         <f>A180+1</f>
         <v>45223</v>
       </c>
-      <c r="B181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -3469,7 +3624,7 @@
         <f>A181+1</f>
         <v>45224</v>
       </c>
-      <c r="B182" s="20"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -3477,7 +3632,7 @@
         <f>A182+1</f>
         <v>45225</v>
       </c>
-      <c r="B183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -3485,7 +3640,7 @@
         <f>A183+1</f>
         <v>45226</v>
       </c>
-      <c r="B184" s="20"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -3493,7 +3648,7 @@
         <f>A184+1</f>
         <v>45227</v>
       </c>
-      <c r="B185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -3501,7 +3656,7 @@
         <f>A185+1</f>
         <v>45228</v>
       </c>
-      <c r="B186" s="20"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -3509,7 +3664,7 @@
         <f>A186+1</f>
         <v>45229</v>
       </c>
-      <c r="B187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -3517,7 +3672,7 @@
         <f>A187+1</f>
         <v>45230</v>
       </c>
-      <c r="B188" s="20"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -3525,7 +3680,7 @@
         <f>A188+1</f>
         <v>45231</v>
       </c>
-      <c r="B189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -3533,7 +3688,7 @@
         <f>A189+1</f>
         <v>45232</v>
       </c>
-      <c r="B190" s="20"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -3541,7 +3696,7 @@
         <f>A190+1</f>
         <v>45233</v>
       </c>
-      <c r="B191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -3549,7 +3704,7 @@
         <f>A191+1</f>
         <v>45234</v>
       </c>
-      <c r="B192" s="20"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -3557,7 +3712,7 @@
         <f>A192+1</f>
         <v>45235</v>
       </c>
-      <c r="B193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -3565,7 +3720,7 @@
         <f>A193+1</f>
         <v>45236</v>
       </c>
-      <c r="B194" s="20"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -3573,7 +3728,7 @@
         <f>A194+1</f>
         <v>45237</v>
       </c>
-      <c r="B195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -3581,7 +3736,7 @@
         <f>A195+1</f>
         <v>45238</v>
       </c>
-      <c r="B196" s="20"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -3589,7 +3744,7 @@
         <f>A196+1</f>
         <v>45239</v>
       </c>
-      <c r="B197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -3597,7 +3752,7 @@
         <f>A197+1</f>
         <v>45240</v>
       </c>
-      <c r="B198" s="20"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -3605,7 +3760,7 @@
         <f>A198+1</f>
         <v>45241</v>
       </c>
-      <c r="B199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -3613,7 +3768,7 @@
         <f>A199+1</f>
         <v>45242</v>
       </c>
-      <c r="B200" s="20"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -3621,7 +3776,7 @@
         <f>A200+1</f>
         <v>45243</v>
       </c>
-      <c r="B201" s="19"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -3629,7 +3784,7 @@
         <f>A201+1</f>
         <v>45244</v>
       </c>
-      <c r="B202" s="20"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -3637,7 +3792,7 @@
         <f>A202+1</f>
         <v>45245</v>
       </c>
-      <c r="B203" s="19"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -3645,7 +3800,7 @@
         <f>A203+1</f>
         <v>45246</v>
       </c>
-      <c r="B204" s="20"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -3653,7 +3808,7 @@
         <f>A204+1</f>
         <v>45247</v>
       </c>
-      <c r="B205" s="19"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -3661,7 +3816,7 @@
         <f>A205+1</f>
         <v>45248</v>
       </c>
-      <c r="B206" s="20"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -3669,7 +3824,7 @@
         <f>A206+1</f>
         <v>45249</v>
       </c>
-      <c r="B207" s="19"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -3677,7 +3832,7 @@
         <f>A207+1</f>
         <v>45250</v>
       </c>
-      <c r="B208" s="20"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -3685,7 +3840,7 @@
         <f>A208+1</f>
         <v>45251</v>
       </c>
-      <c r="B209" s="19"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -3693,7 +3848,7 @@
         <f>A209+1</f>
         <v>45252</v>
       </c>
-      <c r="B210" s="20"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -3701,7 +3856,7 @@
         <f>A210+1</f>
         <v>45253</v>
       </c>
-      <c r="B211" s="19"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -3709,7 +3864,7 @@
         <f>A211+1</f>
         <v>45254</v>
       </c>
-      <c r="B212" s="20"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -3717,7 +3872,7 @@
         <f>A212+1</f>
         <v>45255</v>
       </c>
-      <c r="B213" s="19"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -3725,7 +3880,7 @@
         <f>A213+1</f>
         <v>45256</v>
       </c>
-      <c r="B214" s="20"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -3733,7 +3888,7 @@
         <f>A214+1</f>
         <v>45257</v>
       </c>
-      <c r="B215" s="19"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -3741,7 +3896,7 @@
         <f>A215+1</f>
         <v>45258</v>
       </c>
-      <c r="B216" s="20"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -3749,7 +3904,7 @@
         <f>A216+1</f>
         <v>45259</v>
       </c>
-      <c r="B217" s="19"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -3757,7 +3912,7 @@
         <f>A217+1</f>
         <v>45260</v>
       </c>
-      <c r="B218" s="20"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -3765,7 +3920,7 @@
         <f>A218+1</f>
         <v>45261</v>
       </c>
-      <c r="B219" s="19"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -3773,7 +3928,7 @@
         <f>A219+1</f>
         <v>45262</v>
       </c>
-      <c r="B220" s="20"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -3781,7 +3936,7 @@
         <f>A220+1</f>
         <v>45263</v>
       </c>
-      <c r="B221" s="19"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -3789,7 +3944,7 @@
         <f>A221+1</f>
         <v>45264</v>
       </c>
-      <c r="B222" s="20"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -3797,7 +3952,7 @@
         <f>A222+1</f>
         <v>45265</v>
       </c>
-      <c r="B223" s="19"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -3805,7 +3960,7 @@
         <f>A223+1</f>
         <v>45266</v>
       </c>
-      <c r="B224" s="20"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -3813,7 +3968,7 @@
         <f>A224+1</f>
         <v>45267</v>
       </c>
-      <c r="B225" s="19"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -3821,7 +3976,7 @@
         <f>A225+1</f>
         <v>45268</v>
       </c>
-      <c r="B226" s="20"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -3829,7 +3984,7 @@
         <f>A226+1</f>
         <v>45269</v>
       </c>
-      <c r="B227" s="19"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -3837,7 +3992,7 @@
         <f>A227+1</f>
         <v>45270</v>
       </c>
-      <c r="B228" s="20"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -3845,7 +4000,7 @@
         <f>A228+1</f>
         <v>45271</v>
       </c>
-      <c r="B229" s="19"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -3853,7 +4008,7 @@
         <f>A229+1</f>
         <v>45272</v>
       </c>
-      <c r="B230" s="20"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -3861,7 +4016,7 @@
         <f>A230+1</f>
         <v>45273</v>
       </c>
-      <c r="B231" s="19"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -3869,7 +4024,7 @@
         <f>A231+1</f>
         <v>45274</v>
       </c>
-      <c r="B232" s="20"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -3877,7 +4032,7 @@
         <f>A232+1</f>
         <v>45275</v>
       </c>
-      <c r="B233" s="19"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -3885,7 +4040,7 @@
         <f>A233+1</f>
         <v>45276</v>
       </c>
-      <c r="B234" s="20"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -3893,7 +4048,7 @@
         <f>A234+1</f>
         <v>45277</v>
       </c>
-      <c r="B235" s="19"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -3901,7 +4056,7 @@
         <f>A235+1</f>
         <v>45278</v>
       </c>
-      <c r="B236" s="20"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -3909,7 +4064,7 @@
         <f>A236+1</f>
         <v>45279</v>
       </c>
-      <c r="B237" s="19"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -3917,7 +4072,7 @@
         <f>A237+1</f>
         <v>45280</v>
       </c>
-      <c r="B238" s="20"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -3925,7 +4080,7 @@
         <f>A238+1</f>
         <v>45281</v>
       </c>
-      <c r="B239" s="19"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -3933,7 +4088,7 @@
         <f>A239+1</f>
         <v>45282</v>
       </c>
-      <c r="B240" s="20"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -3941,7 +4096,7 @@
         <f>A240+1</f>
         <v>45283</v>
       </c>
-      <c r="B241" s="19"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -3949,7 +4104,7 @@
         <f>A241+1</f>
         <v>45284</v>
       </c>
-      <c r="B242" s="20"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -3957,7 +4112,7 @@
         <f>A242+1</f>
         <v>45285</v>
       </c>
-      <c r="B243" s="19"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -3965,7 +4120,7 @@
         <f>A243+1</f>
         <v>45286</v>
       </c>
-      <c r="B244" s="20"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -3973,7 +4128,7 @@
         <f>A244+1</f>
         <v>45287</v>
       </c>
-      <c r="B245" s="19"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -3981,7 +4136,7 @@
         <f>A245+1</f>
         <v>45288</v>
       </c>
-      <c r="B246" s="20"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -3989,7 +4144,7 @@
         <f>A246+1</f>
         <v>45289</v>
       </c>
-      <c r="B247" s="19"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -3997,7 +4152,7 @@
         <f>A247+1</f>
         <v>45290</v>
       </c>
-      <c r="B248" s="20"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -4005,7 +4160,7 @@
         <f>A248+1</f>
         <v>45291</v>
       </c>
-      <c r="B249" s="19"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="3"/>
     </row>
   </sheetData>
@@ -4075,7 +4230,7 @@
         <f>A3+1</f>
         <v>45293</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -4083,7 +4238,7 @@
         <f>A4+1</f>
         <v>45294</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -4091,7 +4246,7 @@
         <f>A5+1</f>
         <v>45295</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -4099,7 +4254,7 @@
         <f>A6+1</f>
         <v>45296</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -4107,7 +4262,7 @@
         <f>A7+1</f>
         <v>45297</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -4115,7 +4270,7 @@
         <f>A8+1</f>
         <v>45298</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -4123,7 +4278,7 @@
         <f>A9+1</f>
         <v>45299</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -4131,7 +4286,7 @@
         <f>A10+1</f>
         <v>45300</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -4139,7 +4294,7 @@
         <f>A11+1</f>
         <v>45301</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -4147,7 +4302,7 @@
         <f>A12+1</f>
         <v>45302</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -4155,7 +4310,7 @@
         <f>A13+1</f>
         <v>45303</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -4163,7 +4318,7 @@
         <f>A14+1</f>
         <v>45304</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -4171,7 +4326,7 @@
         <f>A15+1</f>
         <v>45305</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -4179,7 +4334,7 @@
         <f>A16+1</f>
         <v>45306</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -4187,7 +4342,7 @@
         <f>A17+1</f>
         <v>45307</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -4195,7 +4350,7 @@
         <f>A18+1</f>
         <v>45308</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -4203,7 +4358,7 @@
         <f>A19+1</f>
         <v>45309</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -4211,7 +4366,7 @@
         <f>A20+1</f>
         <v>45310</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -4219,7 +4374,7 @@
         <f>A21+1</f>
         <v>45311</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -4227,7 +4382,7 @@
         <f>A22+1</f>
         <v>45312</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -4235,7 +4390,7 @@
         <f>A23+1</f>
         <v>45313</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -4243,7 +4398,7 @@
         <f>A24+1</f>
         <v>45314</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -4251,7 +4406,7 @@
         <f>A25+1</f>
         <v>45315</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -4259,7 +4414,7 @@
         <f>A26+1</f>
         <v>45316</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -4267,7 +4422,7 @@
         <f>A27+1</f>
         <v>45317</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -4275,7 +4430,7 @@
         <f>A28+1</f>
         <v>45318</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -4283,7 +4438,7 @@
         <f>A29+1</f>
         <v>45319</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -4291,7 +4446,7 @@
         <f>A30+1</f>
         <v>45320</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -4299,7 +4454,7 @@
         <f>A31+1</f>
         <v>45321</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -4307,7 +4462,7 @@
         <f>A32+1</f>
         <v>45322</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -4315,7 +4470,7 @@
         <f>A33+1</f>
         <v>45323</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="4"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -4323,7 +4478,7 @@
         <f>A34+1</f>
         <v>45324</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -4331,7 +4486,7 @@
         <f>A35+1</f>
         <v>45325</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="4"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -4339,7 +4494,7 @@
         <f>A36+1</f>
         <v>45326</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -4347,7 +4502,7 @@
         <f>A37+1</f>
         <v>45327</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="4"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -4355,7 +4510,7 @@
         <f>A38+1</f>
         <v>45328</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -4363,7 +4518,7 @@
         <f>A39+1</f>
         <v>45329</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -4371,7 +4526,7 @@
         <f>A40+1</f>
         <v>45330</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -4379,7 +4534,7 @@
         <f>A41+1</f>
         <v>45331</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="4"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -4387,7 +4542,7 @@
         <f>A42+1</f>
         <v>45332</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -4395,7 +4550,7 @@
         <f>A43+1</f>
         <v>45333</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -4403,7 +4558,7 @@
         <f>A44+1</f>
         <v>45334</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -4411,7 +4566,7 @@
         <f>A45+1</f>
         <v>45335</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="4"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -4419,7 +4574,7 @@
         <f>A46+1</f>
         <v>45336</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -4427,7 +4582,7 @@
         <f>A47+1</f>
         <v>45337</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -4435,7 +4590,7 @@
         <f>A48+1</f>
         <v>45338</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -4443,7 +4598,7 @@
         <f>A49+1</f>
         <v>45339</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="4"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -4451,7 +4606,7 @@
         <f>A50+1</f>
         <v>45340</v>
       </c>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -4459,7 +4614,7 @@
         <f>A51+1</f>
         <v>45341</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -4467,7 +4622,7 @@
         <f>A52+1</f>
         <v>45342</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -4475,7 +4630,7 @@
         <f>A53+1</f>
         <v>45343</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -4483,7 +4638,7 @@
         <f>A54+1</f>
         <v>45344</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
@@ -4491,7 +4646,7 @@
         <f>A55+1</f>
         <v>45345</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -4499,7 +4654,7 @@
         <f>A56+1</f>
         <v>45346</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -4507,7 +4662,7 @@
         <f>A57+1</f>
         <v>45347</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
@@ -4515,7 +4670,7 @@
         <f>A58+1</f>
         <v>45348</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -4523,7 +4678,7 @@
         <f>A59+1</f>
         <v>45349</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
@@ -4531,7 +4686,7 @@
         <f>A60+1</f>
         <v>45350</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -4539,7 +4694,7 @@
         <f>A61+1</f>
         <v>45351</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -4547,7 +4702,7 @@
         <f>A62+1</f>
         <v>45352</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -4555,7 +4710,7 @@
         <f>A63+1</f>
         <v>45353</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -4563,7 +4718,7 @@
         <f>A64+1</f>
         <v>45354</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -4571,7 +4726,7 @@
         <f>A65+1</f>
         <v>45355</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -4579,7 +4734,7 @@
         <f>A66+1</f>
         <v>45356</v>
       </c>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -4587,7 +4742,7 @@
         <f>A67+1</f>
         <v>45357</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -4595,7 +4750,7 @@
         <f>A68+1</f>
         <v>45358</v>
       </c>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -4603,7 +4758,7 @@
         <f>A69+1</f>
         <v>45359</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -4611,7 +4766,7 @@
         <f>A70+1</f>
         <v>45360</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -4619,7 +4774,7 @@
         <f>A71+1</f>
         <v>45361</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -4627,7 +4782,7 @@
         <f>A72+1</f>
         <v>45362</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -4635,7 +4790,7 @@
         <f>A73+1</f>
         <v>45363</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -4643,7 +4798,7 @@
         <f>A74+1</f>
         <v>45364</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -4651,7 +4806,7 @@
         <f>A75+1</f>
         <v>45365</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -4659,7 +4814,7 @@
         <f>A76+1</f>
         <v>45366</v>
       </c>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -4667,7 +4822,7 @@
         <f>A77+1</f>
         <v>45367</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -4675,7 +4830,7 @@
         <f>A78+1</f>
         <v>45368</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -4683,7 +4838,7 @@
         <f>A79+1</f>
         <v>45369</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -4691,7 +4846,7 @@
         <f>A80+1</f>
         <v>45370</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -4699,7 +4854,7 @@
         <f>A81+1</f>
         <v>45371</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -4707,7 +4862,7 @@
         <f>A82+1</f>
         <v>45372</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -4715,7 +4870,7 @@
         <f>A83+1</f>
         <v>45373</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -4723,7 +4878,7 @@
         <f>A84+1</f>
         <v>45374</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -4731,7 +4886,7 @@
         <f>A85+1</f>
         <v>45375</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -4739,7 +4894,7 @@
         <f>A86+1</f>
         <v>45376</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -4747,7 +4902,7 @@
         <f>A87+1</f>
         <v>45377</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -4755,7 +4910,7 @@
         <f>A88+1</f>
         <v>45378</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -4763,7 +4918,7 @@
         <f>A89+1</f>
         <v>45379</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -4771,7 +4926,7 @@
         <f>A90+1</f>
         <v>45380</v>
       </c>
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -4779,7 +4934,7 @@
         <f>A91+1</f>
         <v>45381</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -4787,7 +4942,7 @@
         <f>A92+1</f>
         <v>45382</v>
       </c>
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -4795,7 +4950,7 @@
         <f>A93+1</f>
         <v>45383</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -4803,7 +4958,7 @@
         <f>A94+1</f>
         <v>45384</v>
       </c>
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -4811,7 +4966,7 @@
         <f>A95+1</f>
         <v>45385</v>
       </c>
-      <c r="B96" s="20"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -4819,7 +4974,7 @@
         <f>A96+1</f>
         <v>45386</v>
       </c>
-      <c r="B97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -4827,7 +4982,7 @@
         <f>A97+1</f>
         <v>45387</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -4835,7 +4990,7 @@
         <f>A98+1</f>
         <v>45388</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -4843,7 +4998,7 @@
         <f>A99+1</f>
         <v>45389</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -4851,7 +5006,7 @@
         <f>A100+1</f>
         <v>45390</v>
       </c>
-      <c r="B101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -4859,7 +5014,7 @@
         <f>A101+1</f>
         <v>45391</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -4867,7 +5022,7 @@
         <f>A102+1</f>
         <v>45392</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -4875,7 +5030,7 @@
         <f>A103+1</f>
         <v>45393</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -4883,7 +5038,7 @@
         <f>A104+1</f>
         <v>45394</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -4891,7 +5046,7 @@
         <f>A105+1</f>
         <v>45395</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -4899,7 +5054,7 @@
         <f>A106+1</f>
         <v>45396</v>
       </c>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -4907,7 +5062,7 @@
         <f>A107+1</f>
         <v>45397</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -4915,7 +5070,7 @@
         <f>A108+1</f>
         <v>45398</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -4923,7 +5078,7 @@
         <f>A109+1</f>
         <v>45399</v>
       </c>
-      <c r="B110" s="20"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -4931,7 +5086,7 @@
         <f>A110+1</f>
         <v>45400</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -4939,7 +5094,7 @@
         <f>A111+1</f>
         <v>45401</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -4947,7 +5102,7 @@
         <f>A112+1</f>
         <v>45402</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -4955,7 +5110,7 @@
         <f>A113+1</f>
         <v>45403</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -4963,7 +5118,7 @@
         <f>A114+1</f>
         <v>45404</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -4971,7 +5126,7 @@
         <f>A115+1</f>
         <v>45405</v>
       </c>
-      <c r="B116" s="20"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -4979,7 +5134,7 @@
         <f>A116+1</f>
         <v>45406</v>
       </c>
-      <c r="B117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -4987,7 +5142,7 @@
         <f>A117+1</f>
         <v>45407</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -4995,7 +5150,7 @@
         <f>A118+1</f>
         <v>45408</v>
       </c>
-      <c r="B119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -5003,7 +5158,7 @@
         <f>A119+1</f>
         <v>45409</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -5011,7 +5166,7 @@
         <f>A120+1</f>
         <v>45410</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -5019,7 +5174,7 @@
         <f>A121+1</f>
         <v>45411</v>
       </c>
-      <c r="B122" s="20"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -5027,7 +5182,7 @@
         <f>A122+1</f>
         <v>45412</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -5035,7 +5190,7 @@
         <f>A123+1</f>
         <v>45413</v>
       </c>
-      <c r="B124" s="20"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -5043,7 +5198,7 @@
         <f>A124+1</f>
         <v>45414</v>
       </c>
-      <c r="B125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -5051,7 +5206,7 @@
         <f>A125+1</f>
         <v>45415</v>
       </c>
-      <c r="B126" s="20"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -5059,7 +5214,7 @@
         <f>A126+1</f>
         <v>45416</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -5067,7 +5222,7 @@
         <f>A127+1</f>
         <v>45417</v>
       </c>
-      <c r="B128" s="20"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -5075,7 +5230,7 @@
         <f>A128+1</f>
         <v>45418</v>
       </c>
-      <c r="B129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -5083,7 +5238,7 @@
         <f>A129+1</f>
         <v>45419</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -5091,7 +5246,7 @@
         <f>A130+1</f>
         <v>45420</v>
       </c>
-      <c r="B131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -5099,7 +5254,7 @@
         <f>A131+1</f>
         <v>45421</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -5107,7 +5262,7 @@
         <f>A132+1</f>
         <v>45422</v>
       </c>
-      <c r="B133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -5115,7 +5270,7 @@
         <f>A133+1</f>
         <v>45423</v>
       </c>
-      <c r="B134" s="20"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -5123,7 +5278,7 @@
         <f>A134+1</f>
         <v>45424</v>
       </c>
-      <c r="B135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -5131,7 +5286,7 @@
         <f>A135+1</f>
         <v>45425</v>
       </c>
-      <c r="B136" s="20"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -5139,7 +5294,7 @@
         <f>A136+1</f>
         <v>45426</v>
       </c>
-      <c r="B137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -5147,7 +5302,7 @@
         <f>A137+1</f>
         <v>45427</v>
       </c>
-      <c r="B138" s="20"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -5155,7 +5310,7 @@
         <f>A138+1</f>
         <v>45428</v>
       </c>
-      <c r="B139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -5163,7 +5318,7 @@
         <f>A139+1</f>
         <v>45429</v>
       </c>
-      <c r="B140" s="20"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -5171,7 +5326,7 @@
         <f>A140+1</f>
         <v>45430</v>
       </c>
-      <c r="B141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -5179,7 +5334,7 @@
         <f>A141+1</f>
         <v>45431</v>
       </c>
-      <c r="B142" s="20"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -5187,7 +5342,7 @@
         <f>A142+1</f>
         <v>45432</v>
       </c>
-      <c r="B143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -5195,7 +5350,7 @@
         <f>A143+1</f>
         <v>45433</v>
       </c>
-      <c r="B144" s="20"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -5203,7 +5358,7 @@
         <f>A144+1</f>
         <v>45434</v>
       </c>
-      <c r="B145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -5211,7 +5366,7 @@
         <f>A145+1</f>
         <v>45435</v>
       </c>
-      <c r="B146" s="20"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -5219,7 +5374,7 @@
         <f>A146+1</f>
         <v>45436</v>
       </c>
-      <c r="B147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -5227,7 +5382,7 @@
         <f>A147+1</f>
         <v>45437</v>
       </c>
-      <c r="B148" s="20"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -5235,7 +5390,7 @@
         <f>A148+1</f>
         <v>45438</v>
       </c>
-      <c r="B149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -5243,7 +5398,7 @@
         <f>A149+1</f>
         <v>45439</v>
       </c>
-      <c r="B150" s="20"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -5251,7 +5406,7 @@
         <f>A150+1</f>
         <v>45440</v>
       </c>
-      <c r="B151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -5259,7 +5414,7 @@
         <f>A151+1</f>
         <v>45441</v>
       </c>
-      <c r="B152" s="20"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -5267,7 +5422,7 @@
         <f>A152+1</f>
         <v>45442</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -5275,7 +5430,7 @@
         <f>A153+1</f>
         <v>45443</v>
       </c>
-      <c r="B154" s="20"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -5283,7 +5438,7 @@
         <f>A154+1</f>
         <v>45444</v>
       </c>
-      <c r="B155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -5291,7 +5446,7 @@
         <f>A155+1</f>
         <v>45445</v>
       </c>
-      <c r="B156" s="20"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -5299,7 +5454,7 @@
         <f>A156+1</f>
         <v>45446</v>
       </c>
-      <c r="B157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -5307,7 +5462,7 @@
         <f>A157+1</f>
         <v>45447</v>
       </c>
-      <c r="B158" s="20"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -5315,7 +5470,7 @@
         <f>A158+1</f>
         <v>45448</v>
       </c>
-      <c r="B159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -5323,7 +5478,7 @@
         <f>A159+1</f>
         <v>45449</v>
       </c>
-      <c r="B160" s="20"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -5331,7 +5486,7 @@
         <f>A160+1</f>
         <v>45450</v>
       </c>
-      <c r="B161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -5339,7 +5494,7 @@
         <f>A161+1</f>
         <v>45451</v>
       </c>
-      <c r="B162" s="20"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -5347,7 +5502,7 @@
         <f>A162+1</f>
         <v>45452</v>
       </c>
-      <c r="B163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -5355,7 +5510,7 @@
         <f>A163+1</f>
         <v>45453</v>
       </c>
-      <c r="B164" s="20"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -5363,7 +5518,7 @@
         <f>A164+1</f>
         <v>45454</v>
       </c>
-      <c r="B165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -5371,7 +5526,7 @@
         <f>A165+1</f>
         <v>45455</v>
       </c>
-      <c r="B166" s="20"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -5379,7 +5534,7 @@
         <f>A166+1</f>
         <v>45456</v>
       </c>
-      <c r="B167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -5387,7 +5542,7 @@
         <f>A167+1</f>
         <v>45457</v>
       </c>
-      <c r="B168" s="20"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -5395,7 +5550,7 @@
         <f>A168+1</f>
         <v>45458</v>
       </c>
-      <c r="B169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -5403,7 +5558,7 @@
         <f>A169+1</f>
         <v>45459</v>
       </c>
-      <c r="B170" s="20"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -5411,7 +5566,7 @@
         <f>A170+1</f>
         <v>45460</v>
       </c>
-      <c r="B171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -5419,7 +5574,7 @@
         <f>A171+1</f>
         <v>45461</v>
       </c>
-      <c r="B172" s="20"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -5427,7 +5582,7 @@
         <f>A172+1</f>
         <v>45462</v>
       </c>
-      <c r="B173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -5435,7 +5590,7 @@
         <f>A173+1</f>
         <v>45463</v>
       </c>
-      <c r="B174" s="20"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -5443,7 +5598,7 @@
         <f>A174+1</f>
         <v>45464</v>
       </c>
-      <c r="B175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -5451,7 +5606,7 @@
         <f>A175+1</f>
         <v>45465</v>
       </c>
-      <c r="B176" s="20"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -5459,7 +5614,7 @@
         <f>A176+1</f>
         <v>45466</v>
       </c>
-      <c r="B177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -5467,7 +5622,7 @@
         <f>A177+1</f>
         <v>45467</v>
       </c>
-      <c r="B178" s="20"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -5475,7 +5630,7 @@
         <f>A178+1</f>
         <v>45468</v>
       </c>
-      <c r="B179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -5483,7 +5638,7 @@
         <f>A179+1</f>
         <v>45469</v>
       </c>
-      <c r="B180" s="20"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -5491,7 +5646,7 @@
         <f>A180+1</f>
         <v>45470</v>
       </c>
-      <c r="B181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -5499,7 +5654,7 @@
         <f>A181+1</f>
         <v>45471</v>
       </c>
-      <c r="B182" s="20"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -5507,7 +5662,7 @@
         <f>A182+1</f>
         <v>45472</v>
       </c>
-      <c r="B183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -5515,7 +5670,7 @@
         <f>A183+1</f>
         <v>45473</v>
       </c>
-      <c r="B184" s="20"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -5523,7 +5678,7 @@
         <f>A184+1</f>
         <v>45474</v>
       </c>
-      <c r="B185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -5531,7 +5686,7 @@
         <f>A185+1</f>
         <v>45475</v>
       </c>
-      <c r="B186" s="20"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -5539,7 +5694,7 @@
         <f>A186+1</f>
         <v>45476</v>
       </c>
-      <c r="B187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -5547,7 +5702,7 @@
         <f>A187+1</f>
         <v>45477</v>
       </c>
-      <c r="B188" s="20"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -5555,7 +5710,7 @@
         <f>A188+1</f>
         <v>45478</v>
       </c>
-      <c r="B189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -5563,7 +5718,7 @@
         <f>A189+1</f>
         <v>45479</v>
       </c>
-      <c r="B190" s="20"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -5571,7 +5726,7 @@
         <f>A190+1</f>
         <v>45480</v>
       </c>
-      <c r="B191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -5579,7 +5734,7 @@
         <f>A191+1</f>
         <v>45481</v>
       </c>
-      <c r="B192" s="20"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -5587,7 +5742,7 @@
         <f>A192+1</f>
         <v>45482</v>
       </c>
-      <c r="B193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -5595,7 +5750,7 @@
         <f>A193+1</f>
         <v>45483</v>
       </c>
-      <c r="B194" s="20"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -5603,7 +5758,7 @@
         <f>A194+1</f>
         <v>45484</v>
       </c>
-      <c r="B195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -5611,7 +5766,7 @@
         <f>A195+1</f>
         <v>45485</v>
       </c>
-      <c r="B196" s="20"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -5619,7 +5774,7 @@
         <f>A196+1</f>
         <v>45486</v>
       </c>
-      <c r="B197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -5627,7 +5782,7 @@
         <f>A197+1</f>
         <v>45487</v>
       </c>
-      <c r="B198" s="20"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -5635,7 +5790,7 @@
         <f>A198+1</f>
         <v>45488</v>
       </c>
-      <c r="B199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -5643,7 +5798,7 @@
         <f>A199+1</f>
         <v>45489</v>
       </c>
-      <c r="B200" s="20"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -5651,7 +5806,7 @@
         <f>A200+1</f>
         <v>45490</v>
       </c>
-      <c r="B201" s="19"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -5659,7 +5814,7 @@
         <f>A201+1</f>
         <v>45491</v>
       </c>
-      <c r="B202" s="20"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -5667,7 +5822,7 @@
         <f>A202+1</f>
         <v>45492</v>
       </c>
-      <c r="B203" s="19"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -5675,7 +5830,7 @@
         <f>A203+1</f>
         <v>45493</v>
       </c>
-      <c r="B204" s="20"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -5683,7 +5838,7 @@
         <f>A204+1</f>
         <v>45494</v>
       </c>
-      <c r="B205" s="19"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -5691,7 +5846,7 @@
         <f>A205+1</f>
         <v>45495</v>
       </c>
-      <c r="B206" s="20"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -5699,7 +5854,7 @@
         <f>A206+1</f>
         <v>45496</v>
       </c>
-      <c r="B207" s="19"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -5707,7 +5862,7 @@
         <f>A207+1</f>
         <v>45497</v>
       </c>
-      <c r="B208" s="20"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -5715,7 +5870,7 @@
         <f>A208+1</f>
         <v>45498</v>
       </c>
-      <c r="B209" s="19"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -5723,7 +5878,7 @@
         <f>A209+1</f>
         <v>45499</v>
       </c>
-      <c r="B210" s="20"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -5731,7 +5886,7 @@
         <f>A210+1</f>
         <v>45500</v>
       </c>
-      <c r="B211" s="19"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -5739,7 +5894,7 @@
         <f>A211+1</f>
         <v>45501</v>
       </c>
-      <c r="B212" s="20"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -5747,7 +5902,7 @@
         <f>A212+1</f>
         <v>45502</v>
       </c>
-      <c r="B213" s="19"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -5755,7 +5910,7 @@
         <f>A213+1</f>
         <v>45503</v>
       </c>
-      <c r="B214" s="20"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -5763,7 +5918,7 @@
         <f>A214+1</f>
         <v>45504</v>
       </c>
-      <c r="B215" s="19"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -5771,7 +5926,7 @@
         <f>A215+1</f>
         <v>45505</v>
       </c>
-      <c r="B216" s="20"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -5779,7 +5934,7 @@
         <f>A216+1</f>
         <v>45506</v>
       </c>
-      <c r="B217" s="19"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -5787,7 +5942,7 @@
         <f>A217+1</f>
         <v>45507</v>
       </c>
-      <c r="B218" s="20"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -5795,7 +5950,7 @@
         <f>A218+1</f>
         <v>45508</v>
       </c>
-      <c r="B219" s="19"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -5803,7 +5958,7 @@
         <f>A219+1</f>
         <v>45509</v>
       </c>
-      <c r="B220" s="20"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -5811,7 +5966,7 @@
         <f>A220+1</f>
         <v>45510</v>
       </c>
-      <c r="B221" s="19"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -5819,7 +5974,7 @@
         <f>A221+1</f>
         <v>45511</v>
       </c>
-      <c r="B222" s="20"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -5827,7 +5982,7 @@
         <f>A222+1</f>
         <v>45512</v>
       </c>
-      <c r="B223" s="19"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -5835,7 +5990,7 @@
         <f>A223+1</f>
         <v>45513</v>
       </c>
-      <c r="B224" s="20"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -5843,7 +5998,7 @@
         <f>A224+1</f>
         <v>45514</v>
       </c>
-      <c r="B225" s="19"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -5851,7 +6006,7 @@
         <f>A225+1</f>
         <v>45515</v>
       </c>
-      <c r="B226" s="20"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -5859,7 +6014,7 @@
         <f>A226+1</f>
         <v>45516</v>
       </c>
-      <c r="B227" s="19"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -5867,7 +6022,7 @@
         <f>A227+1</f>
         <v>45517</v>
       </c>
-      <c r="B228" s="20"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -5875,7 +6030,7 @@
         <f>A228+1</f>
         <v>45518</v>
       </c>
-      <c r="B229" s="19"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -5883,7 +6038,7 @@
         <f>A229+1</f>
         <v>45519</v>
       </c>
-      <c r="B230" s="20"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -5891,7 +6046,7 @@
         <f>A230+1</f>
         <v>45520</v>
       </c>
-      <c r="B231" s="19"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -5899,7 +6054,7 @@
         <f>A231+1</f>
         <v>45521</v>
       </c>
-      <c r="B232" s="20"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -5907,7 +6062,7 @@
         <f>A232+1</f>
         <v>45522</v>
       </c>
-      <c r="B233" s="19"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -5915,7 +6070,7 @@
         <f>A233+1</f>
         <v>45523</v>
       </c>
-      <c r="B234" s="20"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -5923,7 +6078,7 @@
         <f>A234+1</f>
         <v>45524</v>
       </c>
-      <c r="B235" s="19"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -5931,7 +6086,7 @@
         <f>A235+1</f>
         <v>45525</v>
       </c>
-      <c r="B236" s="20"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -5939,7 +6094,7 @@
         <f>A236+1</f>
         <v>45526</v>
       </c>
-      <c r="B237" s="19"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -5947,7 +6102,7 @@
         <f>A237+1</f>
         <v>45527</v>
       </c>
-      <c r="B238" s="20"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -5955,7 +6110,7 @@
         <f>A238+1</f>
         <v>45528</v>
       </c>
-      <c r="B239" s="19"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -5963,7 +6118,7 @@
         <f>A239+1</f>
         <v>45529</v>
       </c>
-      <c r="B240" s="20"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -5971,7 +6126,7 @@
         <f>A240+1</f>
         <v>45530</v>
       </c>
-      <c r="B241" s="19"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -5979,7 +6134,7 @@
         <f>A241+1</f>
         <v>45531</v>
       </c>
-      <c r="B242" s="20"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -5987,7 +6142,7 @@
         <f>A242+1</f>
         <v>45532</v>
       </c>
-      <c r="B243" s="19"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -5995,7 +6150,7 @@
         <f>A243+1</f>
         <v>45533</v>
       </c>
-      <c r="B244" s="20"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -6003,7 +6158,7 @@
         <f>A244+1</f>
         <v>45534</v>
       </c>
-      <c r="B245" s="19"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -6011,7 +6166,7 @@
         <f>A245+1</f>
         <v>45535</v>
       </c>
-      <c r="B246" s="20"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -6019,7 +6174,7 @@
         <f>A246+1</f>
         <v>45536</v>
       </c>
-      <c r="B247" s="19"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -6027,7 +6182,7 @@
         <f>A247+1</f>
         <v>45537</v>
       </c>
-      <c r="B248" s="20"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -6035,7 +6190,7 @@
         <f>A248+1</f>
         <v>45538</v>
       </c>
-      <c r="B249" s="19"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="3"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
@@ -6043,7 +6198,7 @@
         <f>A249+1</f>
         <v>45539</v>
       </c>
-      <c r="B250" s="20"/>
+      <c r="B250" s="19"/>
       <c r="C250" s="4"/>
     </row>
     <row r="251" ht="20.05" customHeight="1">
@@ -6051,7 +6206,7 @@
         <f>A250+1</f>
         <v>45540</v>
       </c>
-      <c r="B251" s="19"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
@@ -6059,7 +6214,7 @@
         <f>A251+1</f>
         <v>45541</v>
       </c>
-      <c r="B252" s="20"/>
+      <c r="B252" s="19"/>
       <c r="C252" s="4"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
@@ -6067,7 +6222,7 @@
         <f>A252+1</f>
         <v>45542</v>
       </c>
-      <c r="B253" s="19"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
@@ -6075,7 +6230,7 @@
         <f>A253+1</f>
         <v>45543</v>
       </c>
-      <c r="B254" s="20"/>
+      <c r="B254" s="19"/>
       <c r="C254" s="4"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
@@ -6083,7 +6238,7 @@
         <f>A254+1</f>
         <v>45544</v>
       </c>
-      <c r="B255" s="19"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
@@ -6091,7 +6246,7 @@
         <f>A255+1</f>
         <v>45545</v>
       </c>
-      <c r="B256" s="20"/>
+      <c r="B256" s="19"/>
       <c r="C256" s="4"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
@@ -6099,7 +6254,7 @@
         <f>A256+1</f>
         <v>45546</v>
       </c>
-      <c r="B257" s="19"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
@@ -6107,7 +6262,7 @@
         <f>A257+1</f>
         <v>45547</v>
       </c>
-      <c r="B258" s="20"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="4"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
@@ -6115,7 +6270,7 @@
         <f>A258+1</f>
         <v>45548</v>
       </c>
-      <c r="B259" s="19"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" ht="20.05" customHeight="1">
@@ -6123,7 +6278,7 @@
         <f>A259+1</f>
         <v>45549</v>
       </c>
-      <c r="B260" s="20"/>
+      <c r="B260" s="19"/>
       <c r="C260" s="4"/>
     </row>
     <row r="261" ht="20.05" customHeight="1">
@@ -6131,7 +6286,7 @@
         <f>A260+1</f>
         <v>45550</v>
       </c>
-      <c r="B261" s="19"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -6139,7 +6294,7 @@
         <f>A261+1</f>
         <v>45551</v>
       </c>
-      <c r="B262" s="20"/>
+      <c r="B262" s="19"/>
       <c r="C262" s="4"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -6147,7 +6302,7 @@
         <f>A262+1</f>
         <v>45552</v>
       </c>
-      <c r="B263" s="19"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" ht="20.05" customHeight="1">
@@ -6155,7 +6310,7 @@
         <f>A263+1</f>
         <v>45553</v>
       </c>
-      <c r="B264" s="20"/>
+      <c r="B264" s="19"/>
       <c r="C264" s="4"/>
     </row>
     <row r="265" ht="20.05" customHeight="1">
@@ -6163,7 +6318,7 @@
         <f>A264+1</f>
         <v>45554</v>
       </c>
-      <c r="B265" s="19"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="3"/>
     </row>
     <row r="266" ht="20.05" customHeight="1">
@@ -6171,7 +6326,7 @@
         <f>A265+1</f>
         <v>45555</v>
       </c>
-      <c r="B266" s="20"/>
+      <c r="B266" s="19"/>
       <c r="C266" s="4"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
@@ -6179,7 +6334,7 @@
         <f>A266+1</f>
         <v>45556</v>
       </c>
-      <c r="B267" s="19"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="3"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
@@ -6187,7 +6342,7 @@
         <f>A267+1</f>
         <v>45557</v>
       </c>
-      <c r="B268" s="20"/>
+      <c r="B268" s="19"/>
       <c r="C268" s="4"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -6195,7 +6350,7 @@
         <f>A268+1</f>
         <v>45558</v>
       </c>
-      <c r="B269" s="19"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="3"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -6203,7 +6358,7 @@
         <f>A269+1</f>
         <v>45559</v>
       </c>
-      <c r="B270" s="20"/>
+      <c r="B270" s="19"/>
       <c r="C270" s="4"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
@@ -6211,7 +6366,7 @@
         <f>A270+1</f>
         <v>45560</v>
       </c>
-      <c r="B271" s="19"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
@@ -6219,7 +6374,7 @@
         <f>A271+1</f>
         <v>45561</v>
       </c>
-      <c r="B272" s="20"/>
+      <c r="B272" s="19"/>
       <c r="C272" s="4"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
@@ -6227,7 +6382,7 @@
         <f>A272+1</f>
         <v>45562</v>
       </c>
-      <c r="B273" s="19"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
@@ -6235,7 +6390,7 @@
         <f>A273+1</f>
         <v>45563</v>
       </c>
-      <c r="B274" s="20"/>
+      <c r="B274" s="19"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
@@ -6243,7 +6398,7 @@
         <f>A274+1</f>
         <v>45564</v>
       </c>
-      <c r="B275" s="19"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" ht="20.05" customHeight="1">
@@ -6251,7 +6406,7 @@
         <f>A275+1</f>
         <v>45565</v>
       </c>
-      <c r="B276" s="20"/>
+      <c r="B276" s="19"/>
       <c r="C276" s="4"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
@@ -6259,7 +6414,7 @@
         <f>A276+1</f>
         <v>45566</v>
       </c>
-      <c r="B277" s="19"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
@@ -6267,7 +6422,7 @@
         <f>A277+1</f>
         <v>45567</v>
       </c>
-      <c r="B278" s="20"/>
+      <c r="B278" s="19"/>
       <c r="C278" s="4"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
@@ -6275,7 +6430,7 @@
         <f>A278+1</f>
         <v>45568</v>
       </c>
-      <c r="B279" s="19"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
@@ -6283,7 +6438,7 @@
         <f>A279+1</f>
         <v>45569</v>
       </c>
-      <c r="B280" s="20"/>
+      <c r="B280" s="19"/>
       <c r="C280" s="4"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
@@ -6291,7 +6446,7 @@
         <f>A280+1</f>
         <v>45570</v>
       </c>
-      <c r="B281" s="19"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
@@ -6299,7 +6454,7 @@
         <f>A281+1</f>
         <v>45571</v>
       </c>
-      <c r="B282" s="20"/>
+      <c r="B282" s="19"/>
       <c r="C282" s="4"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
@@ -6307,7 +6462,7 @@
         <f>A282+1</f>
         <v>45572</v>
       </c>
-      <c r="B283" s="19"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
@@ -6315,7 +6470,7 @@
         <f>A283+1</f>
         <v>45573</v>
       </c>
-      <c r="B284" s="20"/>
+      <c r="B284" s="19"/>
       <c r="C284" s="4"/>
     </row>
     <row r="285" ht="20.05" customHeight="1">
@@ -6323,7 +6478,7 @@
         <f>A284+1</f>
         <v>45574</v>
       </c>
-      <c r="B285" s="19"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
@@ -6331,7 +6486,7 @@
         <f>A285+1</f>
         <v>45575</v>
       </c>
-      <c r="B286" s="20"/>
+      <c r="B286" s="19"/>
       <c r="C286" s="4"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
@@ -6339,7 +6494,7 @@
         <f>A286+1</f>
         <v>45576</v>
       </c>
-      <c r="B287" s="19"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
@@ -6347,7 +6502,7 @@
         <f>A287+1</f>
         <v>45577</v>
       </c>
-      <c r="B288" s="20"/>
+      <c r="B288" s="19"/>
       <c r="C288" s="4"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
@@ -6355,7 +6510,7 @@
         <f>A288+1</f>
         <v>45578</v>
       </c>
-      <c r="B289" s="19"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="3"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
@@ -6363,7 +6518,7 @@
         <f>A289+1</f>
         <v>45579</v>
       </c>
-      <c r="B290" s="20"/>
+      <c r="B290" s="19"/>
       <c r="C290" s="4"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
@@ -6371,7 +6526,7 @@
         <f>A290+1</f>
         <v>45580</v>
       </c>
-      <c r="B291" s="19"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="3"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
@@ -6379,7 +6534,7 @@
         <f>A291+1</f>
         <v>45581</v>
       </c>
-      <c r="B292" s="20"/>
+      <c r="B292" s="19"/>
       <c r="C292" s="4"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
@@ -6387,7 +6542,7 @@
         <f>A292+1</f>
         <v>45582</v>
       </c>
-      <c r="B293" s="19"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -6395,7 +6550,7 @@
         <f>A293+1</f>
         <v>45583</v>
       </c>
-      <c r="B294" s="20"/>
+      <c r="B294" s="19"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -6403,7 +6558,7 @@
         <f>A294+1</f>
         <v>45584</v>
       </c>
-      <c r="B295" s="19"/>
+      <c r="B295" s="20"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
@@ -6411,7 +6566,7 @@
         <f>A295+1</f>
         <v>45585</v>
       </c>
-      <c r="B296" s="20"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="4"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
@@ -6419,7 +6574,7 @@
         <f>A296+1</f>
         <v>45586</v>
       </c>
-      <c r="B297" s="19"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
@@ -6427,7 +6582,7 @@
         <f>A297+1</f>
         <v>45587</v>
       </c>
-      <c r="B298" s="20"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="4"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
@@ -6435,7 +6590,7 @@
         <f>A298+1</f>
         <v>45588</v>
       </c>
-      <c r="B299" s="19"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
@@ -6443,7 +6598,7 @@
         <f>A299+1</f>
         <v>45589</v>
       </c>
-      <c r="B300" s="20"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="4"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
@@ -6451,7 +6606,7 @@
         <f>A300+1</f>
         <v>45590</v>
       </c>
-      <c r="B301" s="19"/>
+      <c r="B301" s="20"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
@@ -6459,7 +6614,7 @@
         <f>A301+1</f>
         <v>45591</v>
       </c>
-      <c r="B302" s="20"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="4"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
@@ -6467,7 +6622,7 @@
         <f>A302+1</f>
         <v>45592</v>
       </c>
-      <c r="B303" s="19"/>
+      <c r="B303" s="20"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
@@ -6475,7 +6630,7 @@
         <f>A303+1</f>
         <v>45593</v>
       </c>
-      <c r="B304" s="20"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
@@ -6483,7 +6638,7 @@
         <f>A304+1</f>
         <v>45594</v>
       </c>
-      <c r="B305" s="19"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="3"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
@@ -6491,7 +6646,7 @@
         <f>A305+1</f>
         <v>45595</v>
       </c>
-      <c r="B306" s="20"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
@@ -6499,7 +6654,7 @@
         <f>A306+1</f>
         <v>45596</v>
       </c>
-      <c r="B307" s="19"/>
+      <c r="B307" s="20"/>
       <c r="C307" s="3"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
@@ -6507,7 +6662,7 @@
         <f>A307+1</f>
         <v>45597</v>
       </c>
-      <c r="B308" s="20"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="4"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
@@ -6515,7 +6670,7 @@
         <f>A308+1</f>
         <v>45598</v>
       </c>
-      <c r="B309" s="19"/>
+      <c r="B309" s="20"/>
       <c r="C309" s="3"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
@@ -6523,7 +6678,7 @@
         <f>A309+1</f>
         <v>45599</v>
       </c>
-      <c r="B310" s="20"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="4"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
@@ -6531,7 +6686,7 @@
         <f>A310+1</f>
         <v>45600</v>
       </c>
-      <c r="B311" s="19"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="3"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
@@ -6539,7 +6694,7 @@
         <f>A311+1</f>
         <v>45601</v>
       </c>
-      <c r="B312" s="20"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="4"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
@@ -6547,7 +6702,7 @@
         <f>A312+1</f>
         <v>45602</v>
       </c>
-      <c r="B313" s="19"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="3"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
@@ -6555,7 +6710,7 @@
         <f>A313+1</f>
         <v>45603</v>
       </c>
-      <c r="B314" s="20"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="4"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
@@ -6563,7 +6718,7 @@
         <f>A314+1</f>
         <v>45604</v>
       </c>
-      <c r="B315" s="19"/>
+      <c r="B315" s="20"/>
       <c r="C315" s="3"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
@@ -6571,7 +6726,7 @@
         <f>A315+1</f>
         <v>45605</v>
       </c>
-      <c r="B316" s="20"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="4"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
@@ -6579,7 +6734,7 @@
         <f>A316+1</f>
         <v>45606</v>
       </c>
-      <c r="B317" s="19"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="3"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
@@ -6587,7 +6742,7 @@
         <f>A317+1</f>
         <v>45607</v>
       </c>
-      <c r="B318" s="20"/>
+      <c r="B318" s="19"/>
       <c r="C318" s="4"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
@@ -6595,7 +6750,7 @@
         <f>A318+1</f>
         <v>45608</v>
       </c>
-      <c r="B319" s="19"/>
+      <c r="B319" s="20"/>
       <c r="C319" s="3"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
@@ -6603,7 +6758,7 @@
         <f>A319+1</f>
         <v>45609</v>
       </c>
-      <c r="B320" s="20"/>
+      <c r="B320" s="19"/>
       <c r="C320" s="4"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
@@ -6611,7 +6766,7 @@
         <f>A320+1</f>
         <v>45610</v>
       </c>
-      <c r="B321" s="19"/>
+      <c r="B321" s="20"/>
       <c r="C321" s="3"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
@@ -6619,7 +6774,7 @@
         <f>A321+1</f>
         <v>45611</v>
       </c>
-      <c r="B322" s="20"/>
+      <c r="B322" s="19"/>
       <c r="C322" s="4"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
@@ -6627,7 +6782,7 @@
         <f>A322+1</f>
         <v>45612</v>
       </c>
-      <c r="B323" s="19"/>
+      <c r="B323" s="20"/>
       <c r="C323" s="3"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
@@ -6635,7 +6790,7 @@
         <f>A323+1</f>
         <v>45613</v>
       </c>
-      <c r="B324" s="20"/>
+      <c r="B324" s="19"/>
       <c r="C324" s="4"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
@@ -6643,7 +6798,7 @@
         <f>A324+1</f>
         <v>45614</v>
       </c>
-      <c r="B325" s="19"/>
+      <c r="B325" s="20"/>
       <c r="C325" s="3"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
@@ -6651,7 +6806,7 @@
         <f>A325+1</f>
         <v>45615</v>
       </c>
-      <c r="B326" s="20"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="4"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
@@ -6659,7 +6814,7 @@
         <f>A326+1</f>
         <v>45616</v>
       </c>
-      <c r="B327" s="19"/>
+      <c r="B327" s="20"/>
       <c r="C327" s="3"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
@@ -6667,7 +6822,7 @@
         <f>A327+1</f>
         <v>45617</v>
       </c>
-      <c r="B328" s="20"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="4"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
@@ -6675,7 +6830,7 @@
         <f>A328+1</f>
         <v>45618</v>
       </c>
-      <c r="B329" s="19"/>
+      <c r="B329" s="20"/>
       <c r="C329" s="3"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
@@ -6683,7 +6838,7 @@
         <f>A329+1</f>
         <v>45619</v>
       </c>
-      <c r="B330" s="20"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="4"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
@@ -6691,7 +6846,7 @@
         <f>A330+1</f>
         <v>45620</v>
       </c>
-      <c r="B331" s="19"/>
+      <c r="B331" s="20"/>
       <c r="C331" s="3"/>
     </row>
     <row r="332" ht="20.05" customHeight="1">
@@ -6699,7 +6854,7 @@
         <f>A331+1</f>
         <v>45621</v>
       </c>
-      <c r="B332" s="20"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="4"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
@@ -6707,7 +6862,7 @@
         <f>A332+1</f>
         <v>45622</v>
       </c>
-      <c r="B333" s="19"/>
+      <c r="B333" s="20"/>
       <c r="C333" s="3"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
@@ -6715,7 +6870,7 @@
         <f>A333+1</f>
         <v>45623</v>
       </c>
-      <c r="B334" s="20"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="4"/>
     </row>
     <row r="335" ht="20.05" customHeight="1">
@@ -6723,7 +6878,7 @@
         <f>A334+1</f>
         <v>45624</v>
       </c>
-      <c r="B335" s="19"/>
+      <c r="B335" s="20"/>
       <c r="C335" s="3"/>
     </row>
     <row r="336" ht="20.05" customHeight="1">
@@ -6731,7 +6886,7 @@
         <f>A335+1</f>
         <v>45625</v>
       </c>
-      <c r="B336" s="20"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="4"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
@@ -6739,7 +6894,7 @@
         <f>A336+1</f>
         <v>45626</v>
       </c>
-      <c r="B337" s="19"/>
+      <c r="B337" s="20"/>
       <c r="C337" s="3"/>
     </row>
     <row r="338" ht="20.05" customHeight="1">
@@ -6747,7 +6902,7 @@
         <f>A337+1</f>
         <v>45627</v>
       </c>
-      <c r="B338" s="20"/>
+      <c r="B338" s="19"/>
       <c r="C338" s="4"/>
     </row>
     <row r="339" ht="20.05" customHeight="1">
@@ -6755,7 +6910,7 @@
         <f>A338+1</f>
         <v>45628</v>
       </c>
-      <c r="B339" s="19"/>
+      <c r="B339" s="20"/>
       <c r="C339" s="3"/>
     </row>
     <row r="340" ht="20.05" customHeight="1">
@@ -6763,7 +6918,7 @@
         <f>A339+1</f>
         <v>45629</v>
       </c>
-      <c r="B340" s="20"/>
+      <c r="B340" s="19"/>
       <c r="C340" s="4"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
@@ -6771,7 +6926,7 @@
         <f>A340+1</f>
         <v>45630</v>
       </c>
-      <c r="B341" s="19"/>
+      <c r="B341" s="20"/>
       <c r="C341" s="3"/>
     </row>
     <row r="342" ht="20.05" customHeight="1">
@@ -6779,7 +6934,7 @@
         <f>A341+1</f>
         <v>45631</v>
       </c>
-      <c r="B342" s="20"/>
+      <c r="B342" s="19"/>
       <c r="C342" s="4"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
@@ -6787,7 +6942,7 @@
         <f>A342+1</f>
         <v>45632</v>
       </c>
-      <c r="B343" s="19"/>
+      <c r="B343" s="20"/>
       <c r="C343" s="3"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
@@ -6795,7 +6950,7 @@
         <f>A343+1</f>
         <v>45633</v>
       </c>
-      <c r="B344" s="20"/>
+      <c r="B344" s="19"/>
       <c r="C344" s="4"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
@@ -6803,7 +6958,7 @@
         <f>A344+1</f>
         <v>45634</v>
       </c>
-      <c r="B345" s="19"/>
+      <c r="B345" s="20"/>
       <c r="C345" s="3"/>
     </row>
     <row r="346" ht="20.05" customHeight="1">
@@ -6811,7 +6966,7 @@
         <f>A345+1</f>
         <v>45635</v>
       </c>
-      <c r="B346" s="20"/>
+      <c r="B346" s="19"/>
       <c r="C346" s="4"/>
     </row>
     <row r="347" ht="20.05" customHeight="1">
@@ -6819,7 +6974,7 @@
         <f>A346+1</f>
         <v>45636</v>
       </c>
-      <c r="B347" s="19"/>
+      <c r="B347" s="20"/>
       <c r="C347" s="3"/>
     </row>
     <row r="348" ht="20.05" customHeight="1">
@@ -6827,7 +6982,7 @@
         <f>A347+1</f>
         <v>45637</v>
       </c>
-      <c r="B348" s="20"/>
+      <c r="B348" s="19"/>
       <c r="C348" s="4"/>
     </row>
     <row r="349" ht="20.05" customHeight="1">
@@ -6835,7 +6990,7 @@
         <f>A348+1</f>
         <v>45638</v>
       </c>
-      <c r="B349" s="19"/>
+      <c r="B349" s="20"/>
       <c r="C349" s="3"/>
     </row>
     <row r="350" ht="20.05" customHeight="1">
@@ -6843,7 +6998,7 @@
         <f>A349+1</f>
         <v>45639</v>
       </c>
-      <c r="B350" s="20"/>
+      <c r="B350" s="19"/>
       <c r="C350" s="4"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
@@ -6851,7 +7006,7 @@
         <f>A350+1</f>
         <v>45640</v>
       </c>
-      <c r="B351" s="19"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="3"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
@@ -6859,7 +7014,7 @@
         <f>A351+1</f>
         <v>45641</v>
       </c>
-      <c r="B352" s="20"/>
+      <c r="B352" s="19"/>
       <c r="C352" s="4"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
@@ -6867,7 +7022,7 @@
         <f>A352+1</f>
         <v>45642</v>
       </c>
-      <c r="B353" s="19"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="3"/>
     </row>
     <row r="354" ht="20.05" customHeight="1">
@@ -6875,7 +7030,7 @@
         <f>A353+1</f>
         <v>45643</v>
       </c>
-      <c r="B354" s="20"/>
+      <c r="B354" s="19"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
@@ -6883,7 +7038,7 @@
         <f>A354+1</f>
         <v>45644</v>
       </c>
-      <c r="B355" s="19"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="3"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
@@ -6891,7 +7046,7 @@
         <f>A355+1</f>
         <v>45645</v>
       </c>
-      <c r="B356" s="20"/>
+      <c r="B356" s="19"/>
       <c r="C356" s="4"/>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -6899,7 +7054,7 @@
         <f>A356+1</f>
         <v>45646</v>
       </c>
-      <c r="B357" s="19"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="3"/>
     </row>
     <row r="358" ht="20.05" customHeight="1">
@@ -6907,7 +7062,7 @@
         <f>A357+1</f>
         <v>45647</v>
       </c>
-      <c r="B358" s="20"/>
+      <c r="B358" s="19"/>
       <c r="C358" s="4"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
@@ -6915,7 +7070,7 @@
         <f>A358+1</f>
         <v>45648</v>
       </c>
-      <c r="B359" s="19"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="3"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
@@ -6923,7 +7078,7 @@
         <f>A359+1</f>
         <v>45649</v>
       </c>
-      <c r="B360" s="20"/>
+      <c r="B360" s="19"/>
       <c r="C360" s="4"/>
     </row>
     <row r="361" ht="20.05" customHeight="1">
@@ -6931,7 +7086,7 @@
         <f>A360+1</f>
         <v>45650</v>
       </c>
-      <c r="B361" s="19"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="3"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
@@ -6939,7 +7094,7 @@
         <f>A361+1</f>
         <v>45651</v>
       </c>
-      <c r="B362" s="20"/>
+      <c r="B362" s="19"/>
       <c r="C362" s="4"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
@@ -6947,7 +7102,7 @@
         <f>A362+1</f>
         <v>45652</v>
       </c>
-      <c r="B363" s="19"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="3"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
@@ -6955,7 +7110,7 @@
         <f>A363+1</f>
         <v>45653</v>
       </c>
-      <c r="B364" s="20"/>
+      <c r="B364" s="19"/>
       <c r="C364" s="4"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
@@ -6963,7 +7118,7 @@
         <f>A364+1</f>
         <v>45654</v>
       </c>
-      <c r="B365" s="19"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="3"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
@@ -6971,7 +7126,7 @@
         <f>A365+1</f>
         <v>45655</v>
       </c>
-      <c r="B366" s="20"/>
+      <c r="B366" s="19"/>
       <c r="C366" s="4"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
@@ -6979,7 +7134,7 @@
         <f>A366+1</f>
         <v>45656</v>
       </c>
-      <c r="B367" s="19"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="3"/>
     </row>
     <row r="368" ht="20.05" customHeight="1">
@@ -6987,7 +7142,7 @@
         <f>A367+1</f>
         <v>45657</v>
       </c>
-      <c r="B368" s="20"/>
+      <c r="B368" s="19"/>
       <c r="C368" s="4"/>
     </row>
   </sheetData>
@@ -7051,7 +7206,7 @@
         <f>A3+1</f>
         <v>45659</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -7059,7 +7214,7 @@
         <f>A4+1</f>
         <v>45660</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -7067,7 +7222,7 @@
         <f>A5+1</f>
         <v>45661</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -7075,7 +7230,7 @@
         <f>A6+1</f>
         <v>45662</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -7083,7 +7238,7 @@
         <f>A7+1</f>
         <v>45663</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -7091,7 +7246,7 @@
         <f>A8+1</f>
         <v>45664</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -7099,7 +7254,7 @@
         <f>A9+1</f>
         <v>45665</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -7107,7 +7262,7 @@
         <f>A10+1</f>
         <v>45666</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -7115,7 +7270,7 @@
         <f>A11+1</f>
         <v>45667</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -7123,7 +7278,7 @@
         <f>A12+1</f>
         <v>45668</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -7131,7 +7286,7 @@
         <f>A13+1</f>
         <v>45669</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -7139,7 +7294,7 @@
         <f>A14+1</f>
         <v>45670</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -7147,7 +7302,7 @@
         <f>A15+1</f>
         <v>45671</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -7155,7 +7310,7 @@
         <f>A16+1</f>
         <v>45672</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -7163,7 +7318,7 @@
         <f>A17+1</f>
         <v>45673</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -7171,7 +7326,7 @@
         <f>A18+1</f>
         <v>45674</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -7179,7 +7334,7 @@
         <f>A19+1</f>
         <v>45675</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -7187,7 +7342,7 @@
         <f>A20+1</f>
         <v>45676</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -7195,7 +7350,7 @@
         <f>A21+1</f>
         <v>45677</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -7203,7 +7358,7 @@
         <f>A22+1</f>
         <v>45678</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -7211,7 +7366,7 @@
         <f>A23+1</f>
         <v>45679</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -7219,7 +7374,7 @@
         <f>A24+1</f>
         <v>45680</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -7227,7 +7382,7 @@
         <f>A25+1</f>
         <v>45681</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -7235,7 +7390,7 @@
         <f>A26+1</f>
         <v>45682</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -7243,7 +7398,7 @@
         <f>A27+1</f>
         <v>45683</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4"/>
     </row>
     <row r="29" ht="20.05" customHeight="1">
@@ -7251,7 +7406,7 @@
         <f>A28+1</f>
         <v>45684</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30" ht="20.05" customHeight="1">
@@ -7259,7 +7414,7 @@
         <f>A29+1</f>
         <v>45685</v>
       </c>
-      <c r="B30" s="20"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="4"/>
     </row>
     <row r="31" ht="20.05" customHeight="1">
@@ -7267,7 +7422,7 @@
         <f>A30+1</f>
         <v>45686</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32" ht="20.05" customHeight="1">
@@ -7275,7 +7430,7 @@
         <f>A31+1</f>
         <v>45687</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" ht="20.05" customHeight="1">
@@ -7283,7 +7438,7 @@
         <f>A32+1</f>
         <v>45688</v>
       </c>
-      <c r="B33" s="19"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -7291,7 +7446,7 @@
         <f>A33+1</f>
         <v>45689</v>
       </c>
-      <c r="B34" s="20"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="4"/>
     </row>
     <row r="35" ht="20.05" customHeight="1">
@@ -7299,7 +7454,7 @@
         <f>A34+1</f>
         <v>45690</v>
       </c>
-      <c r="B35" s="19"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -7307,7 +7462,7 @@
         <f>A35+1</f>
         <v>45691</v>
       </c>
-      <c r="B36" s="20"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="4"/>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -7315,7 +7470,7 @@
         <f>A36+1</f>
         <v>45692</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38" ht="20.05" customHeight="1">
@@ -7323,7 +7478,7 @@
         <f>A37+1</f>
         <v>45693</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="4"/>
     </row>
     <row r="39" ht="20.05" customHeight="1">
@@ -7331,7 +7486,7 @@
         <f>A38+1</f>
         <v>45694</v>
       </c>
-      <c r="B39" s="19"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" ht="20.05" customHeight="1">
@@ -7339,7 +7494,7 @@
         <f>A39+1</f>
         <v>45695</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="4"/>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -7347,7 +7502,7 @@
         <f>A40+1</f>
         <v>45696</v>
       </c>
-      <c r="B41" s="19"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -7355,7 +7510,7 @@
         <f>A41+1</f>
         <v>45697</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="4"/>
     </row>
     <row r="43" ht="20.05" customHeight="1">
@@ -7363,7 +7518,7 @@
         <f>A42+1</f>
         <v>45698</v>
       </c>
-      <c r="B43" s="19"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44" ht="20.05" customHeight="1">
@@ -7371,7 +7526,7 @@
         <f>A43+1</f>
         <v>45699</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="4"/>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -7379,7 +7534,7 @@
         <f>A44+1</f>
         <v>45700</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -7387,7 +7542,7 @@
         <f>A45+1</f>
         <v>45701</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="4"/>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -7395,7 +7550,7 @@
         <f>A46+1</f>
         <v>45702</v>
       </c>
-      <c r="B47" s="19"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -7403,7 +7558,7 @@
         <f>A47+1</f>
         <v>45703</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="4"/>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -7411,7 +7566,7 @@
         <f>A48+1</f>
         <v>45704</v>
       </c>
-      <c r="B49" s="19"/>
+      <c r="B49" s="20"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -7419,7 +7574,7 @@
         <f>A49+1</f>
         <v>45705</v>
       </c>
-      <c r="B50" s="20"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="4"/>
     </row>
     <row r="51" ht="20.05" customHeight="1">
@@ -7427,7 +7582,7 @@
         <f>A50+1</f>
         <v>45706</v>
       </c>
-      <c r="B51" s="19"/>
+      <c r="B51" s="20"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52" ht="20.05" customHeight="1">
@@ -7435,7 +7590,7 @@
         <f>A51+1</f>
         <v>45707</v>
       </c>
-      <c r="B52" s="20"/>
+      <c r="B52" s="19"/>
       <c r="C52" s="4"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -7443,7 +7598,7 @@
         <f>A52+1</f>
         <v>45708</v>
       </c>
-      <c r="B53" s="19"/>
+      <c r="B53" s="20"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -7451,7 +7606,7 @@
         <f>A53+1</f>
         <v>45709</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="4"/>
     </row>
     <row r="55" ht="20.05" customHeight="1">
@@ -7459,7 +7614,7 @@
         <f>A54+1</f>
         <v>45710</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="20"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56" ht="20.05" customHeight="1">
@@ -7467,7 +7622,7 @@
         <f>A55+1</f>
         <v>45711</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="4"/>
     </row>
     <row r="57" ht="20.05" customHeight="1">
@@ -7475,7 +7630,7 @@
         <f>A56+1</f>
         <v>45712</v>
       </c>
-      <c r="B57" s="19"/>
+      <c r="B57" s="20"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58" ht="20.05" customHeight="1">
@@ -7483,7 +7638,7 @@
         <f>A57+1</f>
         <v>45713</v>
       </c>
-      <c r="B58" s="20"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="20.05" customHeight="1">
@@ -7491,7 +7646,7 @@
         <f>A58+1</f>
         <v>45714</v>
       </c>
-      <c r="B59" s="19"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" ht="20.05" customHeight="1">
@@ -7499,7 +7654,7 @@
         <f>A59+1</f>
         <v>45715</v>
       </c>
-      <c r="B60" s="20"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" ht="20.05" customHeight="1">
@@ -7507,7 +7662,7 @@
         <f>A60+1</f>
         <v>45716</v>
       </c>
-      <c r="B61" s="19"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62" ht="20.05" customHeight="1">
@@ -7515,7 +7670,7 @@
         <f>A61+1</f>
         <v>45717</v>
       </c>
-      <c r="B62" s="20"/>
+      <c r="B62" s="19"/>
       <c r="C62" s="4"/>
     </row>
     <row r="63" ht="20.05" customHeight="1">
@@ -7523,7 +7678,7 @@
         <f>A62+1</f>
         <v>45718</v>
       </c>
-      <c r="B63" s="19"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64" ht="20.05" customHeight="1">
@@ -7531,7 +7686,7 @@
         <f>A63+1</f>
         <v>45719</v>
       </c>
-      <c r="B64" s="20"/>
+      <c r="B64" s="19"/>
       <c r="C64" s="4"/>
     </row>
     <row r="65" ht="20.05" customHeight="1">
@@ -7539,7 +7694,7 @@
         <f>A64+1</f>
         <v>45720</v>
       </c>
-      <c r="B65" s="19"/>
+      <c r="B65" s="20"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66" ht="20.05" customHeight="1">
@@ -7547,7 +7702,7 @@
         <f>A65+1</f>
         <v>45721</v>
       </c>
-      <c r="B66" s="20"/>
+      <c r="B66" s="19"/>
       <c r="C66" s="4"/>
     </row>
     <row r="67" ht="20.05" customHeight="1">
@@ -7555,7 +7710,7 @@
         <f>A66+1</f>
         <v>45722</v>
       </c>
-      <c r="B67" s="19"/>
+      <c r="B67" s="20"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68" ht="20.05" customHeight="1">
@@ -7563,7 +7718,7 @@
         <f>A67+1</f>
         <v>45723</v>
       </c>
-      <c r="B68" s="20"/>
+      <c r="B68" s="19"/>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="20.05" customHeight="1">
@@ -7571,7 +7726,7 @@
         <f>A68+1</f>
         <v>45724</v>
       </c>
-      <c r="B69" s="19"/>
+      <c r="B69" s="20"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70" ht="20.05" customHeight="1">
@@ -7579,7 +7734,7 @@
         <f>A69+1</f>
         <v>45725</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="19"/>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="20.05" customHeight="1">
@@ -7587,7 +7742,7 @@
         <f>A70+1</f>
         <v>45726</v>
       </c>
-      <c r="B71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72" ht="20.05" customHeight="1">
@@ -7595,7 +7750,7 @@
         <f>A71+1</f>
         <v>45727</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="19"/>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="20.05" customHeight="1">
@@ -7603,7 +7758,7 @@
         <f>A72+1</f>
         <v>45728</v>
       </c>
-      <c r="B73" s="19"/>
+      <c r="B73" s="20"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74" ht="20.05" customHeight="1">
@@ -7611,7 +7766,7 @@
         <f>A73+1</f>
         <v>45729</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="19"/>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="20.05" customHeight="1">
@@ -7619,7 +7774,7 @@
         <f>A74+1</f>
         <v>45730</v>
       </c>
-      <c r="B75" s="19"/>
+      <c r="B75" s="20"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76" ht="20.05" customHeight="1">
@@ -7627,7 +7782,7 @@
         <f>A75+1</f>
         <v>45731</v>
       </c>
-      <c r="B76" s="20"/>
+      <c r="B76" s="19"/>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="20.05" customHeight="1">
@@ -7635,7 +7790,7 @@
         <f>A76+1</f>
         <v>45732</v>
       </c>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78" ht="20.05" customHeight="1">
@@ -7643,7 +7798,7 @@
         <f>A77+1</f>
         <v>45733</v>
       </c>
-      <c r="B78" s="20"/>
+      <c r="B78" s="19"/>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="20.05" customHeight="1">
@@ -7651,7 +7806,7 @@
         <f>A78+1</f>
         <v>45734</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80" ht="20.05" customHeight="1">
@@ -7659,7 +7814,7 @@
         <f>A79+1</f>
         <v>45735</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="20.05" customHeight="1">
@@ -7667,7 +7822,7 @@
         <f>A80+1</f>
         <v>45736</v>
       </c>
-      <c r="B81" s="19"/>
+      <c r="B81" s="20"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82" ht="20.05" customHeight="1">
@@ -7675,7 +7830,7 @@
         <f>A81+1</f>
         <v>45737</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="20.05" customHeight="1">
@@ -7683,7 +7838,7 @@
         <f>A82+1</f>
         <v>45738</v>
       </c>
-      <c r="B83" s="19"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84" ht="20.05" customHeight="1">
@@ -7691,7 +7846,7 @@
         <f>A83+1</f>
         <v>45739</v>
       </c>
-      <c r="B84" s="20"/>
+      <c r="B84" s="19"/>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="20.05" customHeight="1">
@@ -7699,7 +7854,7 @@
         <f>A84+1</f>
         <v>45740</v>
       </c>
-      <c r="B85" s="19"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86" ht="20.05" customHeight="1">
@@ -7707,7 +7862,7 @@
         <f>A85+1</f>
         <v>45741</v>
       </c>
-      <c r="B86" s="20"/>
+      <c r="B86" s="19"/>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="20.05" customHeight="1">
@@ -7715,7 +7870,7 @@
         <f>A86+1</f>
         <v>45742</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88" ht="20.05" customHeight="1">
@@ -7723,7 +7878,7 @@
         <f>A87+1</f>
         <v>45743</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="19"/>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="20.05" customHeight="1">
@@ -7731,7 +7886,7 @@
         <f>A88+1</f>
         <v>45744</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90" ht="20.05" customHeight="1">
@@ -7739,7 +7894,7 @@
         <f>A89+1</f>
         <v>45745</v>
       </c>
-      <c r="B90" s="20"/>
+      <c r="B90" s="19"/>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="20.05" customHeight="1">
@@ -7747,7 +7902,7 @@
         <f>A90+1</f>
         <v>45746</v>
       </c>
-      <c r="B91" s="19"/>
+      <c r="B91" s="20"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92" ht="20.05" customHeight="1">
@@ -7755,7 +7910,7 @@
         <f>A91+1</f>
         <v>45747</v>
       </c>
-      <c r="B92" s="20"/>
+      <c r="B92" s="19"/>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="20.05" customHeight="1">
@@ -7763,7 +7918,7 @@
         <f>A92+1</f>
         <v>45748</v>
       </c>
-      <c r="B93" s="19"/>
+      <c r="B93" s="20"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94" ht="20.05" customHeight="1">
@@ -7771,7 +7926,7 @@
         <f>A93+1</f>
         <v>45749</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="19"/>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="20.05" customHeight="1">
@@ -7779,7 +7934,7 @@
         <f>A94+1</f>
         <v>45750</v>
       </c>
-      <c r="B95" s="19"/>
+      <c r="B95" s="20"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96" ht="20.05" customHeight="1">
@@ -7787,7 +7942,7 @@
         <f>A95+1</f>
         <v>45751</v>
       </c>
-      <c r="B96" s="20"/>
+      <c r="B96" s="19"/>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="20.05" customHeight="1">
@@ -7795,7 +7950,7 @@
         <f>A96+1</f>
         <v>45752</v>
       </c>
-      <c r="B97" s="19"/>
+      <c r="B97" s="20"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98" ht="20.05" customHeight="1">
@@ -7803,7 +7958,7 @@
         <f>A97+1</f>
         <v>45753</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="19"/>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="20.05" customHeight="1">
@@ -7811,7 +7966,7 @@
         <f>A98+1</f>
         <v>45754</v>
       </c>
-      <c r="B99" s="19"/>
+      <c r="B99" s="20"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100" ht="20.05" customHeight="1">
@@ -7819,7 +7974,7 @@
         <f>A99+1</f>
         <v>45755</v>
       </c>
-      <c r="B100" s="20"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="20.05" customHeight="1">
@@ -7827,7 +7982,7 @@
         <f>A100+1</f>
         <v>45756</v>
       </c>
-      <c r="B101" s="19"/>
+      <c r="B101" s="20"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102" ht="20.05" customHeight="1">
@@ -7835,7 +7990,7 @@
         <f>A101+1</f>
         <v>45757</v>
       </c>
-      <c r="B102" s="20"/>
+      <c r="B102" s="19"/>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="20.05" customHeight="1">
@@ -7843,7 +7998,7 @@
         <f>A102+1</f>
         <v>45758</v>
       </c>
-      <c r="B103" s="19"/>
+      <c r="B103" s="20"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104" ht="20.05" customHeight="1">
@@ -7851,7 +8006,7 @@
         <f>A103+1</f>
         <v>45759</v>
       </c>
-      <c r="B104" s="20"/>
+      <c r="B104" s="19"/>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="20.05" customHeight="1">
@@ -7859,7 +8014,7 @@
         <f>A104+1</f>
         <v>45760</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106" ht="20.05" customHeight="1">
@@ -7867,7 +8022,7 @@
         <f>A105+1</f>
         <v>45761</v>
       </c>
-      <c r="B106" s="20"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="20.05" customHeight="1">
@@ -7875,7 +8030,7 @@
         <f>A106+1</f>
         <v>45762</v>
       </c>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108" ht="20.05" customHeight="1">
@@ -7883,7 +8038,7 @@
         <f>A107+1</f>
         <v>45763</v>
       </c>
-      <c r="B108" s="20"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="20.05" customHeight="1">
@@ -7891,7 +8046,7 @@
         <f>A108+1</f>
         <v>45764</v>
       </c>
-      <c r="B109" s="19"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110" ht="20.05" customHeight="1">
@@ -7899,7 +8054,7 @@
         <f>A109+1</f>
         <v>45765</v>
       </c>
-      <c r="B110" s="20"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="20.05" customHeight="1">
@@ -7907,7 +8062,7 @@
         <f>A110+1</f>
         <v>45766</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="3"/>
     </row>
     <row r="112" ht="20.05" customHeight="1">
@@ -7915,7 +8070,7 @@
         <f>A111+1</f>
         <v>45767</v>
       </c>
-      <c r="B112" s="20"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="20.05" customHeight="1">
@@ -7923,7 +8078,7 @@
         <f>A112+1</f>
         <v>45768</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="3"/>
     </row>
     <row r="114" ht="20.05" customHeight="1">
@@ -7931,7 +8086,7 @@
         <f>A113+1</f>
         <v>45769</v>
       </c>
-      <c r="B114" s="20"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="20.05" customHeight="1">
@@ -7939,7 +8094,7 @@
         <f>A114+1</f>
         <v>45770</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="3"/>
     </row>
     <row r="116" ht="20.05" customHeight="1">
@@ -7947,7 +8102,7 @@
         <f>A115+1</f>
         <v>45771</v>
       </c>
-      <c r="B116" s="20"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="20.05" customHeight="1">
@@ -7955,7 +8110,7 @@
         <f>A116+1</f>
         <v>45772</v>
       </c>
-      <c r="B117" s="19"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="3"/>
     </row>
     <row r="118" ht="20.05" customHeight="1">
@@ -7963,7 +8118,7 @@
         <f>A117+1</f>
         <v>45773</v>
       </c>
-      <c r="B118" s="20"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="20.05" customHeight="1">
@@ -7971,7 +8126,7 @@
         <f>A118+1</f>
         <v>45774</v>
       </c>
-      <c r="B119" s="19"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="3"/>
     </row>
     <row r="120" ht="20.05" customHeight="1">
@@ -7979,7 +8134,7 @@
         <f>A119+1</f>
         <v>45775</v>
       </c>
-      <c r="B120" s="20"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="20.05" customHeight="1">
@@ -7987,7 +8142,7 @@
         <f>A120+1</f>
         <v>45776</v>
       </c>
-      <c r="B121" s="19"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="3"/>
     </row>
     <row r="122" ht="20.05" customHeight="1">
@@ -7995,7 +8150,7 @@
         <f>A121+1</f>
         <v>45777</v>
       </c>
-      <c r="B122" s="20"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="20.05" customHeight="1">
@@ -8003,7 +8158,7 @@
         <f>A122+1</f>
         <v>45778</v>
       </c>
-      <c r="B123" s="19"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="3"/>
     </row>
     <row r="124" ht="20.05" customHeight="1">
@@ -8011,7 +8166,7 @@
         <f>A123+1</f>
         <v>45779</v>
       </c>
-      <c r="B124" s="20"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="20.05" customHeight="1">
@@ -8019,7 +8174,7 @@
         <f>A124+1</f>
         <v>45780</v>
       </c>
-      <c r="B125" s="19"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="3"/>
     </row>
     <row r="126" ht="20.05" customHeight="1">
@@ -8027,7 +8182,7 @@
         <f>A125+1</f>
         <v>45781</v>
       </c>
-      <c r="B126" s="20"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="20.05" customHeight="1">
@@ -8035,7 +8190,7 @@
         <f>A126+1</f>
         <v>45782</v>
       </c>
-      <c r="B127" s="19"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="3"/>
     </row>
     <row r="128" ht="20.05" customHeight="1">
@@ -8043,7 +8198,7 @@
         <f>A127+1</f>
         <v>45783</v>
       </c>
-      <c r="B128" s="20"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="20.05" customHeight="1">
@@ -8051,7 +8206,7 @@
         <f>A128+1</f>
         <v>45784</v>
       </c>
-      <c r="B129" s="19"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="3"/>
     </row>
     <row r="130" ht="20.05" customHeight="1">
@@ -8059,7 +8214,7 @@
         <f>A129+1</f>
         <v>45785</v>
       </c>
-      <c r="B130" s="20"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="20.05" customHeight="1">
@@ -8067,7 +8222,7 @@
         <f>A130+1</f>
         <v>45786</v>
       </c>
-      <c r="B131" s="19"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" ht="20.05" customHeight="1">
@@ -8075,7 +8230,7 @@
         <f>A131+1</f>
         <v>45787</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="20.05" customHeight="1">
@@ -8083,7 +8238,7 @@
         <f>A132+1</f>
         <v>45788</v>
       </c>
-      <c r="B133" s="19"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="3"/>
     </row>
     <row r="134" ht="20.05" customHeight="1">
@@ -8091,7 +8246,7 @@
         <f>A133+1</f>
         <v>45789</v>
       </c>
-      <c r="B134" s="20"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="20.05" customHeight="1">
@@ -8099,7 +8254,7 @@
         <f>A134+1</f>
         <v>45790</v>
       </c>
-      <c r="B135" s="19"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="3"/>
     </row>
     <row r="136" ht="20.05" customHeight="1">
@@ -8107,7 +8262,7 @@
         <f>A135+1</f>
         <v>45791</v>
       </c>
-      <c r="B136" s="20"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="20.05" customHeight="1">
@@ -8115,7 +8270,7 @@
         <f>A136+1</f>
         <v>45792</v>
       </c>
-      <c r="B137" s="19"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="3"/>
     </row>
     <row r="138" ht="20.05" customHeight="1">
@@ -8123,7 +8278,7 @@
         <f>A137+1</f>
         <v>45793</v>
       </c>
-      <c r="B138" s="20"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="20.05" customHeight="1">
@@ -8131,7 +8286,7 @@
         <f>A138+1</f>
         <v>45794</v>
       </c>
-      <c r="B139" s="19"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="3"/>
     </row>
     <row r="140" ht="20.05" customHeight="1">
@@ -8139,7 +8294,7 @@
         <f>A139+1</f>
         <v>45795</v>
       </c>
-      <c r="B140" s="20"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="20.05" customHeight="1">
@@ -8147,7 +8302,7 @@
         <f>A140+1</f>
         <v>45796</v>
       </c>
-      <c r="B141" s="19"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="3"/>
     </row>
     <row r="142" ht="20.05" customHeight="1">
@@ -8155,7 +8310,7 @@
         <f>A141+1</f>
         <v>45797</v>
       </c>
-      <c r="B142" s="20"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="20.05" customHeight="1">
@@ -8163,7 +8318,7 @@
         <f>A142+1</f>
         <v>45798</v>
       </c>
-      <c r="B143" s="19"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="3"/>
     </row>
     <row r="144" ht="20.05" customHeight="1">
@@ -8171,7 +8326,7 @@
         <f>A143+1</f>
         <v>45799</v>
       </c>
-      <c r="B144" s="20"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="20.05" customHeight="1">
@@ -8179,7 +8334,7 @@
         <f>A144+1</f>
         <v>45800</v>
       </c>
-      <c r="B145" s="19"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="3"/>
     </row>
     <row r="146" ht="20.05" customHeight="1">
@@ -8187,7 +8342,7 @@
         <f>A145+1</f>
         <v>45801</v>
       </c>
-      <c r="B146" s="20"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="20.05" customHeight="1">
@@ -8195,7 +8350,7 @@
         <f>A146+1</f>
         <v>45802</v>
       </c>
-      <c r="B147" s="19"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="3"/>
     </row>
     <row r="148" ht="20.05" customHeight="1">
@@ -8203,7 +8358,7 @@
         <f>A147+1</f>
         <v>45803</v>
       </c>
-      <c r="B148" s="20"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="20.05" customHeight="1">
@@ -8211,7 +8366,7 @@
         <f>A148+1</f>
         <v>45804</v>
       </c>
-      <c r="B149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="3"/>
     </row>
     <row r="150" ht="20.05" customHeight="1">
@@ -8219,7 +8374,7 @@
         <f>A149+1</f>
         <v>45805</v>
       </c>
-      <c r="B150" s="20"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="20.05" customHeight="1">
@@ -8227,7 +8382,7 @@
         <f>A150+1</f>
         <v>45806</v>
       </c>
-      <c r="B151" s="19"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="3"/>
     </row>
     <row r="152" ht="20.05" customHeight="1">
@@ -8235,7 +8390,7 @@
         <f>A151+1</f>
         <v>45807</v>
       </c>
-      <c r="B152" s="20"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="20.05" customHeight="1">
@@ -8243,7 +8398,7 @@
         <f>A152+1</f>
         <v>45808</v>
       </c>
-      <c r="B153" s="19"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="3"/>
     </row>
     <row r="154" ht="20.05" customHeight="1">
@@ -8251,7 +8406,7 @@
         <f>A153+1</f>
         <v>45809</v>
       </c>
-      <c r="B154" s="20"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="20.05" customHeight="1">
@@ -8259,7 +8414,7 @@
         <f>A154+1</f>
         <v>45810</v>
       </c>
-      <c r="B155" s="19"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="3"/>
     </row>
     <row r="156" ht="20.05" customHeight="1">
@@ -8267,7 +8422,7 @@
         <f>A155+1</f>
         <v>45811</v>
       </c>
-      <c r="B156" s="20"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="20.05" customHeight="1">
@@ -8275,7 +8430,7 @@
         <f>A156+1</f>
         <v>45812</v>
       </c>
-      <c r="B157" s="19"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="3"/>
     </row>
     <row r="158" ht="20.05" customHeight="1">
@@ -8283,7 +8438,7 @@
         <f>A157+1</f>
         <v>45813</v>
       </c>
-      <c r="B158" s="20"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="20.05" customHeight="1">
@@ -8291,7 +8446,7 @@
         <f>A158+1</f>
         <v>45814</v>
       </c>
-      <c r="B159" s="19"/>
+      <c r="B159" s="20"/>
       <c r="C159" s="3"/>
     </row>
     <row r="160" ht="20.05" customHeight="1">
@@ -8299,7 +8454,7 @@
         <f>A159+1</f>
         <v>45815</v>
       </c>
-      <c r="B160" s="20"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="20.05" customHeight="1">
@@ -8307,7 +8462,7 @@
         <f>A160+1</f>
         <v>45816</v>
       </c>
-      <c r="B161" s="19"/>
+      <c r="B161" s="20"/>
       <c r="C161" s="3"/>
     </row>
     <row r="162" ht="20.05" customHeight="1">
@@ -8315,7 +8470,7 @@
         <f>A161+1</f>
         <v>45817</v>
       </c>
-      <c r="B162" s="20"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="20.05" customHeight="1">
@@ -8323,7 +8478,7 @@
         <f>A162+1</f>
         <v>45818</v>
       </c>
-      <c r="B163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="3"/>
     </row>
     <row r="164" ht="20.05" customHeight="1">
@@ -8331,7 +8486,7 @@
         <f>A163+1</f>
         <v>45819</v>
       </c>
-      <c r="B164" s="20"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="20.05" customHeight="1">
@@ -8339,7 +8494,7 @@
         <f>A164+1</f>
         <v>45820</v>
       </c>
-      <c r="B165" s="19"/>
+      <c r="B165" s="20"/>
       <c r="C165" s="3"/>
     </row>
     <row r="166" ht="20.05" customHeight="1">
@@ -8347,7 +8502,7 @@
         <f>A165+1</f>
         <v>45821</v>
       </c>
-      <c r="B166" s="20"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="20.05" customHeight="1">
@@ -8355,7 +8510,7 @@
         <f>A166+1</f>
         <v>45822</v>
       </c>
-      <c r="B167" s="19"/>
+      <c r="B167" s="20"/>
       <c r="C167" s="3"/>
     </row>
     <row r="168" ht="20.05" customHeight="1">
@@ -8363,7 +8518,7 @@
         <f>A167+1</f>
         <v>45823</v>
       </c>
-      <c r="B168" s="20"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="20.05" customHeight="1">
@@ -8371,7 +8526,7 @@
         <f>A168+1</f>
         <v>45824</v>
       </c>
-      <c r="B169" s="19"/>
+      <c r="B169" s="20"/>
       <c r="C169" s="3"/>
     </row>
     <row r="170" ht="20.05" customHeight="1">
@@ -8379,7 +8534,7 @@
         <f>A169+1</f>
         <v>45825</v>
       </c>
-      <c r="B170" s="20"/>
+      <c r="B170" s="19"/>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="20.05" customHeight="1">
@@ -8387,7 +8542,7 @@
         <f>A170+1</f>
         <v>45826</v>
       </c>
-      <c r="B171" s="19"/>
+      <c r="B171" s="20"/>
       <c r="C171" s="3"/>
     </row>
     <row r="172" ht="20.05" customHeight="1">
@@ -8395,7 +8550,7 @@
         <f>A171+1</f>
         <v>45827</v>
       </c>
-      <c r="B172" s="20"/>
+      <c r="B172" s="19"/>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="20.05" customHeight="1">
@@ -8403,7 +8558,7 @@
         <f>A172+1</f>
         <v>45828</v>
       </c>
-      <c r="B173" s="19"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="3"/>
     </row>
     <row r="174" ht="20.05" customHeight="1">
@@ -8411,7 +8566,7 @@
         <f>A173+1</f>
         <v>45829</v>
       </c>
-      <c r="B174" s="20"/>
+      <c r="B174" s="19"/>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="20.05" customHeight="1">
@@ -8419,7 +8574,7 @@
         <f>A174+1</f>
         <v>45830</v>
       </c>
-      <c r="B175" s="19"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="3"/>
     </row>
     <row r="176" ht="20.05" customHeight="1">
@@ -8427,7 +8582,7 @@
         <f>A175+1</f>
         <v>45831</v>
       </c>
-      <c r="B176" s="20"/>
+      <c r="B176" s="19"/>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="20.05" customHeight="1">
@@ -8435,7 +8590,7 @@
         <f>A176+1</f>
         <v>45832</v>
       </c>
-      <c r="B177" s="19"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="3"/>
     </row>
     <row r="178" ht="20.05" customHeight="1">
@@ -8443,7 +8598,7 @@
         <f>A177+1</f>
         <v>45833</v>
       </c>
-      <c r="B178" s="20"/>
+      <c r="B178" s="19"/>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="20.05" customHeight="1">
@@ -8451,7 +8606,7 @@
         <f>A178+1</f>
         <v>45834</v>
       </c>
-      <c r="B179" s="19"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="3"/>
     </row>
     <row r="180" ht="20.05" customHeight="1">
@@ -8459,7 +8614,7 @@
         <f>A179+1</f>
         <v>45835</v>
       </c>
-      <c r="B180" s="20"/>
+      <c r="B180" s="19"/>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="20.05" customHeight="1">
@@ -8467,7 +8622,7 @@
         <f>A180+1</f>
         <v>45836</v>
       </c>
-      <c r="B181" s="19"/>
+      <c r="B181" s="20"/>
       <c r="C181" s="3"/>
     </row>
     <row r="182" ht="20.05" customHeight="1">
@@ -8475,7 +8630,7 @@
         <f>A181+1</f>
         <v>45837</v>
       </c>
-      <c r="B182" s="20"/>
+      <c r="B182" s="19"/>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="20.05" customHeight="1">
@@ -8483,7 +8638,7 @@
         <f>A182+1</f>
         <v>45838</v>
       </c>
-      <c r="B183" s="19"/>
+      <c r="B183" s="20"/>
       <c r="C183" s="3"/>
     </row>
     <row r="184" ht="20.05" customHeight="1">
@@ -8491,7 +8646,7 @@
         <f>A183+1</f>
         <v>45839</v>
       </c>
-      <c r="B184" s="20"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="20.05" customHeight="1">
@@ -8499,7 +8654,7 @@
         <f>A184+1</f>
         <v>45840</v>
       </c>
-      <c r="B185" s="19"/>
+      <c r="B185" s="20"/>
       <c r="C185" s="3"/>
     </row>
     <row r="186" ht="20.05" customHeight="1">
@@ -8507,7 +8662,7 @@
         <f>A185+1</f>
         <v>45841</v>
       </c>
-      <c r="B186" s="20"/>
+      <c r="B186" s="19"/>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="20.05" customHeight="1">
@@ -8515,7 +8670,7 @@
         <f>A186+1</f>
         <v>45842</v>
       </c>
-      <c r="B187" s="19"/>
+      <c r="B187" s="20"/>
       <c r="C187" s="3"/>
     </row>
     <row r="188" ht="20.05" customHeight="1">
@@ -8523,7 +8678,7 @@
         <f>A187+1</f>
         <v>45843</v>
       </c>
-      <c r="B188" s="20"/>
+      <c r="B188" s="19"/>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="20.05" customHeight="1">
@@ -8531,7 +8686,7 @@
         <f>A188+1</f>
         <v>45844</v>
       </c>
-      <c r="B189" s="19"/>
+      <c r="B189" s="20"/>
       <c r="C189" s="3"/>
     </row>
     <row r="190" ht="20.05" customHeight="1">
@@ -8539,7 +8694,7 @@
         <f>A189+1</f>
         <v>45845</v>
       </c>
-      <c r="B190" s="20"/>
+      <c r="B190" s="19"/>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="20.05" customHeight="1">
@@ -8547,7 +8702,7 @@
         <f>A190+1</f>
         <v>45846</v>
       </c>
-      <c r="B191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="3"/>
     </row>
     <row r="192" ht="20.05" customHeight="1">
@@ -8555,7 +8710,7 @@
         <f>A191+1</f>
         <v>45847</v>
       </c>
-      <c r="B192" s="20"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="20.05" customHeight="1">
@@ -8563,7 +8718,7 @@
         <f>A192+1</f>
         <v>45848</v>
       </c>
-      <c r="B193" s="19"/>
+      <c r="B193" s="20"/>
       <c r="C193" s="3"/>
     </row>
     <row r="194" ht="20.05" customHeight="1">
@@ -8571,7 +8726,7 @@
         <f>A193+1</f>
         <v>45849</v>
       </c>
-      <c r="B194" s="20"/>
+      <c r="B194" s="19"/>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="20.05" customHeight="1">
@@ -8579,7 +8734,7 @@
         <f>A194+1</f>
         <v>45850</v>
       </c>
-      <c r="B195" s="19"/>
+      <c r="B195" s="20"/>
       <c r="C195" s="3"/>
     </row>
     <row r="196" ht="20.05" customHeight="1">
@@ -8587,7 +8742,7 @@
         <f>A195+1</f>
         <v>45851</v>
       </c>
-      <c r="B196" s="20"/>
+      <c r="B196" s="19"/>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="20.05" customHeight="1">
@@ -8595,7 +8750,7 @@
         <f>A196+1</f>
         <v>45852</v>
       </c>
-      <c r="B197" s="19"/>
+      <c r="B197" s="20"/>
       <c r="C197" s="3"/>
     </row>
     <row r="198" ht="20.05" customHeight="1">
@@ -8603,7 +8758,7 @@
         <f>A197+1</f>
         <v>45853</v>
       </c>
-      <c r="B198" s="20"/>
+      <c r="B198" s="19"/>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="20.05" customHeight="1">
@@ -8611,7 +8766,7 @@
         <f>A198+1</f>
         <v>45854</v>
       </c>
-      <c r="B199" s="19"/>
+      <c r="B199" s="20"/>
       <c r="C199" s="3"/>
     </row>
     <row r="200" ht="20.05" customHeight="1">
@@ -8619,7 +8774,7 @@
         <f>A199+1</f>
         <v>45855</v>
       </c>
-      <c r="B200" s="20"/>
+      <c r="B200" s="19"/>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="20.05" customHeight="1">
@@ -8627,7 +8782,7 @@
         <f>A200+1</f>
         <v>45856</v>
       </c>
-      <c r="B201" s="19"/>
+      <c r="B201" s="20"/>
       <c r="C201" s="3"/>
     </row>
     <row r="202" ht="20.05" customHeight="1">
@@ -8635,7 +8790,7 @@
         <f>A201+1</f>
         <v>45857</v>
       </c>
-      <c r="B202" s="20"/>
+      <c r="B202" s="19"/>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="20.05" customHeight="1">
@@ -8643,7 +8798,7 @@
         <f>A202+1</f>
         <v>45858</v>
       </c>
-      <c r="B203" s="19"/>
+      <c r="B203" s="20"/>
       <c r="C203" s="3"/>
     </row>
     <row r="204" ht="20.05" customHeight="1">
@@ -8651,7 +8806,7 @@
         <f>A203+1</f>
         <v>45859</v>
       </c>
-      <c r="B204" s="20"/>
+      <c r="B204" s="19"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" ht="20.05" customHeight="1">
@@ -8659,7 +8814,7 @@
         <f>A204+1</f>
         <v>45860</v>
       </c>
-      <c r="B205" s="19"/>
+      <c r="B205" s="20"/>
       <c r="C205" s="3"/>
     </row>
     <row r="206" ht="20.05" customHeight="1">
@@ -8667,7 +8822,7 @@
         <f>A205+1</f>
         <v>45861</v>
       </c>
-      <c r="B206" s="20"/>
+      <c r="B206" s="19"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" ht="20.05" customHeight="1">
@@ -8675,7 +8830,7 @@
         <f>A206+1</f>
         <v>45862</v>
       </c>
-      <c r="B207" s="19"/>
+      <c r="B207" s="20"/>
       <c r="C207" s="3"/>
     </row>
     <row r="208" ht="20.05" customHeight="1">
@@ -8683,7 +8838,7 @@
         <f>A207+1</f>
         <v>45863</v>
       </c>
-      <c r="B208" s="20"/>
+      <c r="B208" s="19"/>
       <c r="C208" s="4"/>
     </row>
     <row r="209" ht="20.05" customHeight="1">
@@ -8691,7 +8846,7 @@
         <f>A208+1</f>
         <v>45864</v>
       </c>
-      <c r="B209" s="19"/>
+      <c r="B209" s="20"/>
       <c r="C209" s="3"/>
     </row>
     <row r="210" ht="20.05" customHeight="1">
@@ -8699,7 +8854,7 @@
         <f>A209+1</f>
         <v>45865</v>
       </c>
-      <c r="B210" s="20"/>
+      <c r="B210" s="19"/>
       <c r="C210" s="4"/>
     </row>
     <row r="211" ht="20.05" customHeight="1">
@@ -8707,7 +8862,7 @@
         <f>A210+1</f>
         <v>45866</v>
       </c>
-      <c r="B211" s="19"/>
+      <c r="B211" s="20"/>
       <c r="C211" s="3"/>
     </row>
     <row r="212" ht="20.05" customHeight="1">
@@ -8715,7 +8870,7 @@
         <f>A211+1</f>
         <v>45867</v>
       </c>
-      <c r="B212" s="20"/>
+      <c r="B212" s="19"/>
       <c r="C212" s="4"/>
     </row>
     <row r="213" ht="20.05" customHeight="1">
@@ -8723,7 +8878,7 @@
         <f>A212+1</f>
         <v>45868</v>
       </c>
-      <c r="B213" s="19"/>
+      <c r="B213" s="20"/>
       <c r="C213" s="3"/>
     </row>
     <row r="214" ht="20.05" customHeight="1">
@@ -8731,7 +8886,7 @@
         <f>A213+1</f>
         <v>45869</v>
       </c>
-      <c r="B214" s="20"/>
+      <c r="B214" s="19"/>
       <c r="C214" s="4"/>
     </row>
     <row r="215" ht="20.05" customHeight="1">
@@ -8739,7 +8894,7 @@
         <f>A214+1</f>
         <v>45870</v>
       </c>
-      <c r="B215" s="19"/>
+      <c r="B215" s="20"/>
       <c r="C215" s="3"/>
     </row>
     <row r="216" ht="20.05" customHeight="1">
@@ -8747,7 +8902,7 @@
         <f>A215+1</f>
         <v>45871</v>
       </c>
-      <c r="B216" s="20"/>
+      <c r="B216" s="19"/>
       <c r="C216" s="4"/>
     </row>
     <row r="217" ht="20.05" customHeight="1">
@@ -8755,7 +8910,7 @@
         <f>A216+1</f>
         <v>45872</v>
       </c>
-      <c r="B217" s="19"/>
+      <c r="B217" s="20"/>
       <c r="C217" s="3"/>
     </row>
     <row r="218" ht="20.05" customHeight="1">
@@ -8763,7 +8918,7 @@
         <f>A217+1</f>
         <v>45873</v>
       </c>
-      <c r="B218" s="20"/>
+      <c r="B218" s="19"/>
       <c r="C218" s="4"/>
     </row>
     <row r="219" ht="20.05" customHeight="1">
@@ -8771,7 +8926,7 @@
         <f>A218+1</f>
         <v>45874</v>
       </c>
-      <c r="B219" s="19"/>
+      <c r="B219" s="20"/>
       <c r="C219" s="3"/>
     </row>
     <row r="220" ht="20.05" customHeight="1">
@@ -8779,7 +8934,7 @@
         <f>A219+1</f>
         <v>45875</v>
       </c>
-      <c r="B220" s="20"/>
+      <c r="B220" s="19"/>
       <c r="C220" s="4"/>
     </row>
     <row r="221" ht="20.05" customHeight="1">
@@ -8787,7 +8942,7 @@
         <f>A220+1</f>
         <v>45876</v>
       </c>
-      <c r="B221" s="19"/>
+      <c r="B221" s="20"/>
       <c r="C221" s="3"/>
     </row>
     <row r="222" ht="20.05" customHeight="1">
@@ -8795,7 +8950,7 @@
         <f>A221+1</f>
         <v>45877</v>
       </c>
-      <c r="B222" s="20"/>
+      <c r="B222" s="19"/>
       <c r="C222" s="4"/>
     </row>
     <row r="223" ht="20.05" customHeight="1">
@@ -8803,7 +8958,7 @@
         <f>A222+1</f>
         <v>45878</v>
       </c>
-      <c r="B223" s="19"/>
+      <c r="B223" s="20"/>
       <c r="C223" s="3"/>
     </row>
     <row r="224" ht="20.05" customHeight="1">
@@ -8811,7 +8966,7 @@
         <f>A223+1</f>
         <v>45879</v>
       </c>
-      <c r="B224" s="20"/>
+      <c r="B224" s="19"/>
       <c r="C224" s="4"/>
     </row>
     <row r="225" ht="20.05" customHeight="1">
@@ -8819,7 +8974,7 @@
         <f>A224+1</f>
         <v>45880</v>
       </c>
-      <c r="B225" s="19"/>
+      <c r="B225" s="20"/>
       <c r="C225" s="3"/>
     </row>
     <row r="226" ht="20.05" customHeight="1">
@@ -8827,7 +8982,7 @@
         <f>A225+1</f>
         <v>45881</v>
       </c>
-      <c r="B226" s="20"/>
+      <c r="B226" s="19"/>
       <c r="C226" s="4"/>
     </row>
     <row r="227" ht="20.05" customHeight="1">
@@ -8835,7 +8990,7 @@
         <f>A226+1</f>
         <v>45882</v>
       </c>
-      <c r="B227" s="19"/>
+      <c r="B227" s="20"/>
       <c r="C227" s="3"/>
     </row>
     <row r="228" ht="20.05" customHeight="1">
@@ -8843,7 +8998,7 @@
         <f>A227+1</f>
         <v>45883</v>
       </c>
-      <c r="B228" s="20"/>
+      <c r="B228" s="19"/>
       <c r="C228" s="4"/>
     </row>
     <row r="229" ht="20.05" customHeight="1">
@@ -8851,7 +9006,7 @@
         <f>A228+1</f>
         <v>45884</v>
       </c>
-      <c r="B229" s="19"/>
+      <c r="B229" s="20"/>
       <c r="C229" s="3"/>
     </row>
     <row r="230" ht="20.05" customHeight="1">
@@ -8859,7 +9014,7 @@
         <f>A229+1</f>
         <v>45885</v>
       </c>
-      <c r="B230" s="20"/>
+      <c r="B230" s="19"/>
       <c r="C230" s="4"/>
     </row>
     <row r="231" ht="20.05" customHeight="1">
@@ -8867,7 +9022,7 @@
         <f>A230+1</f>
         <v>45886</v>
       </c>
-      <c r="B231" s="19"/>
+      <c r="B231" s="20"/>
       <c r="C231" s="3"/>
     </row>
     <row r="232" ht="20.05" customHeight="1">
@@ -8875,7 +9030,7 @@
         <f>A231+1</f>
         <v>45887</v>
       </c>
-      <c r="B232" s="20"/>
+      <c r="B232" s="19"/>
       <c r="C232" s="4"/>
     </row>
     <row r="233" ht="20.05" customHeight="1">
@@ -8883,7 +9038,7 @@
         <f>A232+1</f>
         <v>45888</v>
       </c>
-      <c r="B233" s="19"/>
+      <c r="B233" s="20"/>
       <c r="C233" s="3"/>
     </row>
     <row r="234" ht="20.05" customHeight="1">
@@ -8891,7 +9046,7 @@
         <f>A233+1</f>
         <v>45889</v>
       </c>
-      <c r="B234" s="20"/>
+      <c r="B234" s="19"/>
       <c r="C234" s="4"/>
     </row>
     <row r="235" ht="20.05" customHeight="1">
@@ -8899,7 +9054,7 @@
         <f>A234+1</f>
         <v>45890</v>
       </c>
-      <c r="B235" s="19"/>
+      <c r="B235" s="20"/>
       <c r="C235" s="3"/>
     </row>
     <row r="236" ht="20.05" customHeight="1">
@@ -8907,7 +9062,7 @@
         <f>A235+1</f>
         <v>45891</v>
       </c>
-      <c r="B236" s="20"/>
+      <c r="B236" s="19"/>
       <c r="C236" s="4"/>
     </row>
     <row r="237" ht="20.05" customHeight="1">
@@ -8915,7 +9070,7 @@
         <f>A236+1</f>
         <v>45892</v>
       </c>
-      <c r="B237" s="19"/>
+      <c r="B237" s="20"/>
       <c r="C237" s="3"/>
     </row>
     <row r="238" ht="20.05" customHeight="1">
@@ -8923,7 +9078,7 @@
         <f>A237+1</f>
         <v>45893</v>
       </c>
-      <c r="B238" s="20"/>
+      <c r="B238" s="19"/>
       <c r="C238" s="4"/>
     </row>
     <row r="239" ht="20.05" customHeight="1">
@@ -8931,7 +9086,7 @@
         <f>A238+1</f>
         <v>45894</v>
       </c>
-      <c r="B239" s="19"/>
+      <c r="B239" s="20"/>
       <c r="C239" s="3"/>
     </row>
     <row r="240" ht="20.05" customHeight="1">
@@ -8939,7 +9094,7 @@
         <f>A239+1</f>
         <v>45895</v>
       </c>
-      <c r="B240" s="20"/>
+      <c r="B240" s="19"/>
       <c r="C240" s="4"/>
     </row>
     <row r="241" ht="20.05" customHeight="1">
@@ -8947,7 +9102,7 @@
         <f>A240+1</f>
         <v>45896</v>
       </c>
-      <c r="B241" s="19"/>
+      <c r="B241" s="20"/>
       <c r="C241" s="3"/>
     </row>
     <row r="242" ht="20.05" customHeight="1">
@@ -8955,7 +9110,7 @@
         <f>A241+1</f>
         <v>45897</v>
       </c>
-      <c r="B242" s="20"/>
+      <c r="B242" s="19"/>
       <c r="C242" s="4"/>
     </row>
     <row r="243" ht="20.05" customHeight="1">
@@ -8963,7 +9118,7 @@
         <f>A242+1</f>
         <v>45898</v>
       </c>
-      <c r="B243" s="19"/>
+      <c r="B243" s="20"/>
       <c r="C243" s="3"/>
     </row>
     <row r="244" ht="20.05" customHeight="1">
@@ -8971,7 +9126,7 @@
         <f>A243+1</f>
         <v>45899</v>
       </c>
-      <c r="B244" s="20"/>
+      <c r="B244" s="19"/>
       <c r="C244" s="4"/>
     </row>
     <row r="245" ht="20.05" customHeight="1">
@@ -8979,7 +9134,7 @@
         <f>A244+1</f>
         <v>45900</v>
       </c>
-      <c r="B245" s="19"/>
+      <c r="B245" s="20"/>
       <c r="C245" s="3"/>
     </row>
     <row r="246" ht="20.05" customHeight="1">
@@ -8987,7 +9142,7 @@
         <f>A245+1</f>
         <v>45901</v>
       </c>
-      <c r="B246" s="20"/>
+      <c r="B246" s="19"/>
       <c r="C246" s="4"/>
     </row>
     <row r="247" ht="20.05" customHeight="1">
@@ -8995,7 +9150,7 @@
         <f>A246+1</f>
         <v>45902</v>
       </c>
-      <c r="B247" s="19"/>
+      <c r="B247" s="20"/>
       <c r="C247" s="3"/>
     </row>
     <row r="248" ht="20.05" customHeight="1">
@@ -9003,7 +9158,7 @@
         <f>A247+1</f>
         <v>45903</v>
       </c>
-      <c r="B248" s="20"/>
+      <c r="B248" s="19"/>
       <c r="C248" s="4"/>
     </row>
     <row r="249" ht="20.05" customHeight="1">
@@ -9011,7 +9166,7 @@
         <f>A248+1</f>
         <v>45904</v>
       </c>
-      <c r="B249" s="19"/>
+      <c r="B249" s="20"/>
       <c r="C249" s="3"/>
     </row>
     <row r="250" ht="20.05" customHeight="1">
@@ -9019,7 +9174,7 @@
         <f>A249+1</f>
         <v>45905</v>
       </c>
-      <c r="B250" s="20"/>
+      <c r="B250" s="19"/>
       <c r="C250" s="4"/>
     </row>
     <row r="251" ht="20.05" customHeight="1">
@@ -9027,7 +9182,7 @@
         <f>A250+1</f>
         <v>45906</v>
       </c>
-      <c r="B251" s="19"/>
+      <c r="B251" s="20"/>
       <c r="C251" s="3"/>
     </row>
     <row r="252" ht="20.05" customHeight="1">
@@ -9035,7 +9190,7 @@
         <f>A251+1</f>
         <v>45907</v>
       </c>
-      <c r="B252" s="20"/>
+      <c r="B252" s="19"/>
       <c r="C252" s="4"/>
     </row>
     <row r="253" ht="20.05" customHeight="1">
@@ -9043,7 +9198,7 @@
         <f>A252+1</f>
         <v>45908</v>
       </c>
-      <c r="B253" s="19"/>
+      <c r="B253" s="20"/>
       <c r="C253" s="3"/>
     </row>
     <row r="254" ht="20.05" customHeight="1">
@@ -9051,7 +9206,7 @@
         <f>A253+1</f>
         <v>45909</v>
       </c>
-      <c r="B254" s="20"/>
+      <c r="B254" s="19"/>
       <c r="C254" s="4"/>
     </row>
     <row r="255" ht="20.05" customHeight="1">
@@ -9059,7 +9214,7 @@
         <f>A254+1</f>
         <v>45910</v>
       </c>
-      <c r="B255" s="19"/>
+      <c r="B255" s="20"/>
       <c r="C255" s="3"/>
     </row>
     <row r="256" ht="20.05" customHeight="1">
@@ -9067,7 +9222,7 @@
         <f>A255+1</f>
         <v>45911</v>
       </c>
-      <c r="B256" s="20"/>
+      <c r="B256" s="19"/>
       <c r="C256" s="4"/>
     </row>
     <row r="257" ht="20.05" customHeight="1">
@@ -9075,7 +9230,7 @@
         <f>A256+1</f>
         <v>45912</v>
       </c>
-      <c r="B257" s="19"/>
+      <c r="B257" s="20"/>
       <c r="C257" s="3"/>
     </row>
     <row r="258" ht="20.05" customHeight="1">
@@ -9083,7 +9238,7 @@
         <f>A257+1</f>
         <v>45913</v>
       </c>
-      <c r="B258" s="20"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="4"/>
     </row>
     <row r="259" ht="20.05" customHeight="1">
@@ -9091,7 +9246,7 @@
         <f>A258+1</f>
         <v>45914</v>
       </c>
-      <c r="B259" s="19"/>
+      <c r="B259" s="20"/>
       <c r="C259" s="3"/>
     </row>
     <row r="260" ht="20.05" customHeight="1">
@@ -9099,7 +9254,7 @@
         <f>A259+1</f>
         <v>45915</v>
       </c>
-      <c r="B260" s="20"/>
+      <c r="B260" s="19"/>
       <c r="C260" s="4"/>
     </row>
     <row r="261" ht="20.05" customHeight="1">
@@ -9107,7 +9262,7 @@
         <f>A260+1</f>
         <v>45916</v>
       </c>
-      <c r="B261" s="19"/>
+      <c r="B261" s="20"/>
       <c r="C261" s="3"/>
     </row>
     <row r="262" ht="20.05" customHeight="1">
@@ -9115,7 +9270,7 @@
         <f>A261+1</f>
         <v>45917</v>
       </c>
-      <c r="B262" s="20"/>
+      <c r="B262" s="19"/>
       <c r="C262" s="4"/>
     </row>
     <row r="263" ht="20.05" customHeight="1">
@@ -9123,7 +9278,7 @@
         <f>A262+1</f>
         <v>45918</v>
       </c>
-      <c r="B263" s="19"/>
+      <c r="B263" s="20"/>
       <c r="C263" s="3"/>
     </row>
     <row r="264" ht="20.05" customHeight="1">
@@ -9131,7 +9286,7 @@
         <f>A263+1</f>
         <v>45919</v>
       </c>
-      <c r="B264" s="20"/>
+      <c r="B264" s="19"/>
       <c r="C264" s="4"/>
     </row>
     <row r="265" ht="20.05" customHeight="1">
@@ -9139,7 +9294,7 @@
         <f>A264+1</f>
         <v>45920</v>
       </c>
-      <c r="B265" s="19"/>
+      <c r="B265" s="20"/>
       <c r="C265" s="3"/>
     </row>
     <row r="266" ht="20.05" customHeight="1">
@@ -9147,7 +9302,7 @@
         <f>A265+1</f>
         <v>45921</v>
       </c>
-      <c r="B266" s="20"/>
+      <c r="B266" s="19"/>
       <c r="C266" s="4"/>
     </row>
     <row r="267" ht="20.05" customHeight="1">
@@ -9155,7 +9310,7 @@
         <f>A266+1</f>
         <v>45922</v>
       </c>
-      <c r="B267" s="19"/>
+      <c r="B267" s="20"/>
       <c r="C267" s="3"/>
     </row>
     <row r="268" ht="20.05" customHeight="1">
@@ -9163,7 +9318,7 @@
         <f>A267+1</f>
         <v>45923</v>
       </c>
-      <c r="B268" s="20"/>
+      <c r="B268" s="19"/>
       <c r="C268" s="4"/>
     </row>
     <row r="269" ht="20.05" customHeight="1">
@@ -9171,7 +9326,7 @@
         <f>A268+1</f>
         <v>45924</v>
       </c>
-      <c r="B269" s="19"/>
+      <c r="B269" s="20"/>
       <c r="C269" s="3"/>
     </row>
     <row r="270" ht="20.05" customHeight="1">
@@ -9179,7 +9334,7 @@
         <f>A269+1</f>
         <v>45925</v>
       </c>
-      <c r="B270" s="20"/>
+      <c r="B270" s="19"/>
       <c r="C270" s="4"/>
     </row>
     <row r="271" ht="20.05" customHeight="1">
@@ -9187,7 +9342,7 @@
         <f>A270+1</f>
         <v>45926</v>
       </c>
-      <c r="B271" s="19"/>
+      <c r="B271" s="20"/>
       <c r="C271" s="3"/>
     </row>
     <row r="272" ht="20.05" customHeight="1">
@@ -9195,7 +9350,7 @@
         <f>A271+1</f>
         <v>45927</v>
       </c>
-      <c r="B272" s="20"/>
+      <c r="B272" s="19"/>
       <c r="C272" s="4"/>
     </row>
     <row r="273" ht="20.05" customHeight="1">
@@ -9203,7 +9358,7 @@
         <f>A272+1</f>
         <v>45928</v>
       </c>
-      <c r="B273" s="19"/>
+      <c r="B273" s="20"/>
       <c r="C273" s="3"/>
     </row>
     <row r="274" ht="20.05" customHeight="1">
@@ -9211,7 +9366,7 @@
         <f>A273+1</f>
         <v>45929</v>
       </c>
-      <c r="B274" s="20"/>
+      <c r="B274" s="19"/>
       <c r="C274" s="4"/>
     </row>
     <row r="275" ht="20.05" customHeight="1">
@@ -9219,7 +9374,7 @@
         <f>A274+1</f>
         <v>45930</v>
       </c>
-      <c r="B275" s="19"/>
+      <c r="B275" s="20"/>
       <c r="C275" s="3"/>
     </row>
     <row r="276" ht="20.05" customHeight="1">
@@ -9227,7 +9382,7 @@
         <f>A275+1</f>
         <v>45931</v>
       </c>
-      <c r="B276" s="20"/>
+      <c r="B276" s="19"/>
       <c r="C276" s="4"/>
     </row>
     <row r="277" ht="20.05" customHeight="1">
@@ -9235,7 +9390,7 @@
         <f>A276+1</f>
         <v>45932</v>
       </c>
-      <c r="B277" s="19"/>
+      <c r="B277" s="20"/>
       <c r="C277" s="3"/>
     </row>
     <row r="278" ht="20.05" customHeight="1">
@@ -9243,7 +9398,7 @@
         <f>A277+1</f>
         <v>45933</v>
       </c>
-      <c r="B278" s="20"/>
+      <c r="B278" s="19"/>
       <c r="C278" s="4"/>
     </row>
     <row r="279" ht="20.05" customHeight="1">
@@ -9251,7 +9406,7 @@
         <f>A278+1</f>
         <v>45934</v>
       </c>
-      <c r="B279" s="19"/>
+      <c r="B279" s="20"/>
       <c r="C279" s="3"/>
     </row>
     <row r="280" ht="20.05" customHeight="1">
@@ -9259,7 +9414,7 @@
         <f>A279+1</f>
         <v>45935</v>
       </c>
-      <c r="B280" s="20"/>
+      <c r="B280" s="19"/>
       <c r="C280" s="4"/>
     </row>
     <row r="281" ht="20.05" customHeight="1">
@@ -9267,7 +9422,7 @@
         <f>A280+1</f>
         <v>45936</v>
       </c>
-      <c r="B281" s="19"/>
+      <c r="B281" s="20"/>
       <c r="C281" s="3"/>
     </row>
     <row r="282" ht="20.05" customHeight="1">
@@ -9275,7 +9430,7 @@
         <f>A281+1</f>
         <v>45937</v>
       </c>
-      <c r="B282" s="20"/>
+      <c r="B282" s="19"/>
       <c r="C282" s="4"/>
     </row>
     <row r="283" ht="20.05" customHeight="1">
@@ -9283,7 +9438,7 @@
         <f>A282+1</f>
         <v>45938</v>
       </c>
-      <c r="B283" s="19"/>
+      <c r="B283" s="20"/>
       <c r="C283" s="3"/>
     </row>
     <row r="284" ht="20.05" customHeight="1">
@@ -9291,7 +9446,7 @@
         <f>A283+1</f>
         <v>45939</v>
       </c>
-      <c r="B284" s="20"/>
+      <c r="B284" s="19"/>
       <c r="C284" s="4"/>
     </row>
     <row r="285" ht="20.05" customHeight="1">
@@ -9299,7 +9454,7 @@
         <f>A284+1</f>
         <v>45940</v>
       </c>
-      <c r="B285" s="19"/>
+      <c r="B285" s="20"/>
       <c r="C285" s="3"/>
     </row>
     <row r="286" ht="20.05" customHeight="1">
@@ -9307,7 +9462,7 @@
         <f>A285+1</f>
         <v>45941</v>
       </c>
-      <c r="B286" s="20"/>
+      <c r="B286" s="19"/>
       <c r="C286" s="4"/>
     </row>
     <row r="287" ht="20.05" customHeight="1">
@@ -9315,7 +9470,7 @@
         <f>A286+1</f>
         <v>45942</v>
       </c>
-      <c r="B287" s="19"/>
+      <c r="B287" s="20"/>
       <c r="C287" s="3"/>
     </row>
     <row r="288" ht="20.05" customHeight="1">
@@ -9323,7 +9478,7 @@
         <f>A287+1</f>
         <v>45943</v>
       </c>
-      <c r="B288" s="20"/>
+      <c r="B288" s="19"/>
       <c r="C288" s="4"/>
     </row>
     <row r="289" ht="20.05" customHeight="1">
@@ -9331,7 +9486,7 @@
         <f>A288+1</f>
         <v>45944</v>
       </c>
-      <c r="B289" s="19"/>
+      <c r="B289" s="20"/>
       <c r="C289" s="3"/>
     </row>
     <row r="290" ht="20.05" customHeight="1">
@@ -9339,7 +9494,7 @@
         <f>A289+1</f>
         <v>45945</v>
       </c>
-      <c r="B290" s="20"/>
+      <c r="B290" s="19"/>
       <c r="C290" s="4"/>
     </row>
     <row r="291" ht="20.05" customHeight="1">
@@ -9347,7 +9502,7 @@
         <f>A290+1</f>
         <v>45946</v>
       </c>
-      <c r="B291" s="19"/>
+      <c r="B291" s="20"/>
       <c r="C291" s="3"/>
     </row>
     <row r="292" ht="20.05" customHeight="1">
@@ -9355,7 +9510,7 @@
         <f>A291+1</f>
         <v>45947</v>
       </c>
-      <c r="B292" s="20"/>
+      <c r="B292" s="19"/>
       <c r="C292" s="4"/>
     </row>
     <row r="293" ht="20.05" customHeight="1">
@@ -9363,7 +9518,7 @@
         <f>A292+1</f>
         <v>45948</v>
       </c>
-      <c r="B293" s="19"/>
+      <c r="B293" s="20"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" ht="20.05" customHeight="1">
@@ -9371,7 +9526,7 @@
         <f>A293+1</f>
         <v>45949</v>
       </c>
-      <c r="B294" s="20"/>
+      <c r="B294" s="19"/>
       <c r="C294" s="4"/>
     </row>
     <row r="295" ht="20.05" customHeight="1">
@@ -9379,7 +9534,7 @@
         <f>A294+1</f>
         <v>45950</v>
       </c>
-      <c r="B295" s="19"/>
+      <c r="B295" s="20"/>
       <c r="C295" s="3"/>
     </row>
     <row r="296" ht="20.05" customHeight="1">
@@ -9387,7 +9542,7 @@
         <f>A295+1</f>
         <v>45951</v>
       </c>
-      <c r="B296" s="20"/>
+      <c r="B296" s="19"/>
       <c r="C296" s="4"/>
     </row>
     <row r="297" ht="20.05" customHeight="1">
@@ -9395,7 +9550,7 @@
         <f>A296+1</f>
         <v>45952</v>
       </c>
-      <c r="B297" s="19"/>
+      <c r="B297" s="20"/>
       <c r="C297" s="3"/>
     </row>
     <row r="298" ht="20.05" customHeight="1">
@@ -9403,7 +9558,7 @@
         <f>A297+1</f>
         <v>45953</v>
       </c>
-      <c r="B298" s="20"/>
+      <c r="B298" s="19"/>
       <c r="C298" s="4"/>
     </row>
     <row r="299" ht="20.05" customHeight="1">
@@ -9411,7 +9566,7 @@
         <f>A298+1</f>
         <v>45954</v>
       </c>
-      <c r="B299" s="19"/>
+      <c r="B299" s="20"/>
       <c r="C299" s="3"/>
     </row>
     <row r="300" ht="20.05" customHeight="1">
@@ -9419,7 +9574,7 @@
         <f>A299+1</f>
         <v>45955</v>
       </c>
-      <c r="B300" s="20"/>
+      <c r="B300" s="19"/>
       <c r="C300" s="4"/>
     </row>
     <row r="301" ht="20.05" customHeight="1">
@@ -9427,7 +9582,7 @@
         <f>A300+1</f>
         <v>45956</v>
       </c>
-      <c r="B301" s="19"/>
+      <c r="B301" s="20"/>
       <c r="C301" s="3"/>
     </row>
     <row r="302" ht="20.05" customHeight="1">
@@ -9435,7 +9590,7 @@
         <f>A301+1</f>
         <v>45957</v>
       </c>
-      <c r="B302" s="20"/>
+      <c r="B302" s="19"/>
       <c r="C302" s="4"/>
     </row>
     <row r="303" ht="20.05" customHeight="1">
@@ -9443,7 +9598,7 @@
         <f>A302+1</f>
         <v>45958</v>
       </c>
-      <c r="B303" s="19"/>
+      <c r="B303" s="20"/>
       <c r="C303" s="3"/>
     </row>
     <row r="304" ht="20.05" customHeight="1">
@@ -9451,7 +9606,7 @@
         <f>A303+1</f>
         <v>45959</v>
       </c>
-      <c r="B304" s="20"/>
+      <c r="B304" s="19"/>
       <c r="C304" s="4"/>
     </row>
     <row r="305" ht="20.05" customHeight="1">
@@ -9459,7 +9614,7 @@
         <f>A304+1</f>
         <v>45960</v>
       </c>
-      <c r="B305" s="19"/>
+      <c r="B305" s="20"/>
       <c r="C305" s="3"/>
     </row>
     <row r="306" ht="20.05" customHeight="1">
@@ -9467,7 +9622,7 @@
         <f>A305+1</f>
         <v>45961</v>
       </c>
-      <c r="B306" s="20"/>
+      <c r="B306" s="19"/>
       <c r="C306" s="4"/>
     </row>
     <row r="307" ht="20.05" customHeight="1">
@@ -9475,7 +9630,7 @@
         <f>A306+1</f>
         <v>45962</v>
       </c>
-      <c r="B307" s="19"/>
+      <c r="B307" s="20"/>
       <c r="C307" s="3"/>
     </row>
     <row r="308" ht="20.05" customHeight="1">
@@ -9483,7 +9638,7 @@
         <f>A307+1</f>
         <v>45963</v>
       </c>
-      <c r="B308" s="20"/>
+      <c r="B308" s="19"/>
       <c r="C308" s="4"/>
     </row>
     <row r="309" ht="20.05" customHeight="1">
@@ -9491,7 +9646,7 @@
         <f>A308+1</f>
         <v>45964</v>
       </c>
-      <c r="B309" s="19"/>
+      <c r="B309" s="20"/>
       <c r="C309" s="3"/>
     </row>
     <row r="310" ht="20.05" customHeight="1">
@@ -9499,7 +9654,7 @@
         <f>A309+1</f>
         <v>45965</v>
       </c>
-      <c r="B310" s="20"/>
+      <c r="B310" s="19"/>
       <c r="C310" s="4"/>
     </row>
     <row r="311" ht="20.05" customHeight="1">
@@ -9507,7 +9662,7 @@
         <f>A310+1</f>
         <v>45966</v>
       </c>
-      <c r="B311" s="19"/>
+      <c r="B311" s="20"/>
       <c r="C311" s="3"/>
     </row>
     <row r="312" ht="20.05" customHeight="1">
@@ -9515,7 +9670,7 @@
         <f>A311+1</f>
         <v>45967</v>
       </c>
-      <c r="B312" s="20"/>
+      <c r="B312" s="19"/>
       <c r="C312" s="4"/>
     </row>
     <row r="313" ht="20.05" customHeight="1">
@@ -9523,7 +9678,7 @@
         <f>A312+1</f>
         <v>45968</v>
       </c>
-      <c r="B313" s="19"/>
+      <c r="B313" s="20"/>
       <c r="C313" s="3"/>
     </row>
     <row r="314" ht="20.05" customHeight="1">
@@ -9531,7 +9686,7 @@
         <f>A313+1</f>
         <v>45969</v>
       </c>
-      <c r="B314" s="20"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="4"/>
     </row>
     <row r="315" ht="20.05" customHeight="1">
@@ -9539,7 +9694,7 @@
         <f>A314+1</f>
         <v>45970</v>
       </c>
-      <c r="B315" s="19"/>
+      <c r="B315" s="20"/>
       <c r="C315" s="3"/>
     </row>
     <row r="316" ht="20.05" customHeight="1">
@@ -9547,7 +9702,7 @@
         <f>A315+1</f>
         <v>45971</v>
       </c>
-      <c r="B316" s="20"/>
+      <c r="B316" s="19"/>
       <c r="C316" s="4"/>
     </row>
     <row r="317" ht="20.05" customHeight="1">
@@ -9555,7 +9710,7 @@
         <f>A316+1</f>
         <v>45972</v>
       </c>
-      <c r="B317" s="19"/>
+      <c r="B317" s="20"/>
       <c r="C317" s="3"/>
     </row>
     <row r="318" ht="20.05" customHeight="1">
@@ -9563,7 +9718,7 @@
         <f>A317+1</f>
         <v>45973</v>
       </c>
-      <c r="B318" s="20"/>
+      <c r="B318" s="19"/>
       <c r="C318" s="4"/>
     </row>
     <row r="319" ht="20.05" customHeight="1">
@@ -9571,7 +9726,7 @@
         <f>A318+1</f>
         <v>45974</v>
       </c>
-      <c r="B319" s="19"/>
+      <c r="B319" s="20"/>
       <c r="C319" s="3"/>
     </row>
     <row r="320" ht="20.05" customHeight="1">
@@ -9579,7 +9734,7 @@
         <f>A319+1</f>
         <v>45975</v>
       </c>
-      <c r="B320" s="20"/>
+      <c r="B320" s="19"/>
       <c r="C320" s="4"/>
     </row>
     <row r="321" ht="20.05" customHeight="1">
@@ -9587,7 +9742,7 @@
         <f>A320+1</f>
         <v>45976</v>
       </c>
-      <c r="B321" s="19"/>
+      <c r="B321" s="20"/>
       <c r="C321" s="3"/>
     </row>
     <row r="322" ht="20.05" customHeight="1">
@@ -9595,7 +9750,7 @@
         <f>A321+1</f>
         <v>45977</v>
       </c>
-      <c r="B322" s="20"/>
+      <c r="B322" s="19"/>
       <c r="C322" s="4"/>
     </row>
     <row r="323" ht="20.05" customHeight="1">
@@ -9603,7 +9758,7 @@
         <f>A322+1</f>
         <v>45978</v>
       </c>
-      <c r="B323" s="19"/>
+      <c r="B323" s="20"/>
       <c r="C323" s="3"/>
     </row>
     <row r="324" ht="20.05" customHeight="1">
@@ -9611,7 +9766,7 @@
         <f>A323+1</f>
         <v>45979</v>
       </c>
-      <c r="B324" s="20"/>
+      <c r="B324" s="19"/>
       <c r="C324" s="4"/>
     </row>
     <row r="325" ht="20.05" customHeight="1">
@@ -9619,7 +9774,7 @@
         <f>A324+1</f>
         <v>45980</v>
       </c>
-      <c r="B325" s="19"/>
+      <c r="B325" s="20"/>
       <c r="C325" s="3"/>
     </row>
     <row r="326" ht="20.05" customHeight="1">
@@ -9627,7 +9782,7 @@
         <f>A325+1</f>
         <v>45981</v>
       </c>
-      <c r="B326" s="20"/>
+      <c r="B326" s="19"/>
       <c r="C326" s="4"/>
     </row>
     <row r="327" ht="20.05" customHeight="1">
@@ -9635,7 +9790,7 @@
         <f>A326+1</f>
         <v>45982</v>
       </c>
-      <c r="B327" s="19"/>
+      <c r="B327" s="20"/>
       <c r="C327" s="3"/>
     </row>
     <row r="328" ht="20.05" customHeight="1">
@@ -9643,7 +9798,7 @@
         <f>A327+1</f>
         <v>45983</v>
       </c>
-      <c r="B328" s="20"/>
+      <c r="B328" s="19"/>
       <c r="C328" s="4"/>
     </row>
     <row r="329" ht="20.05" customHeight="1">
@@ -9651,7 +9806,7 @@
         <f>A328+1</f>
         <v>45984</v>
       </c>
-      <c r="B329" s="19"/>
+      <c r="B329" s="20"/>
       <c r="C329" s="3"/>
     </row>
     <row r="330" ht="20.05" customHeight="1">
@@ -9659,7 +9814,7 @@
         <f>A329+1</f>
         <v>45985</v>
       </c>
-      <c r="B330" s="20"/>
+      <c r="B330" s="19"/>
       <c r="C330" s="4"/>
     </row>
     <row r="331" ht="20.05" customHeight="1">
@@ -9667,7 +9822,7 @@
         <f>A330+1</f>
         <v>45986</v>
       </c>
-      <c r="B331" s="19"/>
+      <c r="B331" s="20"/>
       <c r="C331" s="3"/>
     </row>
     <row r="332" ht="20.05" customHeight="1">
@@ -9675,7 +9830,7 @@
         <f>A331+1</f>
         <v>45987</v>
       </c>
-      <c r="B332" s="20"/>
+      <c r="B332" s="19"/>
       <c r="C332" s="4"/>
     </row>
     <row r="333" ht="20.05" customHeight="1">
@@ -9683,7 +9838,7 @@
         <f>A332+1</f>
         <v>45988</v>
       </c>
-      <c r="B333" s="19"/>
+      <c r="B333" s="20"/>
       <c r="C333" s="3"/>
     </row>
     <row r="334" ht="20.05" customHeight="1">
@@ -9691,7 +9846,7 @@
         <f>A333+1</f>
         <v>45989</v>
       </c>
-      <c r="B334" s="20"/>
+      <c r="B334" s="19"/>
       <c r="C334" s="4"/>
     </row>
     <row r="335" ht="20.05" customHeight="1">
@@ -9699,7 +9854,7 @@
         <f>A334+1</f>
         <v>45990</v>
       </c>
-      <c r="B335" s="19"/>
+      <c r="B335" s="20"/>
       <c r="C335" s="3"/>
     </row>
     <row r="336" ht="20.05" customHeight="1">
@@ -9707,7 +9862,7 @@
         <f>A335+1</f>
         <v>45991</v>
       </c>
-      <c r="B336" s="20"/>
+      <c r="B336" s="19"/>
       <c r="C336" s="4"/>
     </row>
     <row r="337" ht="20.05" customHeight="1">
@@ -9715,7 +9870,7 @@
         <f>A336+1</f>
         <v>45992</v>
       </c>
-      <c r="B337" s="19"/>
+      <c r="B337" s="20"/>
       <c r="C337" s="3"/>
     </row>
     <row r="338" ht="20.05" customHeight="1">
@@ -9723,7 +9878,7 @@
         <f>A337+1</f>
         <v>45993</v>
       </c>
-      <c r="B338" s="20"/>
+      <c r="B338" s="19"/>
       <c r="C338" s="4"/>
     </row>
     <row r="339" ht="20.05" customHeight="1">
@@ -9731,7 +9886,7 @@
         <f>A338+1</f>
         <v>45994</v>
       </c>
-      <c r="B339" s="19"/>
+      <c r="B339" s="20"/>
       <c r="C339" s="3"/>
     </row>
     <row r="340" ht="20.05" customHeight="1">
@@ -9739,7 +9894,7 @@
         <f>A339+1</f>
         <v>45995</v>
       </c>
-      <c r="B340" s="20"/>
+      <c r="B340" s="19"/>
       <c r="C340" s="4"/>
     </row>
     <row r="341" ht="20.05" customHeight="1">
@@ -9747,7 +9902,7 @@
         <f>A340+1</f>
         <v>45996</v>
       </c>
-      <c r="B341" s="19"/>
+      <c r="B341" s="20"/>
       <c r="C341" s="3"/>
     </row>
     <row r="342" ht="20.05" customHeight="1">
@@ -9755,7 +9910,7 @@
         <f>A341+1</f>
         <v>45997</v>
       </c>
-      <c r="B342" s="20"/>
+      <c r="B342" s="19"/>
       <c r="C342" s="4"/>
     </row>
     <row r="343" ht="20.05" customHeight="1">
@@ -9763,7 +9918,7 @@
         <f>A342+1</f>
         <v>45998</v>
       </c>
-      <c r="B343" s="19"/>
+      <c r="B343" s="20"/>
       <c r="C343" s="3"/>
     </row>
     <row r="344" ht="20.05" customHeight="1">
@@ -9771,7 +9926,7 @@
         <f>A343+1</f>
         <v>45999</v>
       </c>
-      <c r="B344" s="20"/>
+      <c r="B344" s="19"/>
       <c r="C344" s="4"/>
     </row>
     <row r="345" ht="20.05" customHeight="1">
@@ -9779,7 +9934,7 @@
         <f>A344+1</f>
         <v>46000</v>
       </c>
-      <c r="B345" s="19"/>
+      <c r="B345" s="20"/>
       <c r="C345" s="3"/>
     </row>
     <row r="346" ht="20.05" customHeight="1">
@@ -9787,7 +9942,7 @@
         <f>A345+1</f>
         <v>46001</v>
       </c>
-      <c r="B346" s="20"/>
+      <c r="B346" s="19"/>
       <c r="C346" s="4"/>
     </row>
     <row r="347" ht="20.05" customHeight="1">
@@ -9795,7 +9950,7 @@
         <f>A346+1</f>
         <v>46002</v>
       </c>
-      <c r="B347" s="19"/>
+      <c r="B347" s="20"/>
       <c r="C347" s="3"/>
     </row>
     <row r="348" ht="20.05" customHeight="1">
@@ -9803,7 +9958,7 @@
         <f>A347+1</f>
         <v>46003</v>
       </c>
-      <c r="B348" s="20"/>
+      <c r="B348" s="19"/>
       <c r="C348" s="4"/>
     </row>
     <row r="349" ht="20.05" customHeight="1">
@@ -9811,7 +9966,7 @@
         <f>A348+1</f>
         <v>46004</v>
       </c>
-      <c r="B349" s="19"/>
+      <c r="B349" s="20"/>
       <c r="C349" s="3"/>
     </row>
     <row r="350" ht="20.05" customHeight="1">
@@ -9819,7 +9974,7 @@
         <f>A349+1</f>
         <v>46005</v>
       </c>
-      <c r="B350" s="20"/>
+      <c r="B350" s="19"/>
       <c r="C350" s="4"/>
     </row>
     <row r="351" ht="20.05" customHeight="1">
@@ -9827,7 +9982,7 @@
         <f>A350+1</f>
         <v>46006</v>
       </c>
-      <c r="B351" s="19"/>
+      <c r="B351" s="20"/>
       <c r="C351" s="3"/>
     </row>
     <row r="352" ht="20.05" customHeight="1">
@@ -9835,7 +9990,7 @@
         <f>A351+1</f>
         <v>46007</v>
       </c>
-      <c r="B352" s="20"/>
+      <c r="B352" s="19"/>
       <c r="C352" s="4"/>
     </row>
     <row r="353" ht="20.05" customHeight="1">
@@ -9843,7 +9998,7 @@
         <f>A352+1</f>
         <v>46008</v>
       </c>
-      <c r="B353" s="19"/>
+      <c r="B353" s="20"/>
       <c r="C353" s="3"/>
     </row>
     <row r="354" ht="20.05" customHeight="1">
@@ -9851,7 +10006,7 @@
         <f>A353+1</f>
         <v>46009</v>
       </c>
-      <c r="B354" s="20"/>
+      <c r="B354" s="19"/>
       <c r="C354" s="4"/>
     </row>
     <row r="355" ht="20.05" customHeight="1">
@@ -9859,7 +10014,7 @@
         <f>A354+1</f>
         <v>46010</v>
       </c>
-      <c r="B355" s="19"/>
+      <c r="B355" s="20"/>
       <c r="C355" s="3"/>
     </row>
     <row r="356" ht="20.05" customHeight="1">
@@ -9867,7 +10022,7 @@
         <f>A355+1</f>
         <v>46011</v>
       </c>
-      <c r="B356" s="20"/>
+      <c r="B356" s="19"/>
       <c r="C356" s="4"/>
     </row>
     <row r="357" ht="20.05" customHeight="1">
@@ -9875,7 +10030,7 @@
         <f>A356+1</f>
         <v>46012</v>
       </c>
-      <c r="B357" s="19"/>
+      <c r="B357" s="20"/>
       <c r="C357" s="3"/>
     </row>
     <row r="358" ht="20.05" customHeight="1">
@@ -9883,7 +10038,7 @@
         <f>A357+1</f>
         <v>46013</v>
       </c>
-      <c r="B358" s="20"/>
+      <c r="B358" s="19"/>
       <c r="C358" s="4"/>
     </row>
     <row r="359" ht="20.05" customHeight="1">
@@ -9891,7 +10046,7 @@
         <f>A358+1</f>
         <v>46014</v>
       </c>
-      <c r="B359" s="19"/>
+      <c r="B359" s="20"/>
       <c r="C359" s="3"/>
     </row>
     <row r="360" ht="20.05" customHeight="1">
@@ -9899,7 +10054,7 @@
         <f>A359+1</f>
         <v>46015</v>
       </c>
-      <c r="B360" s="20"/>
+      <c r="B360" s="19"/>
       <c r="C360" s="4"/>
     </row>
     <row r="361" ht="20.05" customHeight="1">
@@ -9907,7 +10062,7 @@
         <f>A360+1</f>
         <v>46016</v>
       </c>
-      <c r="B361" s="19"/>
+      <c r="B361" s="20"/>
       <c r="C361" s="3"/>
     </row>
     <row r="362" ht="20.05" customHeight="1">
@@ -9915,7 +10070,7 @@
         <f>A361+1</f>
         <v>46017</v>
       </c>
-      <c r="B362" s="20"/>
+      <c r="B362" s="19"/>
       <c r="C362" s="4"/>
     </row>
     <row r="363" ht="20.05" customHeight="1">
@@ -9923,7 +10078,7 @@
         <f>A362+1</f>
         <v>46018</v>
       </c>
-      <c r="B363" s="19"/>
+      <c r="B363" s="20"/>
       <c r="C363" s="3"/>
     </row>
     <row r="364" ht="20.05" customHeight="1">
@@ -9931,7 +10086,7 @@
         <f>A363+1</f>
         <v>46019</v>
       </c>
-      <c r="B364" s="20"/>
+      <c r="B364" s="19"/>
       <c r="C364" s="4"/>
     </row>
     <row r="365" ht="20.05" customHeight="1">
@@ -9939,7 +10094,7 @@
         <f>A364+1</f>
         <v>46020</v>
       </c>
-      <c r="B365" s="19"/>
+      <c r="B365" s="20"/>
       <c r="C365" s="3"/>
     </row>
     <row r="366" ht="20.05" customHeight="1">
@@ -9947,7 +10102,7 @@
         <f>A365+1</f>
         <v>46021</v>
       </c>
-      <c r="B366" s="20"/>
+      <c r="B366" s="19"/>
       <c r="C366" s="4"/>
     </row>
     <row r="367" ht="20.05" customHeight="1">
@@ -9955,7 +10110,7 @@
         <f>A366+1</f>
         <v>46022</v>
       </c>
-      <c r="B367" s="19"/>
+      <c r="B367" s="20"/>
       <c r="C367" s="3"/>
     </row>
   </sheetData>
@@ -10019,7 +10174,7 @@
         <f>A3+1</f>
         <v>46024</v>
       </c>
-      <c r="B4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
@@ -10027,7 +10182,7 @@
         <f>A4+1</f>
         <v>46025</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -10035,7 +10190,7 @@
         <f>A5+1</f>
         <v>46026</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -10043,7 +10198,7 @@
         <f>A6+1</f>
         <v>46027</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
@@ -10051,7 +10206,7 @@
         <f>A7+1</f>
         <v>46028</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
@@ -10059,7 +10214,7 @@
         <f>A8+1</f>
         <v>46029</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -10067,7 +10222,7 @@
         <f>A9+1</f>
         <v>46030</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
@@ -10075,7 +10230,7 @@
         <f>A10+1</f>
         <v>46031</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="3"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
@@ -10083,7 +10238,7 @@
         <f>A11+1</f>
         <v>46032</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
@@ -10091,7 +10246,7 @@
         <f>A12+1</f>
         <v>46033</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
@@ -10099,7 +10254,7 @@
         <f>A13+1</f>
         <v>46034</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="4"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -10107,7 +10262,7 @@
         <f>A14+1</f>
         <v>46035</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -10115,7 +10270,7 @@
         <f>A15+1</f>
         <v>46036</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -10123,7 +10278,7 @@
         <f>A16+1</f>
         <v>46037</v>
       </c>
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -10131,7 +10286,7 @@
         <f>A17+1</f>
         <v>46038</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
@@ -10139,7 +10294,7 @@
         <f>A18+1</f>
         <v>46039</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
@@ -10147,7 +10302,7 @@
         <f>A19+1</f>
         <v>46040</v>
       </c>
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -10155,7 +10310,7 @@
         <f>A20+1</f>
         <v>46041</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
@@ -10163,7 +10318,7 @@
         <f>A21+1</f>
         <v>46042</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="4"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -10171,7 +10326,7 @@
         <f>A22+1</f>
         <v>46043</v>
       </c>
-      <c r="B23" s="19"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="3"/>
     </row>
     <row r="24" ht="20.05" customHeight="1">
@@ -10179,7 +10334,7 @@
         <f>A23+1</f>
         <v>46044</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="4"/>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -10187,7 +10342,7 @@
         <f>A24+1</f>
         <v>46045</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -10195,7 +10350,7 @@
         <f>A25+1</f>
         <v>46046</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="4"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -10203,7 +10358,7 @@
         <f>A26+1</f>
         <v>46047</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -10211,7 +10366,7 @@
         <f>A27+1</f>
         <v>46048</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="4"/>
     </row>
   </sheetData>
